--- a/Code/Results/Cases/Case_2_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.33171974205303</v>
+        <v>18.33171974205305</v>
       </c>
       <c r="C2">
-        <v>10.74486159976083</v>
+        <v>10.74486159976075</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.243747533608692</v>
+        <v>5.243747533608738</v>
       </c>
       <c r="F2">
-        <v>34.12524012680711</v>
+        <v>34.12524012680709</v>
       </c>
       <c r="G2">
-        <v>30.04507253155803</v>
+        <v>30.04507253155792</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.71677286030713</v>
+        <v>11.7167728603071</v>
       </c>
       <c r="J2">
         <v>15.5636479780917</v>
       </c>
       <c r="K2">
-        <v>7.624843832331981</v>
+        <v>7.624843832331949</v>
       </c>
       <c r="L2">
-        <v>13.3018602034196</v>
+        <v>13.30186020341957</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.0237980918856</v>
+        <v>17.02379809188564</v>
       </c>
       <c r="C3">
-        <v>10.05476990367322</v>
+        <v>10.05476990367328</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.053500691139599</v>
+        <v>5.053500691139636</v>
       </c>
       <c r="F3">
-        <v>32.06695218061314</v>
+        <v>32.06695218061316</v>
       </c>
       <c r="G3">
-        <v>28.78453303497953</v>
+        <v>28.78453303497951</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.7499561591822</v>
+        <v>11.74995615918213</v>
       </c>
       <c r="J3">
-        <v>14.50051674399986</v>
+        <v>14.50051674399992</v>
       </c>
       <c r="K3">
-        <v>7.167233992132338</v>
+        <v>7.167233992132334</v>
       </c>
       <c r="L3">
-        <v>12.45588205170328</v>
+        <v>12.4558820517033</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.17959899880038</v>
+        <v>16.17959899880037</v>
       </c>
       <c r="C4">
-        <v>9.611407108864407</v>
+        <v>9.611407108864526</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.936443413723319</v>
+        <v>4.936443413723428</v>
       </c>
       <c r="F4">
-        <v>30.76562964708402</v>
+        <v>30.76562964708398</v>
       </c>
       <c r="G4">
-        <v>28.01094514023658</v>
+        <v>28.01094514023641</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.77467310631844</v>
+        <v>11.77467310631836</v>
       </c>
       <c r="J4">
-        <v>13.8149505616369</v>
+        <v>13.81495056163696</v>
       </c>
       <c r="K4">
-        <v>6.872715445058146</v>
+        <v>6.87271544505812</v>
       </c>
       <c r="L4">
         <v>11.91113589125897</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.82507725211186</v>
+        <v>15.8250772521118</v>
       </c>
       <c r="C5">
-        <v>9.425735305731413</v>
+        <v>9.425735305731513</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.888749836114239</v>
+        <v>4.888749836114213</v>
       </c>
       <c r="F5">
-        <v>30.22625558388214</v>
+        <v>30.22625558388211</v>
       </c>
       <c r="G5">
-        <v>27.69603433607199</v>
+        <v>27.69603433607196</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.78576722228934</v>
+        <v>11.78576722228943</v>
       </c>
       <c r="J5">
-        <v>13.52720837707088</v>
+        <v>13.52720837707089</v>
       </c>
       <c r="K5">
         <v>6.749284913402599</v>
       </c>
       <c r="L5">
-        <v>11.68273279808388</v>
+        <v>11.6827327980839</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.76557025791675</v>
+        <v>15.76557025791667</v>
       </c>
       <c r="C6">
-        <v>9.394601375243591</v>
+        <v>9.394601375243678</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.880833014654606</v>
+        <v>4.880833014654548</v>
       </c>
       <c r="F6">
-        <v>30.13615783037287</v>
+        <v>30.13615783037289</v>
       </c>
       <c r="G6">
-        <v>27.64377148007947</v>
+        <v>27.6437714800796</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.78766916844269</v>
+        <v>11.78766916844276</v>
       </c>
       <c r="J6">
-        <v>13.47892027169716</v>
+        <v>13.47892027169713</v>
       </c>
       <c r="K6">
-        <v>6.728583328299958</v>
+        <v>6.728583328299965</v>
       </c>
       <c r="L6">
-        <v>11.6444180722687</v>
+        <v>11.64441807226867</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.1748605302268</v>
+        <v>16.17486053022683</v>
       </c>
       <c r="C7">
-        <v>9.608923376327867</v>
+        <v>9.608923376327942</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.93580007121651</v>
+        <v>4.935800071216547</v>
       </c>
       <c r="F7">
         <v>30.7583916346066</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.77481867661892</v>
+        <v>11.77481867661899</v>
       </c>
       <c r="J7">
-        <v>13.81110400456542</v>
+        <v>13.81110400456546</v>
       </c>
       <c r="K7">
-        <v>6.871064632612738</v>
+        <v>6.871064632612711</v>
       </c>
       <c r="L7">
         <v>11.90808159393421</v>
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.88918444618545</v>
+        <v>17.8891844461854</v>
       </c>
       <c r="C8">
-        <v>10.51095519788248</v>
+        <v>10.51095519788241</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.178241054243506</v>
+        <v>5.178241054243539</v>
       </c>
       <c r="F8">
-        <v>33.42351022862927</v>
+        <v>33.42351022862918</v>
       </c>
       <c r="G8">
-        <v>29.61048335772555</v>
+        <v>29.61048335772547</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.72726903758623</v>
+        <v>11.72726903758636</v>
       </c>
       <c r="J8">
-        <v>15.2038113446737</v>
+        <v>15.20381134467366</v>
       </c>
       <c r="K8">
-        <v>7.469864245105155</v>
+        <v>7.469864245105207</v>
       </c>
       <c r="L8">
-        <v>13.01538559061083</v>
+        <v>13.0153855906108</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.93248732571822</v>
+        <v>20.93248732571816</v>
       </c>
       <c r="C9">
-        <v>12.12741436500237</v>
+        <v>12.12741436500241</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.649026850617225</v>
+        <v>5.649026850617185</v>
       </c>
       <c r="F9">
-        <v>38.3423084222476</v>
+        <v>38.34230842224755</v>
       </c>
       <c r="G9">
-        <v>32.75114141352406</v>
+        <v>32.75114141352397</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.67199207264505</v>
+        <v>11.67199207264495</v>
       </c>
       <c r="J9">
-        <v>17.6807648056061</v>
+        <v>17.68076480560605</v>
       </c>
       <c r="K9">
-        <v>8.537450507673947</v>
+        <v>8.537450507674055</v>
       </c>
       <c r="L9">
-        <v>14.98904838279759</v>
+        <v>14.98904838279764</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.98620811160249</v>
+        <v>22.98620811160251</v>
       </c>
       <c r="C10">
-        <v>13.22806471352603</v>
+        <v>13.22806471352597</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.989053776185184</v>
+        <v>5.989053776185211</v>
       </c>
       <c r="F10">
-        <v>41.81109783104804</v>
+        <v>41.81109783104792</v>
       </c>
       <c r="G10">
-        <v>35.05073160798499</v>
+        <v>35.05073160798477</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.660033287259</v>
+        <v>11.66003328725889</v>
       </c>
       <c r="J10">
-        <v>19.35519222711666</v>
+        <v>19.35519222711663</v>
       </c>
       <c r="K10">
-        <v>9.258609730045201</v>
+        <v>9.258609730045205</v>
       </c>
       <c r="L10">
         <v>16.32398955638251</v>
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.88391342096256</v>
+        <v>23.88391342096255</v>
       </c>
       <c r="C11">
-        <v>13.71155123303306</v>
+        <v>13.71155123303317</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.142000865401565</v>
+        <v>6.142000865401545</v>
       </c>
       <c r="F11">
-        <v>43.41485494397064</v>
+        <v>43.41485494397062</v>
       </c>
       <c r="G11">
-        <v>36.09555447695925</v>
+        <v>36.09555447695916</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.66224545881185</v>
+        <v>11.66224545881175</v>
       </c>
       <c r="J11">
-        <v>20.08779586171826</v>
+        <v>20.08779586171828</v>
       </c>
       <c r="K11">
-        <v>9.573542409345199</v>
+        <v>9.573542409345245</v>
       </c>
       <c r="L11">
-        <v>16.90781521704571</v>
+        <v>16.90781521704573</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.21887438744867</v>
+        <v>24.21887438744862</v>
       </c>
       <c r="C12">
-        <v>13.89232484007908</v>
+        <v>13.89232484007892</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.199641448492775</v>
+        <v>6.199641448492767</v>
       </c>
       <c r="F12">
-        <v>44.01488299793546</v>
+        <v>44.01488299793549</v>
       </c>
       <c r="G12">
-        <v>36.49115488744951</v>
+        <v>36.49115488744958</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.66432274865839</v>
+        <v>11.66432274865854</v>
       </c>
       <c r="J12">
         <v>20.36125941839014</v>
       </c>
       <c r="K12">
-        <v>9.690971204711014</v>
+        <v>9.690971204711008</v>
       </c>
       <c r="L12">
         <v>17.12567270656508</v>
@@ -833,19 +833,19 @@
         <v>24.14695135136352</v>
       </c>
       <c r="C13">
-        <v>13.85349200464388</v>
+        <v>13.85349200464379</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.187240193835172</v>
+        <v>6.187240193835226</v>
       </c>
       <c r="F13">
-        <v>43.88597403028964</v>
+        <v>43.88597403028959</v>
       </c>
       <c r="G13">
-        <v>36.40595449368252</v>
+        <v>36.40595449368249</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>20.30253623717376</v>
       </c>
       <c r="K13">
-        <v>9.665761142434381</v>
+        <v>9.66576114243432</v>
       </c>
       <c r="L13">
-        <v>17.07889404499992</v>
+        <v>17.07889404499987</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.91156899452074</v>
+        <v>23.91156899452071</v>
       </c>
       <c r="C14">
-        <v>13.72646891235844</v>
+        <v>13.72646891235849</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.146748673775459</v>
+        <v>6.146748673775449</v>
       </c>
       <c r="F14">
-        <v>43.46436339031241</v>
+        <v>43.46436339031246</v>
       </c>
       <c r="G14">
-        <v>36.12810071838879</v>
+        <v>36.12810071838884</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.66239065040379</v>
+        <v>11.6623906504038</v>
       </c>
       <c r="J14">
         <v>20.11037178528876</v>
       </c>
       <c r="K14">
-        <v>9.583239642048959</v>
+        <v>9.583239642048957</v>
       </c>
       <c r="L14">
-        <v>16.92580219230688</v>
+        <v>16.92580219230687</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.76675056915771</v>
+        <v>23.76675056915766</v>
       </c>
       <c r="C15">
-        <v>13.64836770027885</v>
+        <v>13.64836770027886</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.121909677475119</v>
+        <v>6.121909677475096</v>
       </c>
       <c r="F15">
-        <v>43.20517752658392</v>
+        <v>43.20517752658382</v>
       </c>
       <c r="G15">
-        <v>35.95790599545695</v>
+        <v>35.95790599545686</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.66168235571972</v>
+        <v>11.66168235571969</v>
       </c>
       <c r="J15">
-        <v>19.99215734735205</v>
+        <v>19.99215734735198</v>
       </c>
       <c r="K15">
-        <v>9.532456496229102</v>
+        <v>9.532456496229218</v>
       </c>
       <c r="L15">
-        <v>16.83161379502929</v>
+        <v>16.83161379502931</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.9268283659775</v>
+        <v>22.92682836597759</v>
       </c>
       <c r="C16">
-        <v>13.19613480723292</v>
+        <v>13.19613480723295</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.97902085819281</v>
+        <v>5.979020858192761</v>
       </c>
       <c r="F16">
-        <v>41.70525051736708</v>
+        <v>41.70525051736716</v>
       </c>
       <c r="G16">
-        <v>34.98243362701832</v>
+        <v>34.98243362701837</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.66005417892992</v>
+        <v>11.66005417892985</v>
       </c>
       <c r="J16">
-        <v>19.30674805383086</v>
+        <v>19.30674805383094</v>
       </c>
       <c r="K16">
-        <v>9.237768754472068</v>
+        <v>9.237768754472157</v>
       </c>
       <c r="L16">
-        <v>16.28537546239698</v>
+        <v>16.28537546239706</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.40238942199055</v>
+        <v>22.40238942199052</v>
       </c>
       <c r="C17">
-        <v>12.91440561234326</v>
+        <v>12.91440561234333</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.890896622240562</v>
+        <v>5.890896622240567</v>
       </c>
       <c r="F17">
-        <v>40.78413778853373</v>
+        <v>40.78413778853375</v>
       </c>
       <c r="G17">
-        <v>34.38375326336209</v>
+        <v>34.38375326336211</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.66110860458937</v>
+        <v>11.66110860458946</v>
       </c>
       <c r="J17">
-        <v>18.87897115129335</v>
+        <v>18.87897115129333</v>
       </c>
       <c r="K17">
-        <v>9.05366374152598</v>
+        <v>9.053663741525932</v>
       </c>
       <c r="L17">
-        <v>15.94436885195714</v>
+        <v>15.94436885195711</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.0972883328625</v>
+        <v>22.09728833286257</v>
       </c>
       <c r="C18">
-        <v>12.75073197263923</v>
+        <v>12.75073197263906</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.840047897972157</v>
+        <v>5.840047897972166</v>
       </c>
       <c r="F18">
         <v>40.27433252384383</v>
       </c>
       <c r="G18">
-        <v>34.03927532625154</v>
+        <v>34.03927532625149</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.66242599430745</v>
+        <v>11.66242599430728</v>
       </c>
       <c r="J18">
-        <v>18.63017085531862</v>
+        <v>18.63017085531861</v>
       </c>
       <c r="K18">
-        <v>8.946531834756241</v>
+        <v>8.9465318347562</v>
       </c>
       <c r="L18">
         <v>15.74601403756104</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.99338462835129</v>
+        <v>21.99338462835135</v>
       </c>
       <c r="C19">
-        <v>12.6950303174458</v>
+        <v>12.69503031744569</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.822804569966784</v>
+        <v>5.822804569966737</v>
       </c>
       <c r="F19">
-        <v>40.10105551793986</v>
+        <v>40.10105551793989</v>
       </c>
       <c r="G19">
-        <v>33.92261561457396</v>
+        <v>33.92261561457401</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>11.66299019541733</v>
       </c>
       <c r="J19">
-        <v>18.54545180902022</v>
+        <v>18.5454518090202</v>
       </c>
       <c r="K19">
-        <v>8.910044300128806</v>
+        <v>8.910044300128844</v>
       </c>
       <c r="L19">
-        <v>15.67846962758186</v>
+        <v>15.67846962758188</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.45857281156908</v>
+        <v>22.45857281156911</v>
       </c>
       <c r="C20">
-        <v>12.94456381715272</v>
+        <v>12.94456381715277</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.900294594586922</v>
+        <v>5.900294594586955</v>
       </c>
       <c r="F20">
-        <v>40.87817610239068</v>
+        <v>40.8781761023907</v>
       </c>
       <c r="G20">
-        <v>34.44749688273978</v>
+        <v>34.44749688273976</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.66092183300551</v>
+        <v>11.66092183300539</v>
       </c>
       <c r="J20">
-        <v>18.92479223758522</v>
+        <v>18.92479223758525</v>
       </c>
       <c r="K20">
-        <v>9.073389935125583</v>
+        <v>9.073389935125578</v>
       </c>
       <c r="L20">
-        <v>15.98089802438654</v>
+        <v>15.98089802438653</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,31 +1137,31 @@
         <v>23.98083932518619</v>
       </c>
       <c r="C21">
-        <v>13.7638400148489</v>
+        <v>13.76384001484918</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.15864971507482</v>
+        <v>6.158649715074815</v>
       </c>
       <c r="F21">
-        <v>43.58839527503932</v>
+        <v>43.58839527503937</v>
       </c>
       <c r="G21">
-        <v>36.20971300915208</v>
+        <v>36.20971300915215</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.66277499731108</v>
+        <v>11.662774997311</v>
       </c>
       <c r="J21">
-        <v>20.16692059727304</v>
+        <v>20.1669205972731</v>
       </c>
       <c r="K21">
-        <v>9.607527343122136</v>
+        <v>9.607527343122126</v>
       </c>
       <c r="L21">
         <v>16.97085521858285</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.94684935075448</v>
+        <v>24.94684935075449</v>
       </c>
       <c r="C22">
-        <v>14.28590040445966</v>
+        <v>14.28590040445968</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.325877656405196</v>
+        <v>6.325877656405171</v>
       </c>
       <c r="F22">
-        <v>45.32172172934278</v>
+        <v>45.32172172934282</v>
       </c>
       <c r="G22">
         <v>37.36125028139914</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.67129032026838</v>
+        <v>11.67129032026843</v>
       </c>
       <c r="J22">
-        <v>20.95578250618858</v>
+        <v>20.95578250618861</v>
       </c>
       <c r="K22">
-        <v>9.945988220395833</v>
+        <v>9.945988220395884</v>
       </c>
       <c r="L22">
-        <v>17.59913799539898</v>
+        <v>17.59913799539904</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.43381485311404</v>
+        <v>24.43381485311412</v>
       </c>
       <c r="C23">
-        <v>14.00843149112187</v>
+        <v>14.00843149112168</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.236780277286074</v>
+        <v>6.236780277286039</v>
       </c>
       <c r="F23">
-        <v>44.40034934979925</v>
+        <v>44.4003493497994</v>
       </c>
       <c r="G23">
-        <v>36.74660190410685</v>
+        <v>36.74660190410706</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.66602608789147</v>
+        <v>11.66602608789146</v>
       </c>
       <c r="J23">
-        <v>20.53676841775906</v>
+        <v>20.53676841775905</v>
       </c>
       <c r="K23">
-        <v>9.766295987049565</v>
+        <v>9.766295987049556</v>
       </c>
       <c r="L23">
-        <v>17.2654695060704</v>
+        <v>17.26546950607042</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.43318351642763</v>
+        <v>22.43318351642765</v>
       </c>
       <c r="C24">
-        <v>12.93093461152079</v>
+        <v>12.93093461152093</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.896046345055058</v>
+        <v>5.896046345055146</v>
       </c>
       <c r="F24">
-        <v>40.83567409773456</v>
+        <v>40.83567409773465</v>
       </c>
       <c r="G24">
-        <v>34.41867930019465</v>
+        <v>34.41867930019473</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.66100406754475</v>
+        <v>11.66100406754482</v>
       </c>
       <c r="J24">
         <v>18.90408546714626</v>
       </c>
       <c r="K24">
-        <v>9.06447573748844</v>
+        <v>9.06447573748831</v>
       </c>
       <c r="L24">
-        <v>15.96439037768799</v>
+        <v>15.96439037768794</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.14211893144288</v>
+        <v>20.14211893144292</v>
       </c>
       <c r="C25">
-        <v>11.70588567205807</v>
+        <v>11.70588567205774</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.522507961112865</v>
+        <v>5.522507961112884</v>
       </c>
       <c r="F25">
-        <v>37.04547081432865</v>
+        <v>37.04547081432863</v>
       </c>
       <c r="G25">
-        <v>31.90276400364062</v>
+        <v>31.90276400364061</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.68235249274064</v>
+        <v>11.68235249274066</v>
       </c>
       <c r="J25">
-        <v>17.03696849973836</v>
+        <v>17.03696849973831</v>
       </c>
       <c r="K25">
-        <v>8.259904259486378</v>
+        <v>8.259904259486294</v>
       </c>
       <c r="L25">
-        <v>14.47578980317147</v>
+        <v>14.47578980317142</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.33171974205305</v>
+        <v>18.33171974205303</v>
       </c>
       <c r="C2">
-        <v>10.74486159976075</v>
+        <v>10.74486159976083</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.243747533608738</v>
+        <v>5.243747533608692</v>
       </c>
       <c r="F2">
-        <v>34.12524012680709</v>
+        <v>34.12524012680711</v>
       </c>
       <c r="G2">
-        <v>30.04507253155792</v>
+        <v>30.04507253155803</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.7167728603071</v>
+        <v>11.71677286030713</v>
       </c>
       <c r="J2">
         <v>15.5636479780917</v>
       </c>
       <c r="K2">
-        <v>7.624843832331949</v>
+        <v>7.624843832331981</v>
       </c>
       <c r="L2">
-        <v>13.30186020341957</v>
+        <v>13.3018602034196</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.02379809188564</v>
+        <v>17.0237980918856</v>
       </c>
       <c r="C3">
-        <v>10.05476990367328</v>
+        <v>10.05476990367322</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.053500691139636</v>
+        <v>5.053500691139599</v>
       </c>
       <c r="F3">
-        <v>32.06695218061316</v>
+        <v>32.06695218061314</v>
       </c>
       <c r="G3">
-        <v>28.78453303497951</v>
+        <v>28.78453303497953</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.74995615918213</v>
+        <v>11.7499561591822</v>
       </c>
       <c r="J3">
-        <v>14.50051674399992</v>
+        <v>14.50051674399986</v>
       </c>
       <c r="K3">
-        <v>7.167233992132334</v>
+        <v>7.167233992132338</v>
       </c>
       <c r="L3">
-        <v>12.4558820517033</v>
+        <v>12.45588205170328</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.17959899880037</v>
+        <v>16.17959899880038</v>
       </c>
       <c r="C4">
-        <v>9.611407108864526</v>
+        <v>9.611407108864407</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.936443413723428</v>
+        <v>4.936443413723319</v>
       </c>
       <c r="F4">
-        <v>30.76562964708398</v>
+        <v>30.76562964708402</v>
       </c>
       <c r="G4">
-        <v>28.01094514023641</v>
+        <v>28.01094514023658</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.77467310631836</v>
+        <v>11.77467310631844</v>
       </c>
       <c r="J4">
-        <v>13.81495056163696</v>
+        <v>13.8149505616369</v>
       </c>
       <c r="K4">
-        <v>6.87271544505812</v>
+        <v>6.872715445058146</v>
       </c>
       <c r="L4">
         <v>11.91113589125897</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.8250772521118</v>
+        <v>15.82507725211186</v>
       </c>
       <c r="C5">
-        <v>9.425735305731513</v>
+        <v>9.425735305731413</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.888749836114213</v>
+        <v>4.888749836114239</v>
       </c>
       <c r="F5">
-        <v>30.22625558388211</v>
+        <v>30.22625558388214</v>
       </c>
       <c r="G5">
-        <v>27.69603433607196</v>
+        <v>27.69603433607199</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.78576722228943</v>
+        <v>11.78576722228934</v>
       </c>
       <c r="J5">
-        <v>13.52720837707089</v>
+        <v>13.52720837707088</v>
       </c>
       <c r="K5">
         <v>6.749284913402599</v>
       </c>
       <c r="L5">
-        <v>11.6827327980839</v>
+        <v>11.68273279808388</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.76557025791667</v>
+        <v>15.76557025791675</v>
       </c>
       <c r="C6">
-        <v>9.394601375243678</v>
+        <v>9.394601375243591</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.880833014654548</v>
+        <v>4.880833014654606</v>
       </c>
       <c r="F6">
-        <v>30.13615783037289</v>
+        <v>30.13615783037287</v>
       </c>
       <c r="G6">
-        <v>27.6437714800796</v>
+        <v>27.64377148007947</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.78766916844276</v>
+        <v>11.78766916844269</v>
       </c>
       <c r="J6">
-        <v>13.47892027169713</v>
+        <v>13.47892027169716</v>
       </c>
       <c r="K6">
-        <v>6.728583328299965</v>
+        <v>6.728583328299958</v>
       </c>
       <c r="L6">
-        <v>11.64441807226867</v>
+        <v>11.6444180722687</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.17486053022683</v>
+        <v>16.1748605302268</v>
       </c>
       <c r="C7">
-        <v>9.608923376327942</v>
+        <v>9.608923376327867</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.935800071216547</v>
+        <v>4.93580007121651</v>
       </c>
       <c r="F7">
         <v>30.7583916346066</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.77481867661899</v>
+        <v>11.77481867661892</v>
       </c>
       <c r="J7">
-        <v>13.81110400456546</v>
+        <v>13.81110400456542</v>
       </c>
       <c r="K7">
-        <v>6.871064632612711</v>
+        <v>6.871064632612738</v>
       </c>
       <c r="L7">
         <v>11.90808159393421</v>
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.8891844461854</v>
+        <v>17.88918444618545</v>
       </c>
       <c r="C8">
-        <v>10.51095519788241</v>
+        <v>10.51095519788248</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.178241054243539</v>
+        <v>5.178241054243506</v>
       </c>
       <c r="F8">
-        <v>33.42351022862918</v>
+        <v>33.42351022862927</v>
       </c>
       <c r="G8">
-        <v>29.61048335772547</v>
+        <v>29.61048335772555</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.72726903758636</v>
+        <v>11.72726903758623</v>
       </c>
       <c r="J8">
-        <v>15.20381134467366</v>
+        <v>15.2038113446737</v>
       </c>
       <c r="K8">
-        <v>7.469864245105207</v>
+        <v>7.469864245105155</v>
       </c>
       <c r="L8">
-        <v>13.0153855906108</v>
+        <v>13.01538559061083</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.93248732571816</v>
+        <v>20.93248732571822</v>
       </c>
       <c r="C9">
-        <v>12.12741436500241</v>
+        <v>12.12741436500237</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.649026850617185</v>
+        <v>5.649026850617225</v>
       </c>
       <c r="F9">
-        <v>38.34230842224755</v>
+        <v>38.3423084222476</v>
       </c>
       <c r="G9">
-        <v>32.75114141352397</v>
+        <v>32.75114141352406</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.67199207264495</v>
+        <v>11.67199207264505</v>
       </c>
       <c r="J9">
-        <v>17.68076480560605</v>
+        <v>17.6807648056061</v>
       </c>
       <c r="K9">
-        <v>8.537450507674055</v>
+        <v>8.537450507673947</v>
       </c>
       <c r="L9">
-        <v>14.98904838279764</v>
+        <v>14.98904838279759</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.98620811160251</v>
+        <v>22.98620811160249</v>
       </c>
       <c r="C10">
-        <v>13.22806471352597</v>
+        <v>13.22806471352603</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.989053776185211</v>
+        <v>5.989053776185184</v>
       </c>
       <c r="F10">
-        <v>41.81109783104792</v>
+        <v>41.81109783104804</v>
       </c>
       <c r="G10">
-        <v>35.05073160798477</v>
+        <v>35.05073160798499</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.66003328725889</v>
+        <v>11.660033287259</v>
       </c>
       <c r="J10">
-        <v>19.35519222711663</v>
+        <v>19.35519222711666</v>
       </c>
       <c r="K10">
-        <v>9.258609730045205</v>
+        <v>9.258609730045201</v>
       </c>
       <c r="L10">
         <v>16.32398955638251</v>
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.88391342096255</v>
+        <v>23.88391342096256</v>
       </c>
       <c r="C11">
-        <v>13.71155123303317</v>
+        <v>13.71155123303306</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.142000865401545</v>
+        <v>6.142000865401565</v>
       </c>
       <c r="F11">
-        <v>43.41485494397062</v>
+        <v>43.41485494397064</v>
       </c>
       <c r="G11">
-        <v>36.09555447695916</v>
+        <v>36.09555447695925</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.66224545881175</v>
+        <v>11.66224545881185</v>
       </c>
       <c r="J11">
-        <v>20.08779586171828</v>
+        <v>20.08779586171826</v>
       </c>
       <c r="K11">
-        <v>9.573542409345245</v>
+        <v>9.573542409345199</v>
       </c>
       <c r="L11">
-        <v>16.90781521704573</v>
+        <v>16.90781521704571</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.21887438744862</v>
+        <v>24.21887438744867</v>
       </c>
       <c r="C12">
-        <v>13.89232484007892</v>
+        <v>13.89232484007908</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.199641448492767</v>
+        <v>6.199641448492775</v>
       </c>
       <c r="F12">
-        <v>44.01488299793549</v>
+        <v>44.01488299793546</v>
       </c>
       <c r="G12">
-        <v>36.49115488744958</v>
+        <v>36.49115488744951</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.66432274865854</v>
+        <v>11.66432274865839</v>
       </c>
       <c r="J12">
         <v>20.36125941839014</v>
       </c>
       <c r="K12">
-        <v>9.690971204711008</v>
+        <v>9.690971204711014</v>
       </c>
       <c r="L12">
         <v>17.12567270656508</v>
@@ -833,19 +833,19 @@
         <v>24.14695135136352</v>
       </c>
       <c r="C13">
-        <v>13.85349200464379</v>
+        <v>13.85349200464388</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.187240193835226</v>
+        <v>6.187240193835172</v>
       </c>
       <c r="F13">
-        <v>43.88597403028959</v>
+        <v>43.88597403028964</v>
       </c>
       <c r="G13">
-        <v>36.40595449368249</v>
+        <v>36.40595449368252</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>20.30253623717376</v>
       </c>
       <c r="K13">
-        <v>9.66576114243432</v>
+        <v>9.665761142434381</v>
       </c>
       <c r="L13">
-        <v>17.07889404499987</v>
+        <v>17.07889404499992</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.91156899452071</v>
+        <v>23.91156899452074</v>
       </c>
       <c r="C14">
-        <v>13.72646891235849</v>
+        <v>13.72646891235844</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.146748673775449</v>
+        <v>6.146748673775459</v>
       </c>
       <c r="F14">
-        <v>43.46436339031246</v>
+        <v>43.46436339031241</v>
       </c>
       <c r="G14">
-        <v>36.12810071838884</v>
+        <v>36.12810071838879</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.6623906504038</v>
+        <v>11.66239065040379</v>
       </c>
       <c r="J14">
         <v>20.11037178528876</v>
       </c>
       <c r="K14">
-        <v>9.583239642048957</v>
+        <v>9.583239642048959</v>
       </c>
       <c r="L14">
-        <v>16.92580219230687</v>
+        <v>16.92580219230688</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.76675056915766</v>
+        <v>23.76675056915771</v>
       </c>
       <c r="C15">
-        <v>13.64836770027886</v>
+        <v>13.64836770027885</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.121909677475096</v>
+        <v>6.121909677475119</v>
       </c>
       <c r="F15">
-        <v>43.20517752658382</v>
+        <v>43.20517752658392</v>
       </c>
       <c r="G15">
-        <v>35.95790599545686</v>
+        <v>35.95790599545695</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.66168235571969</v>
+        <v>11.66168235571972</v>
       </c>
       <c r="J15">
-        <v>19.99215734735198</v>
+        <v>19.99215734735205</v>
       </c>
       <c r="K15">
-        <v>9.532456496229218</v>
+        <v>9.532456496229102</v>
       </c>
       <c r="L15">
-        <v>16.83161379502931</v>
+        <v>16.83161379502929</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.92682836597759</v>
+        <v>22.9268283659775</v>
       </c>
       <c r="C16">
-        <v>13.19613480723295</v>
+        <v>13.19613480723292</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.979020858192761</v>
+        <v>5.97902085819281</v>
       </c>
       <c r="F16">
-        <v>41.70525051736716</v>
+        <v>41.70525051736708</v>
       </c>
       <c r="G16">
-        <v>34.98243362701837</v>
+        <v>34.98243362701832</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.66005417892985</v>
+        <v>11.66005417892992</v>
       </c>
       <c r="J16">
-        <v>19.30674805383094</v>
+        <v>19.30674805383086</v>
       </c>
       <c r="K16">
-        <v>9.237768754472157</v>
+        <v>9.237768754472068</v>
       </c>
       <c r="L16">
-        <v>16.28537546239706</v>
+        <v>16.28537546239698</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.40238942199052</v>
+        <v>22.40238942199055</v>
       </c>
       <c r="C17">
-        <v>12.91440561234333</v>
+        <v>12.91440561234326</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.890896622240567</v>
+        <v>5.890896622240562</v>
       </c>
       <c r="F17">
-        <v>40.78413778853375</v>
+        <v>40.78413778853373</v>
       </c>
       <c r="G17">
-        <v>34.38375326336211</v>
+        <v>34.38375326336209</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.66110860458946</v>
+        <v>11.66110860458937</v>
       </c>
       <c r="J17">
-        <v>18.87897115129333</v>
+        <v>18.87897115129335</v>
       </c>
       <c r="K17">
-        <v>9.053663741525932</v>
+        <v>9.05366374152598</v>
       </c>
       <c r="L17">
-        <v>15.94436885195711</v>
+        <v>15.94436885195714</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.09728833286257</v>
+        <v>22.0972883328625</v>
       </c>
       <c r="C18">
-        <v>12.75073197263906</v>
+        <v>12.75073197263923</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.840047897972166</v>
+        <v>5.840047897972157</v>
       </c>
       <c r="F18">
         <v>40.27433252384383</v>
       </c>
       <c r="G18">
-        <v>34.03927532625149</v>
+        <v>34.03927532625154</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.66242599430728</v>
+        <v>11.66242599430745</v>
       </c>
       <c r="J18">
-        <v>18.63017085531861</v>
+        <v>18.63017085531862</v>
       </c>
       <c r="K18">
-        <v>8.9465318347562</v>
+        <v>8.946531834756241</v>
       </c>
       <c r="L18">
         <v>15.74601403756104</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.99338462835135</v>
+        <v>21.99338462835129</v>
       </c>
       <c r="C19">
-        <v>12.69503031744569</v>
+        <v>12.6950303174458</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.822804569966737</v>
+        <v>5.822804569966784</v>
       </c>
       <c r="F19">
-        <v>40.10105551793989</v>
+        <v>40.10105551793986</v>
       </c>
       <c r="G19">
-        <v>33.92261561457401</v>
+        <v>33.92261561457396</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>11.66299019541733</v>
       </c>
       <c r="J19">
-        <v>18.5454518090202</v>
+        <v>18.54545180902022</v>
       </c>
       <c r="K19">
-        <v>8.910044300128844</v>
+        <v>8.910044300128806</v>
       </c>
       <c r="L19">
-        <v>15.67846962758188</v>
+        <v>15.67846962758186</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.45857281156911</v>
+        <v>22.45857281156908</v>
       </c>
       <c r="C20">
-        <v>12.94456381715277</v>
+        <v>12.94456381715272</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.900294594586955</v>
+        <v>5.900294594586922</v>
       </c>
       <c r="F20">
-        <v>40.8781761023907</v>
+        <v>40.87817610239068</v>
       </c>
       <c r="G20">
-        <v>34.44749688273976</v>
+        <v>34.44749688273978</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.66092183300539</v>
+        <v>11.66092183300551</v>
       </c>
       <c r="J20">
-        <v>18.92479223758525</v>
+        <v>18.92479223758522</v>
       </c>
       <c r="K20">
-        <v>9.073389935125578</v>
+        <v>9.073389935125583</v>
       </c>
       <c r="L20">
-        <v>15.98089802438653</v>
+        <v>15.98089802438654</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,31 +1137,31 @@
         <v>23.98083932518619</v>
       </c>
       <c r="C21">
-        <v>13.76384001484918</v>
+        <v>13.7638400148489</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.158649715074815</v>
+        <v>6.15864971507482</v>
       </c>
       <c r="F21">
-        <v>43.58839527503937</v>
+        <v>43.58839527503932</v>
       </c>
       <c r="G21">
-        <v>36.20971300915215</v>
+        <v>36.20971300915208</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.662774997311</v>
+        <v>11.66277499731108</v>
       </c>
       <c r="J21">
-        <v>20.1669205972731</v>
+        <v>20.16692059727304</v>
       </c>
       <c r="K21">
-        <v>9.607527343122126</v>
+        <v>9.607527343122136</v>
       </c>
       <c r="L21">
         <v>16.97085521858285</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.94684935075449</v>
+        <v>24.94684935075448</v>
       </c>
       <c r="C22">
-        <v>14.28590040445968</v>
+        <v>14.28590040445966</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.325877656405171</v>
+        <v>6.325877656405196</v>
       </c>
       <c r="F22">
-        <v>45.32172172934282</v>
+        <v>45.32172172934278</v>
       </c>
       <c r="G22">
         <v>37.36125028139914</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.67129032026843</v>
+        <v>11.67129032026838</v>
       </c>
       <c r="J22">
-        <v>20.95578250618861</v>
+        <v>20.95578250618858</v>
       </c>
       <c r="K22">
-        <v>9.945988220395884</v>
+        <v>9.945988220395833</v>
       </c>
       <c r="L22">
-        <v>17.59913799539904</v>
+        <v>17.59913799539898</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.43381485311412</v>
+        <v>24.43381485311404</v>
       </c>
       <c r="C23">
-        <v>14.00843149112168</v>
+        <v>14.00843149112187</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.236780277286039</v>
+        <v>6.236780277286074</v>
       </c>
       <c r="F23">
-        <v>44.4003493497994</v>
+        <v>44.40034934979925</v>
       </c>
       <c r="G23">
-        <v>36.74660190410706</v>
+        <v>36.74660190410685</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.66602608789146</v>
+        <v>11.66602608789147</v>
       </c>
       <c r="J23">
-        <v>20.53676841775905</v>
+        <v>20.53676841775906</v>
       </c>
       <c r="K23">
-        <v>9.766295987049556</v>
+        <v>9.766295987049565</v>
       </c>
       <c r="L23">
-        <v>17.26546950607042</v>
+        <v>17.2654695060704</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.43318351642765</v>
+        <v>22.43318351642763</v>
       </c>
       <c r="C24">
-        <v>12.93093461152093</v>
+        <v>12.93093461152079</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.896046345055146</v>
+        <v>5.896046345055058</v>
       </c>
       <c r="F24">
-        <v>40.83567409773465</v>
+        <v>40.83567409773456</v>
       </c>
       <c r="G24">
-        <v>34.41867930019473</v>
+        <v>34.41867930019465</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.66100406754482</v>
+        <v>11.66100406754475</v>
       </c>
       <c r="J24">
         <v>18.90408546714626</v>
       </c>
       <c r="K24">
-        <v>9.06447573748831</v>
+        <v>9.06447573748844</v>
       </c>
       <c r="L24">
-        <v>15.96439037768794</v>
+        <v>15.96439037768799</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.14211893144292</v>
+        <v>20.14211893144288</v>
       </c>
       <c r="C25">
-        <v>11.70588567205774</v>
+        <v>11.70588567205807</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.522507961112884</v>
+        <v>5.522507961112865</v>
       </c>
       <c r="F25">
-        <v>37.04547081432863</v>
+        <v>37.04547081432865</v>
       </c>
       <c r="G25">
-        <v>31.90276400364061</v>
+        <v>31.90276400364062</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.68235249274066</v>
+        <v>11.68235249274064</v>
       </c>
       <c r="J25">
-        <v>17.03696849973831</v>
+        <v>17.03696849973836</v>
       </c>
       <c r="K25">
-        <v>8.259904259486294</v>
+        <v>8.259904259486378</v>
       </c>
       <c r="L25">
-        <v>14.47578980317142</v>
+        <v>14.47578980317147</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.33171974205303</v>
+        <v>18.33071309504195</v>
       </c>
       <c r="C2">
-        <v>10.74486159976083</v>
+        <v>10.74236475234069</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.243747533608692</v>
+        <v>5.253343183381394</v>
       </c>
       <c r="F2">
-        <v>34.12524012680711</v>
+        <v>34.10154488741344</v>
       </c>
       <c r="G2">
-        <v>30.04507253155803</v>
+        <v>28.61374982271173</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>30.06924550559999</v>
       </c>
       <c r="I2">
-        <v>11.71677286030713</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>15.5636479780917</v>
+        <v>11.70342710925184</v>
       </c>
       <c r="K2">
-        <v>7.624843832331981</v>
+        <v>15.56214170025495</v>
       </c>
       <c r="L2">
-        <v>13.3018602034196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>7.630531977088347</v>
+      </c>
+      <c r="M2">
+        <v>13.30507711234634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.0237980918856</v>
+        <v>17.02304317466895</v>
       </c>
       <c r="C3">
-        <v>10.05476990367322</v>
+        <v>10.05273790514212</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.053500691139599</v>
+        <v>5.062503372145581</v>
       </c>
       <c r="F3">
-        <v>32.06695218061314</v>
+        <v>32.04477319517834</v>
       </c>
       <c r="G3">
-        <v>28.78453303497953</v>
+        <v>27.13278557130905</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>28.80875941148031</v>
       </c>
       <c r="I3">
-        <v>11.7499561591822</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>14.50051674399986</v>
+        <v>11.73777108896675</v>
       </c>
       <c r="K3">
-        <v>7.167233992132338</v>
+        <v>14.49934532387398</v>
       </c>
       <c r="L3">
-        <v>12.45588205170328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>7.172462787806698</v>
+      </c>
+      <c r="M3">
+        <v>12.45898086681398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.17959899880038</v>
+        <v>16.17899214940461</v>
       </c>
       <c r="C4">
-        <v>9.611407108864407</v>
+        <v>9.609672043539845</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.936443413723319</v>
+        <v>4.94506798031964</v>
       </c>
       <c r="F4">
-        <v>30.76562964708402</v>
+        <v>30.74442755987181</v>
       </c>
       <c r="G4">
-        <v>28.01094514023658</v>
+        <v>26.2113543173521</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>28.03530073491554</v>
       </c>
       <c r="I4">
-        <v>11.77467310631844</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>13.8149505616369</v>
+        <v>11.76319123237811</v>
       </c>
       <c r="K4">
-        <v>6.872715445058146</v>
+        <v>13.81398739276741</v>
       </c>
       <c r="L4">
-        <v>11.91113589125897</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>6.87764183771923</v>
+      </c>
+      <c r="M4">
+        <v>11.91415224423192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.82507725211186</v>
+        <v>15.82452929453089</v>
       </c>
       <c r="C5">
-        <v>9.425735305731413</v>
+        <v>9.424124527054403</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.888749836114239</v>
+        <v>4.897216974183597</v>
       </c>
       <c r="F5">
-        <v>30.22625558388214</v>
+        <v>30.20546359501025</v>
       </c>
       <c r="G5">
-        <v>27.69603433607199</v>
+        <v>25.83311319079173</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>27.72046704987908</v>
       </c>
       <c r="I5">
-        <v>11.78576722228934</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>13.52720837707088</v>
+        <v>11.77456988176703</v>
       </c>
       <c r="K5">
-        <v>6.749284913402599</v>
+        <v>13.52633105929802</v>
       </c>
       <c r="L5">
-        <v>11.68273279808388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>6.754082884689407</v>
+      </c>
+      <c r="M5">
+        <v>11.68571317326721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.76557025791675</v>
+        <v>15.76503199660773</v>
       </c>
       <c r="C6">
-        <v>9.394601375243591</v>
+        <v>9.393011444253158</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.880833014654606</v>
+        <v>4.889273816033062</v>
       </c>
       <c r="F6">
-        <v>30.13615783037287</v>
+        <v>30.11543467576434</v>
       </c>
       <c r="G6">
-        <v>27.64377148007947</v>
+        <v>25.77015063256015</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>27.66821848038276</v>
       </c>
       <c r="I6">
-        <v>11.78766916844269</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>13.47892027169716</v>
+        <v>11.77651896252468</v>
       </c>
       <c r="K6">
-        <v>6.728583328299958</v>
+        <v>13.47805727847006</v>
       </c>
       <c r="L6">
-        <v>11.6444180722687</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>6.733359659626628</v>
+      </c>
+      <c r="M6">
+        <v>11.64739233364261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.1748605302268</v>
+        <v>16.17425448070679</v>
       </c>
       <c r="C7">
-        <v>9.608923376327867</v>
+        <v>9.60718997335626</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.93580007121651</v>
+        <v>4.944422527943457</v>
       </c>
       <c r="F7">
-        <v>30.7583916346066</v>
+        <v>30.7371950289382</v>
       </c>
       <c r="G7">
-        <v>28.00669645205972</v>
+        <v>26.20626391167954</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>28.03105298756854</v>
       </c>
       <c r="I7">
-        <v>11.77481867661892</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>13.81110400456542</v>
+        <v>11.76334064772624</v>
       </c>
       <c r="K7">
-        <v>6.871064632612738</v>
+        <v>13.81014198909228</v>
       </c>
       <c r="L7">
-        <v>11.90808159393421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>6.875989314451241</v>
+      </c>
+      <c r="M7">
+        <v>11.91109747114418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.88918444618545</v>
+        <v>17.88826606773829</v>
       </c>
       <c r="C8">
-        <v>10.51095519788248</v>
+        <v>10.50861647113175</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.178241054243506</v>
+        <v>5.187635258322842</v>
       </c>
       <c r="F8">
-        <v>33.42351022862927</v>
+        <v>33.40032855248774</v>
       </c>
       <c r="G8">
-        <v>29.61048335772555</v>
+        <v>28.10577919318996</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>29.63465489919995</v>
       </c>
       <c r="I8">
-        <v>11.72726903758623</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>15.2038113446737</v>
+        <v>11.71432566910184</v>
       </c>
       <c r="K8">
-        <v>7.469864245105155</v>
+        <v>15.20242017043709</v>
       </c>
       <c r="L8">
-        <v>13.01538559061083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>7.475398193472114</v>
+      </c>
+      <c r="M8">
+        <v>13.01856392611712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.93248732571822</v>
+        <v>20.93089439996525</v>
       </c>
       <c r="C9">
-        <v>12.12741436500237</v>
+        <v>12.12396287070628</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.649026850617225</v>
+        <v>5.659817018874578</v>
       </c>
       <c r="F9">
-        <v>38.3423084222476</v>
+        <v>38.31557568708769</v>
       </c>
       <c r="G9">
-        <v>32.75114141352406</v>
+        <v>31.72605058838165</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>32.77570011412902</v>
       </c>
       <c r="I9">
-        <v>11.67199207264505</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>17.6807648056061</v>
+        <v>11.6560839330233</v>
       </c>
       <c r="K9">
-        <v>8.537450507673947</v>
+        <v>17.67853826944092</v>
       </c>
       <c r="L9">
-        <v>14.98904838279759</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>8.544020222608003</v>
+      </c>
+      <c r="M9">
+        <v>14.99246005734658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.98620811160249</v>
+        <v>22.98406352610587</v>
       </c>
       <c r="C10">
-        <v>13.22806471352603</v>
+        <v>13.22381681309648</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.989053776185184</v>
+        <v>6.000792263454906</v>
       </c>
       <c r="F10">
-        <v>41.81109783104804</v>
+        <v>41.78181692635673</v>
       </c>
       <c r="G10">
-        <v>35.05073160798499</v>
+        <v>34.31706702610273</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>35.07600616150996</v>
       </c>
       <c r="I10">
-        <v>11.660033287259</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>19.35519222711666</v>
+        <v>11.64186888976245</v>
       </c>
       <c r="K10">
-        <v>9.258609730045201</v>
+        <v>19.35233376682463</v>
       </c>
       <c r="L10">
-        <v>16.32398955638251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>9.265846172324508</v>
+      </c>
+      <c r="M10">
+        <v>16.32751086398759</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.88391342096256</v>
+        <v>23.88150045689206</v>
       </c>
       <c r="C11">
-        <v>13.71155123303306</v>
+        <v>13.70693988239634</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.142000865401565</v>
+        <v>6.154153385577202</v>
       </c>
       <c r="F11">
-        <v>43.41485494397064</v>
+        <v>43.38450891605331</v>
       </c>
       <c r="G11">
-        <v>36.09555447695925</v>
+        <v>35.48163734224696</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>36.12124195239573</v>
       </c>
       <c r="I11">
-        <v>11.66224545881185</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>20.08779586171826</v>
+        <v>11.64303280334951</v>
       </c>
       <c r="K11">
-        <v>9.573542409345199</v>
+        <v>20.08464042830067</v>
       </c>
       <c r="L11">
-        <v>16.90781521704571</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>9.581062040701575</v>
+      </c>
+      <c r="M11">
+        <v>16.91137035234419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.21887438744867</v>
+        <v>24.21635674346668</v>
       </c>
       <c r="C12">
-        <v>13.89232484007908</v>
+        <v>13.88757515315315</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.199641448492775</v>
+        <v>6.211948237140871</v>
       </c>
       <c r="F12">
-        <v>44.01488299793546</v>
+        <v>43.98413618501422</v>
       </c>
       <c r="G12">
-        <v>36.49115488744951</v>
+        <v>35.92078731623694</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>36.51701071328821</v>
       </c>
       <c r="I12">
-        <v>11.66432274865839</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>20.36125941839014</v>
+        <v>11.64470959515616</v>
       </c>
       <c r="K12">
-        <v>9.690971204711014</v>
+        <v>20.3579896187698</v>
       </c>
       <c r="L12">
-        <v>17.12567270656508</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>9.698595192228403</v>
+      </c>
+      <c r="M12">
+        <v>17.12923807749049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.14695135136352</v>
+        <v>24.14445639757871</v>
       </c>
       <c r="C13">
-        <v>13.85349200464388</v>
+        <v>13.84877215163557</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.187240193835172</v>
+        <v>6.199513870053798</v>
       </c>
       <c r="F13">
-        <v>43.88597403028964</v>
+        <v>43.85531343468642</v>
       </c>
       <c r="G13">
-        <v>36.40595449368252</v>
+        <v>35.82628678833778</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>36.43177353831701</v>
       </c>
       <c r="I13">
-        <v>11.66381781504305</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>20.30253623717376</v>
+        <v>11.64429108010699</v>
       </c>
       <c r="K13">
-        <v>9.665761142434381</v>
+        <v>20.29929116280967</v>
       </c>
       <c r="L13">
-        <v>17.07889404499992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>9.67336278311717</v>
+      </c>
+      <c r="M13">
+        <v>17.08245733075929</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.91156899452074</v>
+        <v>23.90914748301271</v>
       </c>
       <c r="C14">
-        <v>13.72646891235844</v>
+        <v>13.7218461981901</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.146748673775459</v>
+        <v>6.158913936196163</v>
       </c>
       <c r="F14">
-        <v>43.46436339031241</v>
+        <v>43.43398434362547</v>
       </c>
       <c r="G14">
-        <v>36.12810071838879</v>
+        <v>35.51780212954273</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>36.15380180717915</v>
       </c>
       <c r="I14">
-        <v>11.66239065040379</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>20.11037178528876</v>
+        <v>11.64314511910506</v>
       </c>
       <c r="K14">
-        <v>9.583239642048959</v>
+        <v>20.10720698455986</v>
       </c>
       <c r="L14">
-        <v>16.92580219230688</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>9.590767916585969</v>
+      </c>
+      <c r="M14">
+        <v>16.92935822298804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.76675056915771</v>
+        <v>23.76437362789301</v>
       </c>
       <c r="C15">
-        <v>13.64836770027885</v>
+        <v>13.64380437738798</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.121909677475119</v>
+        <v>6.134008205297159</v>
       </c>
       <c r="F15">
-        <v>43.20517752658392</v>
+        <v>43.17497124240864</v>
       </c>
       <c r="G15">
-        <v>35.95790599545695</v>
+        <v>35.32861274112472</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>35.983536376836</v>
       </c>
       <c r="I15">
-        <v>11.66168235571972</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>19.99215734735205</v>
+        <v>11.64260859602724</v>
       </c>
       <c r="K15">
-        <v>9.532456496229102</v>
+        <v>19.9890414504229</v>
       </c>
       <c r="L15">
-        <v>16.83161379502929</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>9.539939456717235</v>
+      </c>
+      <c r="M15">
+        <v>16.83516503779194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.9268283659775</v>
+        <v>22.9247009247461</v>
       </c>
       <c r="C16">
-        <v>13.19613480723292</v>
+        <v>13.19191059125304</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.97902085819281</v>
+        <v>5.990731935877051</v>
       </c>
       <c r="F16">
-        <v>41.70525051736708</v>
+        <v>41.67603962655068</v>
       </c>
       <c r="G16">
-        <v>34.98243362701832</v>
+        <v>34.24068912569189</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>35.00768290339126</v>
       </c>
       <c r="I16">
-        <v>11.66005417892992</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>19.30674805383086</v>
+        <v>11.64195781337087</v>
       </c>
       <c r="K16">
-        <v>9.237768754472068</v>
+        <v>19.30390876566293</v>
       </c>
       <c r="L16">
-        <v>16.28537546239698</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>9.244986286211446</v>
+      </c>
+      <c r="M16">
+        <v>16.28889421465193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.40238942199055</v>
+        <v>22.40041022159762</v>
       </c>
       <c r="C17">
-        <v>12.91440561234326</v>
+        <v>12.91038876736267</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.890896622240562</v>
+        <v>5.902365543997782</v>
       </c>
       <c r="F17">
-        <v>40.78413778853373</v>
+        <v>40.75566626442784</v>
       </c>
       <c r="G17">
-        <v>34.38375326336209</v>
+        <v>33.5697704637906</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>34.40879070031848</v>
       </c>
       <c r="I17">
-        <v>11.66110860458937</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>18.87897115129335</v>
+        <v>11.64360595377926</v>
       </c>
       <c r="K17">
-        <v>9.05366374152598</v>
+        <v>18.87629875807852</v>
       </c>
       <c r="L17">
-        <v>15.94436885195714</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>9.060713302360805</v>
+      </c>
+      <c r="M17">
+        <v>15.94786338712141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.0972883328625</v>
+        <v>22.09539279466884</v>
       </c>
       <c r="C18">
-        <v>12.75073197263923</v>
+        <v>12.74683432834216</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.840047897972157</v>
+        <v>5.851375903610141</v>
       </c>
       <c r="F18">
-        <v>40.27433252384383</v>
+        <v>40.24622360879977</v>
       </c>
       <c r="G18">
-        <v>34.03927532625154</v>
+        <v>33.1825324498801</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>34.0641991683541</v>
       </c>
       <c r="I18">
-        <v>11.66242599430745</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>18.63017085531862</v>
+        <v>11.64526279781046</v>
       </c>
       <c r="K18">
-        <v>8.946531834756241</v>
+        <v>18.62759359746142</v>
       </c>
       <c r="L18">
-        <v>15.74601403756104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>8.953482890612596</v>
+      </c>
+      <c r="M18">
+        <v>15.7494931519026</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.99338462835129</v>
+        <v>21.99151715655697</v>
       </c>
       <c r="C19">
-        <v>12.6950303174458</v>
+        <v>12.69117303514589</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.822804569966784</v>
+        <v>5.83408458406701</v>
       </c>
       <c r="F19">
-        <v>40.10105551793986</v>
+        <v>40.07306987477607</v>
       </c>
       <c r="G19">
-        <v>33.92261561457396</v>
+        <v>33.05118567960568</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>33.94750242933674</v>
       </c>
       <c r="I19">
-        <v>11.66299019541733</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>18.54545180902022</v>
+        <v>11.64594159491515</v>
       </c>
       <c r="K19">
-        <v>8.910044300128806</v>
+        <v>18.54290663016376</v>
       </c>
       <c r="L19">
-        <v>15.67846962758186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>8.916961678324467</v>
+      </c>
+      <c r="M19">
+        <v>15.68194327187534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.45857281156908</v>
+        <v>22.4565780001093</v>
       </c>
       <c r="C20">
-        <v>12.94456381715272</v>
+        <v>12.94052490848239</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.900294594586922</v>
+        <v>5.911789463624161</v>
       </c>
       <c r="F20">
-        <v>40.87817610239068</v>
+        <v>40.84963769869239</v>
       </c>
       <c r="G20">
-        <v>34.44749688273978</v>
+        <v>33.64132893590885</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>34.47255602061455</v>
       </c>
       <c r="I20">
-        <v>11.66092183300551</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>18.92479223758522</v>
+        <v>11.64335619370305</v>
       </c>
       <c r="K20">
-        <v>9.073389935125583</v>
+        <v>18.92210217060212</v>
       </c>
       <c r="L20">
-        <v>15.98089802438654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>9.080457572507179</v>
+      </c>
+      <c r="M20">
+        <v>15.98439529368235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.98083932518619</v>
+        <v>23.97839632956912</v>
       </c>
       <c r="C21">
-        <v>13.7638400148489</v>
+        <v>13.75918879244225</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.15864971507482</v>
+        <v>6.170846889622865</v>
       </c>
       <c r="F21">
-        <v>43.58839527503932</v>
+        <v>43.55793346858824</v>
       </c>
       <c r="G21">
-        <v>36.20971300915208</v>
+        <v>35.60845978212603</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>36.23544842369895</v>
       </c>
       <c r="I21">
-        <v>11.66277499731108</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>20.16692059727304</v>
+        <v>11.64344696914118</v>
       </c>
       <c r="K21">
-        <v>9.607527343122136</v>
+        <v>20.16373227478127</v>
       </c>
       <c r="L21">
-        <v>16.97085521858285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>9.615077245259648</v>
+      </c>
+      <c r="M21">
+        <v>16.9744134524864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.94684935075448</v>
+        <v>24.94409532488883</v>
       </c>
       <c r="C22">
-        <v>14.28590040445966</v>
+        <v>14.28084458185204</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.325877656405196</v>
+        <v>6.338519162401651</v>
       </c>
       <c r="F22">
-        <v>45.32172172934278</v>
+        <v>45.29009711950453</v>
       </c>
       <c r="G22">
-        <v>37.36125028139914</v>
+        <v>36.8834781990465</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>37.38749727304745</v>
       </c>
       <c r="I22">
-        <v>11.67129032026838</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>20.95578250618858</v>
+        <v>11.65078961049443</v>
       </c>
       <c r="K22">
-        <v>9.945988220395833</v>
+        <v>20.95225710091548</v>
       </c>
       <c r="L22">
-        <v>17.59913799539898</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>9.953836510314142</v>
+      </c>
+      <c r="M22">
+        <v>17.60272090787469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.43381485311404</v>
+        <v>24.4312286964406</v>
       </c>
       <c r="C23">
-        <v>14.00843149112187</v>
+        <v>14.00359221293098</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.236780277286074</v>
+        <v>6.249185978798207</v>
       </c>
       <c r="F23">
-        <v>44.40034934979925</v>
+        <v>44.36934434428886</v>
       </c>
       <c r="G23">
-        <v>36.74660190410685</v>
+        <v>36.20386340655111</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>36.77256967979275</v>
       </c>
       <c r="I23">
-        <v>11.66602608789147</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>20.53676841775906</v>
+        <v>11.64615330353179</v>
       </c>
       <c r="K23">
-        <v>9.766295987049565</v>
+        <v>20.5334241694086</v>
       </c>
       <c r="L23">
-        <v>17.2654695060704</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>9.773986559189657</v>
+      </c>
+      <c r="M23">
+        <v>17.26904073613775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.43318351642763</v>
+        <v>22.43119576756113</v>
       </c>
       <c r="C24">
-        <v>12.93093461152079</v>
+        <v>12.92690567786593</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.896046345055058</v>
+        <v>5.907529488613067</v>
       </c>
       <c r="F24">
-        <v>40.83567409773456</v>
+        <v>40.80716592112422</v>
       </c>
       <c r="G24">
-        <v>34.41867930019465</v>
+        <v>33.60898209101349</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>34.44372860152416</v>
       </c>
       <c r="I24">
-        <v>11.66100406754475</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>18.90408546714626</v>
+        <v>11.64346691116522</v>
       </c>
       <c r="K24">
-        <v>9.06447573748844</v>
+        <v>18.90140339297175</v>
       </c>
       <c r="L24">
-        <v>15.96439037768799</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>9.071535208495513</v>
+      </c>
+      <c r="M24">
+        <v>15.96788641552982</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.14211893144288</v>
+        <v>20.14071680533455</v>
       </c>
       <c r="C25">
-        <v>11.70588567205807</v>
+        <v>11.7027296840585</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.522507961112865</v>
+        <v>5.532933766517043</v>
       </c>
       <c r="F25">
-        <v>37.04547081432865</v>
+        <v>37.01966552980117</v>
       </c>
       <c r="G25">
-        <v>31.90276400364062</v>
+        <v>30.75871910798264</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>31.92714012394949</v>
       </c>
       <c r="I25">
-        <v>11.68235249274064</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>17.03696849973836</v>
+        <v>11.66725847406125</v>
       </c>
       <c r="K25">
-        <v>8.259904259486378</v>
+        <v>17.03496943848086</v>
       </c>
       <c r="L25">
-        <v>14.47578980317147</v>
+        <v>8.266210477006561</v>
+      </c>
+      <c r="M25">
+        <v>14.47914841817019</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.33071309504195</v>
+        <v>23.56340871707457</v>
       </c>
       <c r="C2">
-        <v>10.74236475234069</v>
+        <v>13.87240928522565</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.253343183381394</v>
+        <v>7.117690909210143</v>
       </c>
       <c r="F2">
-        <v>34.10154488741344</v>
+        <v>34.46813713567263</v>
       </c>
       <c r="G2">
-        <v>28.61374982271173</v>
+        <v>2.103921799810396</v>
       </c>
       <c r="H2">
-        <v>30.06924550559999</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.70342710925184</v>
+        <v>5.774180360591334</v>
       </c>
       <c r="K2">
-        <v>15.56214170025495</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.630531977088347</v>
+        <v>6.587526930734641</v>
       </c>
       <c r="M2">
-        <v>13.30507711234634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.96978217543696</v>
+      </c>
+      <c r="N2">
+        <v>13.7511495763469</v>
+      </c>
+      <c r="O2">
+        <v>26.3292540833136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.02304317466895</v>
+        <v>22.12300809103967</v>
       </c>
       <c r="C3">
-        <v>10.05273790514212</v>
+        <v>12.94445951435836</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.062503372145581</v>
+        <v>7.060330182658939</v>
       </c>
       <c r="F3">
-        <v>32.04477319517834</v>
+        <v>33.54941215343517</v>
       </c>
       <c r="G3">
-        <v>27.13278557130905</v>
+        <v>2.11384031437944</v>
       </c>
       <c r="H3">
-        <v>28.80875941148031</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.73777108896675</v>
+        <v>5.860811475780729</v>
       </c>
       <c r="K3">
-        <v>14.49934532387398</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>7.172462787806698</v>
+        <v>6.504083816219314</v>
       </c>
       <c r="M3">
-        <v>12.45898086681398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.41982594412127</v>
+      </c>
+      <c r="N3">
+        <v>14.01661790134363</v>
+      </c>
+      <c r="O3">
+        <v>25.6655852048476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.17899214940461</v>
+        <v>21.20618982379759</v>
       </c>
       <c r="C4">
-        <v>9.609672043539845</v>
+        <v>12.34641367651691</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.94506798031964</v>
+        <v>7.025909865327039</v>
       </c>
       <c r="F4">
-        <v>30.74442755987181</v>
+        <v>33.00446818709529</v>
       </c>
       <c r="G4">
-        <v>26.2113543173521</v>
+        <v>2.120080671185955</v>
       </c>
       <c r="H4">
-        <v>28.03530073491554</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.76319123237811</v>
+        <v>5.914584865168516</v>
       </c>
       <c r="K4">
-        <v>13.81398739276741</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.87764183771923</v>
+        <v>6.454712165329589</v>
       </c>
       <c r="M4">
-        <v>11.91415224423192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>13.07930536636893</v>
+      </c>
+      <c r="N4">
+        <v>14.18263645792357</v>
+      </c>
+      <c r="O4">
+        <v>25.2774297524359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.82452929453089</v>
+        <v>20.82467237638512</v>
       </c>
       <c r="C5">
-        <v>9.424124527054403</v>
+        <v>12.09551526236187</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.897216974183597</v>
+        <v>7.012052417193091</v>
       </c>
       <c r="F5">
-        <v>30.20546359501025</v>
+        <v>32.78731437599852</v>
       </c>
       <c r="G5">
-        <v>25.83311319079173</v>
+        <v>2.12266354245856</v>
       </c>
       <c r="H5">
-        <v>27.72046704987908</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.77456988176703</v>
+        <v>5.93666726031511</v>
       </c>
       <c r="K5">
-        <v>13.52633105929802</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.754082884689407</v>
+        <v>6.435070667143165</v>
       </c>
       <c r="M5">
-        <v>11.68571317326721</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.94000177245722</v>
+      </c>
+      <c r="N5">
+        <v>14.25108672871771</v>
+      </c>
+      <c r="O5">
+        <v>25.12410063518194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.76503199660773</v>
+        <v>20.76085283120343</v>
       </c>
       <c r="C6">
-        <v>9.393011444253158</v>
+        <v>12.05341748485519</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.889273816033062</v>
+        <v>7.009760732032938</v>
       </c>
       <c r="F6">
-        <v>30.11543467576434</v>
+        <v>32.75155583922141</v>
       </c>
       <c r="G6">
-        <v>25.77015063256015</v>
+        <v>2.123094892421191</v>
       </c>
       <c r="H6">
-        <v>27.66821848038276</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.77651896252468</v>
+        <v>5.940344892573259</v>
       </c>
       <c r="K6">
-        <v>13.47805727847006</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.733359659626628</v>
+        <v>6.431838340352913</v>
       </c>
       <c r="M6">
-        <v>11.64739233364261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.91684357094993</v>
+      </c>
+      <c r="N6">
+        <v>14.26250199565638</v>
+      </c>
+      <c r="O6">
+        <v>25.09893261996691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.17425448070679</v>
+        <v>21.20107618010335</v>
       </c>
       <c r="C7">
-        <v>9.60718997335626</v>
+        <v>12.34305917856063</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.944422527943457</v>
+        <v>7.02572233436638</v>
       </c>
       <c r="F7">
-        <v>30.7371950289382</v>
+        <v>33.00151954480908</v>
       </c>
       <c r="G7">
-        <v>26.20626391167954</v>
+        <v>2.120115340605207</v>
       </c>
       <c r="H7">
-        <v>28.03105298756854</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.76334064772624</v>
+        <v>5.914881961319615</v>
       </c>
       <c r="K7">
-        <v>13.81014198909228</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.875989314451241</v>
+        <v>6.454445326217086</v>
       </c>
       <c r="M7">
-        <v>11.91109747114418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13.07742860090329</v>
+      </c>
+      <c r="N7">
+        <v>14.1835563299201</v>
+      </c>
+      <c r="O7">
+        <v>25.27534230122533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.88826606773829</v>
+        <v>23.07360556029492</v>
       </c>
       <c r="C8">
-        <v>10.50861647113175</v>
+        <v>13.55827055690355</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.187635258322842</v>
+        <v>7.097726900205649</v>
       </c>
       <c r="F8">
-        <v>33.40032855248774</v>
+        <v>34.1474432498479</v>
       </c>
       <c r="G8">
-        <v>28.10577919318996</v>
+        <v>2.107311791268786</v>
       </c>
       <c r="H8">
-        <v>29.63465489919995</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.71432566910184</v>
+        <v>5.803944527560992</v>
       </c>
       <c r="K8">
-        <v>15.20242017043709</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>7.475398193472114</v>
+        <v>6.558374870731947</v>
       </c>
       <c r="M8">
-        <v>13.01856392611712</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13.78084685441413</v>
+      </c>
+      <c r="N8">
+        <v>13.84207901493312</v>
+      </c>
+      <c r="O8">
+        <v>26.09639880940573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.93089439996525</v>
+        <v>26.48176543908632</v>
       </c>
       <c r="C9">
-        <v>12.12396287070628</v>
+        <v>15.72114125713112</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.659817018874578</v>
+        <v>7.246875466173182</v>
       </c>
       <c r="F9">
-        <v>38.31557568708769</v>
+        <v>36.54264775112495</v>
       </c>
       <c r="G9">
-        <v>31.72605058838165</v>
+        <v>2.08329515437427</v>
       </c>
       <c r="H9">
-        <v>32.77570011412902</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.6560839330233</v>
+        <v>5.589866986489138</v>
       </c>
       <c r="K9">
-        <v>17.67853826944092</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>8.544020222608003</v>
+        <v>6.776547314892315</v>
       </c>
       <c r="M9">
-        <v>14.99246005734658</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>15.13112510931088</v>
+      </c>
+      <c r="N9">
+        <v>13.19465250228202</v>
+      </c>
+      <c r="O9">
+        <v>27.86069671036089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.98406352610587</v>
+        <v>28.93962577885735</v>
       </c>
       <c r="C10">
-        <v>13.22381681309648</v>
+        <v>17.18289620562841</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.000792263454906</v>
+        <v>7.36382618572007</v>
       </c>
       <c r="F10">
-        <v>41.78181692635673</v>
+        <v>38.38869926948333</v>
       </c>
       <c r="G10">
-        <v>34.31706702610273</v>
+        <v>2.066158896039764</v>
       </c>
       <c r="H10">
-        <v>35.07600616150996</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.64186888976245</v>
+        <v>5.432931867712268</v>
       </c>
       <c r="K10">
-        <v>19.35233376682463</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>9.265846172324508</v>
+        <v>6.94507769339221</v>
       </c>
       <c r="M10">
-        <v>16.32751086398759</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16.098490561465</v>
+      </c>
+      <c r="N10">
+        <v>12.72997927408793</v>
+      </c>
+      <c r="O10">
+        <v>29.25273812065113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.88150045689206</v>
+        <v>30.0389120163625</v>
       </c>
       <c r="C11">
-        <v>13.70693988239634</v>
+        <v>17.82205341686954</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.154153385577202</v>
+        <v>7.419288248881549</v>
       </c>
       <c r="F11">
-        <v>43.38450891605331</v>
+        <v>39.24696743052288</v>
       </c>
       <c r="G11">
-        <v>35.48163734224696</v>
+        <v>2.058434353419381</v>
       </c>
       <c r="H11">
-        <v>36.12124195239573</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.64303280334951</v>
+        <v>5.361165713094305</v>
       </c>
       <c r="K11">
-        <v>20.08464042830067</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>9.581062040701575</v>
+        <v>7.02344122492993</v>
       </c>
       <c r="M11">
-        <v>16.91137035234419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16.5322777541381</v>
+      </c>
+      <c r="N11">
+        <v>12.52039144114349</v>
+      </c>
+      <c r="O11">
+        <v>29.90757730194712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.21635674346668</v>
+        <v>30.44885826497192</v>
       </c>
       <c r="C12">
-        <v>13.88757515315315</v>
+        <v>18.06054763161307</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.211948237140871</v>
+        <v>7.440679207367949</v>
       </c>
       <c r="F12">
-        <v>43.98413618501422</v>
+        <v>39.57465418762103</v>
       </c>
       <c r="G12">
-        <v>35.92078731623694</v>
+        <v>2.055515763842956</v>
       </c>
       <c r="H12">
-        <v>36.51701071328821</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.64470959515616</v>
+        <v>5.333893392137917</v>
       </c>
       <c r="K12">
-        <v>20.3579896187698</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>9.698595192228403</v>
+        <v>7.053353217753799</v>
       </c>
       <c r="M12">
-        <v>17.12923807749049</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16.695596855852</v>
+      </c>
+      <c r="N12">
+        <v>12.44123484293021</v>
+      </c>
+      <c r="O12">
+        <v>30.15875162511016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.14445639757871</v>
+        <v>30.36084693160263</v>
       </c>
       <c r="C13">
-        <v>13.84877215163557</v>
+        <v>18.00933818197511</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.199513870053798</v>
+        <v>7.436053887016405</v>
       </c>
       <c r="F13">
-        <v>43.85531343468642</v>
+        <v>39.50396097592533</v>
       </c>
       <c r="G13">
-        <v>35.82628678833778</v>
+        <v>2.056144106862162</v>
       </c>
       <c r="H13">
-        <v>36.43177353831701</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.64429108010699</v>
+        <v>5.339771969034328</v>
       </c>
       <c r="K13">
-        <v>20.29929116280967</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>9.67336278311717</v>
+        <v>7.046900663614336</v>
       </c>
       <c r="M13">
-        <v>17.08245733075929</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16.66046569445976</v>
+      </c>
+      <c r="N13">
+        <v>12.45827408418231</v>
+      </c>
+      <c r="O13">
+        <v>30.10451242577104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.90914748301271</v>
+        <v>30.07276411645583</v>
       </c>
       <c r="C14">
-        <v>13.7218461981901</v>
+        <v>17.84174439412755</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.158913936196163</v>
+        <v>7.42103991031291</v>
       </c>
       <c r="F14">
-        <v>43.43398434362547</v>
+        <v>39.2738724319066</v>
       </c>
       <c r="G14">
-        <v>35.51780212954273</v>
+        <v>2.058194130956449</v>
       </c>
       <c r="H14">
-        <v>36.15380180717915</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.64314511910506</v>
+        <v>5.358924186222153</v>
       </c>
       <c r="K14">
-        <v>20.10720698455986</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>9.590767916585969</v>
+        <v>7.025897376557438</v>
       </c>
       <c r="M14">
-        <v>16.92935822298804</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16.54573324842185</v>
+      </c>
+      <c r="N14">
+        <v>12.51387525679834</v>
+      </c>
+      <c r="O14">
+        <v>29.92817672319127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.76437362789301</v>
+        <v>29.89548735052503</v>
       </c>
       <c r="C15">
-        <v>13.64380437738798</v>
+        <v>17.73863264459402</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.134008205297159</v>
+        <v>7.411896071495942</v>
       </c>
       <c r="F15">
-        <v>43.17497124240864</v>
+        <v>39.1332868977139</v>
       </c>
       <c r="G15">
-        <v>35.32861274112472</v>
+        <v>2.059450564134272</v>
       </c>
       <c r="H15">
-        <v>35.983536376836</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.64260859602724</v>
+        <v>5.370641632718708</v>
       </c>
       <c r="K15">
-        <v>19.9890414504229</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>9.539939456717235</v>
+        <v>7.013063006167738</v>
       </c>
       <c r="M15">
-        <v>16.83516503779194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16.47533215703668</v>
+      </c>
+      <c r="N15">
+        <v>12.54795844529136</v>
+      </c>
+      <c r="O15">
+        <v>29.82058638465677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.9247009247461</v>
+        <v>28.8668873485829</v>
       </c>
       <c r="C16">
-        <v>13.19191059125304</v>
+        <v>17.14062059324555</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.990731935877051</v>
+        <v>7.360252340148989</v>
       </c>
       <c r="F16">
-        <v>41.67603962655068</v>
+        <v>38.33298216433646</v>
       </c>
       <c r="G16">
-        <v>34.24068912569189</v>
+        <v>2.066664835050058</v>
       </c>
       <c r="H16">
-        <v>35.00768290339126</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.64195781337087</v>
+        <v>5.437610916089806</v>
       </c>
       <c r="K16">
-        <v>19.30390876566293</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>9.244986286211446</v>
+        <v>6.939990005553984</v>
       </c>
       <c r="M16">
-        <v>16.28889421465193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16.07001089574915</v>
+      </c>
+      <c r="N16">
+        <v>12.74370834215435</v>
+      </c>
+      <c r="O16">
+        <v>29.21038467747169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.40041022159762</v>
+        <v>28.2243745866453</v>
       </c>
       <c r="C17">
-        <v>12.91038876736267</v>
+        <v>16.76726516049483</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.902365543997782</v>
+        <v>7.329192174276422</v>
       </c>
       <c r="F17">
-        <v>40.75566626442784</v>
+        <v>37.84675681540844</v>
       </c>
       <c r="G17">
-        <v>33.5697704637906</v>
+        <v>2.071106223059659</v>
       </c>
       <c r="H17">
-        <v>34.40879070031848</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.64360595377926</v>
+        <v>5.478569824991751</v>
       </c>
       <c r="K17">
-        <v>18.87629875807852</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>9.060713302360805</v>
+        <v>6.89559168120884</v>
       </c>
       <c r="M17">
-        <v>15.94786338712141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15.81971261803778</v>
+      </c>
+      <c r="N17">
+        <v>12.86422021543524</v>
+      </c>
+      <c r="O17">
+        <v>28.84163269142859</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.09539279466884</v>
+        <v>27.85052939419049</v>
       </c>
       <c r="C18">
-        <v>12.74683432834216</v>
+        <v>16.5500810023521</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.851375903610141</v>
+        <v>7.311535682288979</v>
       </c>
       <c r="F18">
-        <v>40.24622360879977</v>
+        <v>37.56882938705555</v>
       </c>
       <c r="G18">
-        <v>33.1825324498801</v>
+        <v>2.07366770065732</v>
       </c>
       <c r="H18">
-        <v>34.0641991683541</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.64526279781046</v>
+        <v>5.502095744826149</v>
       </c>
       <c r="K18">
-        <v>18.62759359746142</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>8.953482890612596</v>
+        <v>6.870215096263395</v>
       </c>
       <c r="M18">
-        <v>15.7494931519026</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>15.67515829416233</v>
+      </c>
+      <c r="N18">
+        <v>12.93370732948484</v>
+      </c>
+      <c r="O18">
+        <v>28.631560927839</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.99151715655697</v>
+        <v>27.72320967508327</v>
       </c>
       <c r="C19">
-        <v>12.69117303514589</v>
+        <v>16.47612227516027</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.83408458406701</v>
+        <v>7.305591506600259</v>
       </c>
       <c r="F19">
-        <v>40.07306987477607</v>
+        <v>37.47502632400849</v>
       </c>
       <c r="G19">
-        <v>33.05118567960568</v>
+        <v>2.074536264309759</v>
       </c>
       <c r="H19">
-        <v>33.94750242933674</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.64594159491515</v>
+        <v>5.510056826179011</v>
       </c>
       <c r="K19">
-        <v>18.54290663016376</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>8.916961678324467</v>
+        <v>6.861650762293612</v>
       </c>
       <c r="M19">
-        <v>15.68194327187534</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15.62611526110358</v>
+      </c>
+      <c r="N19">
+        <v>12.95726544087517</v>
+      </c>
+      <c r="O19">
+        <v>28.56077965391382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.4565780001093</v>
+        <v>28.29321370280176</v>
       </c>
       <c r="C20">
-        <v>12.94052490848239</v>
+        <v>16.80726085058363</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.911789463624161</v>
+        <v>7.332476570255199</v>
       </c>
       <c r="F20">
-        <v>40.84963769869239</v>
+        <v>37.89833661210094</v>
       </c>
       <c r="G20">
-        <v>33.64132893590885</v>
+        <v>2.070632739877516</v>
       </c>
       <c r="H20">
-        <v>34.47255602061455</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.64335619370305</v>
+        <v>5.474213337990004</v>
       </c>
       <c r="K20">
-        <v>18.92210217060212</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>9.080457572507179</v>
+        <v>6.900301437697045</v>
       </c>
       <c r="M20">
-        <v>15.98439529368235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>15.84641870464131</v>
+      </c>
+      <c r="N20">
+        <v>12.85137407829096</v>
+      </c>
+      <c r="O20">
+        <v>28.88067685493085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.97839632956912</v>
+        <v>30.15755102585859</v>
       </c>
       <c r="C21">
-        <v>13.75918879244225</v>
+        <v>17.89106538975322</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.170846889622865</v>
+        <v>7.425438779657384</v>
       </c>
       <c r="F21">
-        <v>43.55793346858824</v>
+        <v>39.34138189772902</v>
       </c>
       <c r="G21">
-        <v>35.60845978212603</v>
+        <v>2.057591843312609</v>
       </c>
       <c r="H21">
-        <v>36.23544842369895</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.64344696914118</v>
+        <v>5.353301682141468</v>
       </c>
       <c r="K21">
-        <v>20.16373227478127</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>9.615077245259648</v>
+        <v>7.032060152404912</v>
       </c>
       <c r="M21">
-        <v>16.9744134524864</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16.57945886474575</v>
+      </c>
+      <c r="N21">
+        <v>12.49753854211971</v>
+      </c>
+      <c r="O21">
+        <v>29.97988296057525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.94409532488883</v>
+        <v>31.33922879097848</v>
       </c>
       <c r="C22">
-        <v>14.28084458185204</v>
+        <v>18.57885061488026</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.338519162401651</v>
+        <v>7.48849665624538</v>
       </c>
       <c r="F22">
-        <v>45.29009711950453</v>
+        <v>40.30015789225212</v>
       </c>
       <c r="G22">
-        <v>36.8834781990465</v>
+        <v>2.049104891503548</v>
       </c>
       <c r="H22">
-        <v>37.38749727304745</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.65078961049443</v>
+        <v>5.27369588057047</v>
       </c>
       <c r="K22">
-        <v>20.95225710091548</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>9.953836510314142</v>
+        <v>7.1195542350367</v>
       </c>
       <c r="M22">
-        <v>17.60272090787469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>17.05302342956623</v>
+      </c>
+      <c r="N22">
+        <v>12.26748611144284</v>
+      </c>
+      <c r="O22">
+        <v>30.71700975515014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.4312286964406</v>
+        <v>30.71183415232405</v>
       </c>
       <c r="C23">
-        <v>14.00359221293098</v>
+        <v>18.21358472743038</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.249185978798207</v>
+        <v>7.454607474635852</v>
       </c>
       <c r="F23">
-        <v>44.36934434428886</v>
+        <v>39.78698821836996</v>
       </c>
       <c r="G23">
-        <v>36.20386340655111</v>
+        <v>2.053632563833776</v>
       </c>
       <c r="H23">
-        <v>36.77256967979275</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.64615330353179</v>
+        <v>5.316251581915068</v>
       </c>
       <c r="K23">
-        <v>20.5334241694086</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>9.773986559189657</v>
+        <v>7.072732271810171</v>
       </c>
       <c r="M23">
-        <v>17.26904073613775</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>16.80078590884043</v>
+      </c>
+      <c r="N23">
+        <v>12.39017589146122</v>
+      </c>
+      <c r="O23">
+        <v>30.32183494074033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.43119576756113</v>
+        <v>28.26210543273313</v>
       </c>
       <c r="C24">
-        <v>12.92690567786593</v>
+        <v>16.78918671428153</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.907529488613067</v>
+        <v>7.330991075282264</v>
       </c>
       <c r="F24">
-        <v>40.80716592112422</v>
+        <v>37.87501237208308</v>
       </c>
       <c r="G24">
-        <v>33.60898209101349</v>
+        <v>2.070846776234259</v>
       </c>
       <c r="H24">
-        <v>34.44372860152416</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.64346691116522</v>
+        <v>5.476182970876335</v>
       </c>
       <c r="K24">
-        <v>18.90140339297175</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>9.071535208495513</v>
+        <v>6.898171693380902</v>
       </c>
       <c r="M24">
-        <v>15.96788641552982</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>15.83434691780975</v>
+      </c>
+      <c r="N24">
+        <v>12.85718118023542</v>
+      </c>
+      <c r="O24">
+        <v>28.86301898794947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.14071680533455</v>
+        <v>25.58867618969726</v>
       </c>
       <c r="C25">
-        <v>11.7027296840585</v>
+        <v>15.15893917455996</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.532933766517043</v>
+        <v>7.205433479120346</v>
       </c>
       <c r="F25">
-        <v>37.01966552980117</v>
+        <v>35.8793171807631</v>
       </c>
       <c r="G25">
-        <v>30.75871910798264</v>
+        <v>2.089690714575444</v>
       </c>
       <c r="H25">
-        <v>31.92714012394949</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.66725847406125</v>
+        <v>5.647580691849291</v>
       </c>
       <c r="K25">
-        <v>17.03496943848086</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>8.266210477006561</v>
+        <v>6.716043217211111</v>
       </c>
       <c r="M25">
-        <v>14.47914841817019</v>
+        <v>14.76976931417139</v>
+      </c>
+      <c r="N25">
+        <v>13.36767754017544</v>
+      </c>
+      <c r="O25">
+        <v>27.3667569425365</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.56340871707457</v>
+        <v>21.45024218141855</v>
       </c>
       <c r="C2">
-        <v>13.87240928522565</v>
+        <v>12.60663465316662</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.117690909210143</v>
+        <v>8.205181230796439</v>
       </c>
       <c r="F2">
-        <v>34.46813713567263</v>
+        <v>30.48440012032762</v>
       </c>
       <c r="G2">
-        <v>2.103921799810396</v>
+        <v>38.16193541807427</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.95233417323886</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.774180360591334</v>
+        <v>5.349839240046035</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.587526930734641</v>
+        <v>7.138421499011978</v>
       </c>
       <c r="M2">
-        <v>13.96978217543696</v>
+        <v>13.33638792023893</v>
       </c>
       <c r="N2">
-        <v>13.7511495763469</v>
+        <v>12.80624443569808</v>
       </c>
       <c r="O2">
-        <v>26.3292540833136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.12300809103967</v>
+        <v>20.08536059565084</v>
       </c>
       <c r="C3">
-        <v>12.94445951435836</v>
+        <v>11.94436481212561</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.060330182658939</v>
+        <v>8.218242986227105</v>
       </c>
       <c r="F3">
-        <v>33.54941215343517</v>
+        <v>29.73129327393575</v>
       </c>
       <c r="G3">
-        <v>2.11384031437944</v>
+        <v>36.78520572514606</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11.82688704751223</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.860811475780729</v>
+        <v>5.402483431171429</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.504083816219314</v>
+        <v>7.028597218625059</v>
       </c>
       <c r="M3">
-        <v>13.41982594412127</v>
+        <v>12.78134756990069</v>
       </c>
       <c r="N3">
-        <v>14.01661790134363</v>
+        <v>13.06228938190536</v>
       </c>
       <c r="O3">
-        <v>25.6655852048476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.20618982379759</v>
+        <v>19.20912336364207</v>
       </c>
       <c r="C4">
-        <v>12.34641367651691</v>
+        <v>11.52022435215823</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.025909865327039</v>
+        <v>8.227698049592886</v>
       </c>
       <c r="F4">
-        <v>33.00446818709529</v>
+        <v>29.28672594692083</v>
       </c>
       <c r="G4">
-        <v>2.120080671185955</v>
+        <v>35.96019608359643</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>11.75991068443308</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.914584865168516</v>
+        <v>5.435270573561998</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.454712165329589</v>
+        <v>6.962828816620561</v>
       </c>
       <c r="M4">
-        <v>13.07930536636893</v>
+        <v>12.43466866686795</v>
       </c>
       <c r="N4">
-        <v>14.18263645792357</v>
+        <v>13.22217920794619</v>
       </c>
       <c r="O4">
-        <v>25.2774297524359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.82467237638512</v>
+        <v>18.84260037917492</v>
       </c>
       <c r="C5">
-        <v>12.09551526236187</v>
+        <v>11.34303900114606</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.012052417193091</v>
+        <v>8.231902275334575</v>
       </c>
       <c r="F5">
-        <v>32.78731437599852</v>
+        <v>29.11014949414619</v>
       </c>
       <c r="G5">
-        <v>2.12266354245856</v>
+        <v>35.62943298526515</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11.73506653921324</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.93666726031511</v>
+        <v>5.448759949696296</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.435070667143165</v>
+        <v>6.93646595655671</v>
       </c>
       <c r="M5">
-        <v>12.94000177245722</v>
+        <v>12.2921071728461</v>
       </c>
       <c r="N5">
-        <v>14.25108672871771</v>
+        <v>13.2880519592359</v>
       </c>
       <c r="O5">
-        <v>25.12410063518194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.76085283120343</v>
+        <v>18.78117448077797</v>
       </c>
       <c r="C6">
-        <v>12.05341748485519</v>
+        <v>11.31335718826685</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.009760732032938</v>
+        <v>8.232621330176555</v>
       </c>
       <c r="F6">
-        <v>32.75155583922141</v>
+        <v>29.08110902173075</v>
       </c>
       <c r="G6">
-        <v>2.123094892421191</v>
+        <v>35.57484808625902</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11.73108677228846</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.940344892573259</v>
+        <v>5.451007933148647</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.431838340352913</v>
+        <v>6.932115467088402</v>
       </c>
       <c r="M6">
-        <v>12.91684357094993</v>
+        <v>12.26836330523886</v>
       </c>
       <c r="N6">
-        <v>14.26250199565638</v>
+        <v>13.29903455811205</v>
       </c>
       <c r="O6">
-        <v>25.09893261996691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.20107618010335</v>
+        <v>19.20421831893957</v>
       </c>
       <c r="C7">
-        <v>12.34305917856063</v>
+        <v>11.51785226906253</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.02572233436638</v>
+        <v>8.227753339334575</v>
       </c>
       <c r="F7">
-        <v>33.00151954480908</v>
+        <v>29.28432586931059</v>
       </c>
       <c r="G7">
-        <v>2.120115340605207</v>
+        <v>35.95571284814221</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>11.75956581598694</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.914881961319615</v>
+        <v>5.435451961258372</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.454445326217086</v>
+        <v>6.962471477304716</v>
       </c>
       <c r="M7">
-        <v>13.07742860090329</v>
+        <v>12.43275097197485</v>
       </c>
       <c r="N7">
-        <v>14.1835563299201</v>
+        <v>13.22306463522801</v>
       </c>
       <c r="O7">
-        <v>25.27534230122533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.07360556029492</v>
+        <v>20.98763415164623</v>
       </c>
       <c r="C8">
-        <v>13.55827055690355</v>
+        <v>12.38194450325613</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.097726900205649</v>
+        <v>8.209380979206193</v>
       </c>
       <c r="F8">
-        <v>34.1474432498479</v>
+        <v>30.22108838903168</v>
       </c>
       <c r="G8">
-        <v>2.107311791268786</v>
+        <v>37.68321610582236</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>11.90694894196051</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.803944527560992</v>
+        <v>5.367902157062088</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.558374870731947</v>
+        <v>7.100220670180699</v>
       </c>
       <c r="M8">
-        <v>13.78084685441413</v>
+        <v>13.14633829752213</v>
       </c>
       <c r="N8">
-        <v>13.84207901493312</v>
+        <v>12.89399991220461</v>
       </c>
       <c r="O8">
-        <v>26.09639880940573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.48176543908632</v>
+        <v>24.32905788673514</v>
       </c>
       <c r="C9">
-        <v>15.72114125713112</v>
+        <v>13.93612489496636</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.246875466173182</v>
+        <v>8.185225397671575</v>
       </c>
       <c r="F9">
-        <v>36.54264775112495</v>
+        <v>32.19507287913867</v>
       </c>
       <c r="G9">
-        <v>2.08329515437427</v>
+        <v>41.2188152593942</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>12.27898343803227</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.589866986489138</v>
+        <v>5.238533825128252</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.776547314892315</v>
+        <v>7.382680590800496</v>
       </c>
       <c r="M9">
-        <v>15.13112510931088</v>
+        <v>14.49186419716684</v>
       </c>
       <c r="N9">
-        <v>13.19465250228202</v>
+        <v>12.26784521134599</v>
       </c>
       <c r="O9">
-        <v>27.86069671036089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.93962577885735</v>
+        <v>26.61498674291298</v>
       </c>
       <c r="C10">
-        <v>17.18289620562841</v>
+        <v>14.99195611770555</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.36382618572007</v>
+        <v>8.175479081475554</v>
       </c>
       <c r="F10">
-        <v>38.38869926948333</v>
+        <v>33.72314263477148</v>
       </c>
       <c r="G10">
-        <v>2.066158896039764</v>
+        <v>43.89196164231076</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.60722022859433</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.432931867712268</v>
+        <v>5.144489386713941</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.94507769339221</v>
+        <v>7.596594691822578</v>
       </c>
       <c r="M10">
-        <v>16.098490561465</v>
+        <v>15.439841366574</v>
       </c>
       <c r="N10">
-        <v>12.72997927408793</v>
+        <v>11.8162994124799</v>
       </c>
       <c r="O10">
-        <v>29.25273812065113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.0389120163625</v>
+        <v>27.60663330530045</v>
       </c>
       <c r="C11">
-        <v>17.82205341686954</v>
+        <v>15.45385275825666</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.419288248881549</v>
+        <v>8.172980364272856</v>
       </c>
       <c r="F11">
-        <v>39.24696743052288</v>
+        <v>34.43421645380862</v>
       </c>
       <c r="G11">
-        <v>2.058434353419381</v>
+        <v>45.12241167520875</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.76934525266801</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.361165713094305</v>
+        <v>5.101703968869028</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.02344122492993</v>
+        <v>7.695076058367883</v>
       </c>
       <c r="M11">
-        <v>16.5322777541381</v>
+        <v>15.86113544948454</v>
       </c>
       <c r="N11">
-        <v>12.52039144114349</v>
+        <v>11.6119461480149</v>
       </c>
       <c r="O11">
-        <v>29.90757730194712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.44885826497192</v>
+        <v>27.97535246195935</v>
       </c>
       <c r="C12">
-        <v>18.06054763161307</v>
+        <v>15.62615453345307</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.440679207367949</v>
+        <v>8.172331543907694</v>
       </c>
       <c r="F12">
-        <v>39.57465418762103</v>
+        <v>34.70571752080151</v>
       </c>
       <c r="G12">
-        <v>2.055515763842956</v>
+        <v>45.59033772537363</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.83265076472449</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.333893392137917</v>
+        <v>5.08548126475844</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.053353217753799</v>
+        <v>7.732519899811898</v>
       </c>
       <c r="M12">
-        <v>16.695596855852</v>
+        <v>16.01917207373576</v>
       </c>
       <c r="N12">
-        <v>12.44123484293021</v>
+        <v>11.53464409713731</v>
       </c>
       <c r="O12">
-        <v>30.15875162511016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.36084693160263</v>
+        <v>27.89624205668312</v>
       </c>
       <c r="C13">
-        <v>18.00933818197511</v>
+        <v>15.58916150275633</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.436053887016405</v>
+        <v>8.17245772064943</v>
       </c>
       <c r="F13">
-        <v>39.50396097592533</v>
+        <v>34.64714627887418</v>
       </c>
       <c r="G13">
-        <v>2.056144106862162</v>
+        <v>45.48947405504963</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.81893060090206</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.339771969034328</v>
+        <v>5.088976383570041</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.046900663614336</v>
+        <v>7.72444923363575</v>
       </c>
       <c r="M13">
-        <v>16.66046569445976</v>
+        <v>15.98520355313404</v>
       </c>
       <c r="N13">
-        <v>12.45827408418231</v>
+        <v>11.55129000936773</v>
       </c>
       <c r="O13">
-        <v>30.10451242577104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.07276411645583</v>
+        <v>27.63710339761659</v>
       </c>
       <c r="C14">
-        <v>17.84174439412755</v>
+        <v>15.46808013274164</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.42103991031291</v>
+        <v>8.172920906685507</v>
       </c>
       <c r="F14">
-        <v>39.2738724319066</v>
+        <v>34.45650851208117</v>
       </c>
       <c r="G14">
-        <v>2.058194130956449</v>
+        <v>45.16086879591305</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.77451470095903</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.358924186222153</v>
+        <v>5.100369857236046</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.025897376557438</v>
+        <v>7.69815364992857</v>
       </c>
       <c r="M14">
-        <v>16.54573324842185</v>
+        <v>15.87416755981246</v>
       </c>
       <c r="N14">
-        <v>12.51387525679834</v>
+        <v>11.60558524028111</v>
       </c>
       <c r="O14">
-        <v>29.92817672319127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.89548735052503</v>
+        <v>27.47749286758339</v>
       </c>
       <c r="C15">
-        <v>17.73863264459402</v>
+        <v>15.39357599616997</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.411896071495942</v>
+        <v>8.173243961184372</v>
       </c>
       <c r="F15">
-        <v>39.1332868977139</v>
+        <v>34.34002681406762</v>
       </c>
       <c r="G15">
-        <v>2.059450564134272</v>
+        <v>44.95984510215676</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.74755983271803</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.370641632718708</v>
+        <v>5.107345345378439</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.013063006167738</v>
+        <v>7.682066040971011</v>
       </c>
       <c r="M15">
-        <v>16.47533215703668</v>
+        <v>15.80595802946096</v>
       </c>
       <c r="N15">
-        <v>12.54795844529136</v>
+        <v>11.63885114197303</v>
       </c>
       <c r="O15">
-        <v>29.82058638465677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.8668873485829</v>
+        <v>26.54922136746786</v>
       </c>
       <c r="C16">
-        <v>17.14062059324555</v>
+        <v>14.96140263545213</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.360252340148989</v>
+        <v>8.17568289560109</v>
       </c>
       <c r="F16">
-        <v>38.33298216433646</v>
+        <v>33.67698744727229</v>
       </c>
       <c r="G16">
-        <v>2.066664835050058</v>
+        <v>43.81182950697315</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.5968887079761</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.437610916089806</v>
+        <v>5.147283751409664</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.939990005553984</v>
+        <v>7.5901807437101</v>
       </c>
       <c r="M16">
-        <v>16.07001089574915</v>
+        <v>15.412102359188</v>
       </c>
       <c r="N16">
-        <v>12.74370834215435</v>
+        <v>11.82966982027668</v>
       </c>
       <c r="O16">
-        <v>29.21038467747169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.2243745866453</v>
+        <v>25.96749817738369</v>
       </c>
       <c r="C17">
-        <v>16.76726516049483</v>
+        <v>14.69158644773314</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.329192174276422</v>
+        <v>8.177687552409418</v>
       </c>
       <c r="F17">
-        <v>37.84675681540844</v>
+        <v>33.27426792321928</v>
       </c>
       <c r="G17">
-        <v>2.071106223059659</v>
+        <v>43.11116474126266</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>12.50778718021467</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.478569824991751</v>
+        <v>5.171769879820927</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.89559168120884</v>
+        <v>7.534099097849858</v>
       </c>
       <c r="M17">
-        <v>15.81971261803778</v>
+        <v>15.16788200263852</v>
       </c>
       <c r="N17">
-        <v>12.86422021543524</v>
+        <v>11.9469539053203</v>
       </c>
       <c r="O17">
-        <v>28.84163269142859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.85052939419049</v>
+        <v>25.62835712496658</v>
       </c>
       <c r="C18">
-        <v>16.5500810023521</v>
+        <v>14.53465956612089</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.311535682288979</v>
+        <v>8.179021419632329</v>
       </c>
       <c r="F18">
-        <v>37.56882938705555</v>
+        <v>33.04413754660757</v>
       </c>
       <c r="G18">
-        <v>2.07366770065732</v>
+        <v>42.70951968842965</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>12.45773970546387</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.502095744826149</v>
+        <v>5.185854590288021</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.870215096263395</v>
+        <v>7.501953548810556</v>
       </c>
       <c r="M18">
-        <v>15.67515829416233</v>
+        <v>15.02647946683129</v>
       </c>
       <c r="N18">
-        <v>12.93370732948484</v>
+        <v>12.01451666535149</v>
       </c>
       <c r="O18">
-        <v>28.631560927839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.72320967508327</v>
+        <v>25.51274441643401</v>
       </c>
       <c r="C19">
-        <v>16.47612227516027</v>
+        <v>14.48122778425929</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.305591506600259</v>
+        <v>8.179503559737949</v>
       </c>
       <c r="F19">
-        <v>37.47502632400849</v>
+        <v>32.96647978842549</v>
       </c>
       <c r="G19">
-        <v>2.074536264309759</v>
+        <v>42.57376693174735</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12.44099869919946</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.510056826179011</v>
+        <v>5.190624174416437</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.861650762293612</v>
+        <v>7.491089260742094</v>
       </c>
       <c r="M19">
-        <v>15.62611526110358</v>
+        <v>14.97844510895095</v>
       </c>
       <c r="N19">
-        <v>12.95726544087517</v>
+        <v>12.03741215416713</v>
       </c>
       <c r="O19">
-        <v>28.56077965391382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.29321370280176</v>
+        <v>26.02989346563054</v>
       </c>
       <c r="C20">
-        <v>16.80726085058363</v>
+        <v>14.7204882550843</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.332476570255199</v>
+        <v>8.17745530591773</v>
       </c>
       <c r="F20">
-        <v>37.89833661210094</v>
+        <v>33.31698304307945</v>
       </c>
       <c r="G20">
-        <v>2.070632739877516</v>
+        <v>43.18561197108242</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12.51714734706082</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.474213337990004</v>
+        <v>5.169163332430081</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.900301437697045</v>
+        <v>7.540057714190171</v>
       </c>
       <c r="M20">
-        <v>15.84641870464131</v>
+        <v>15.19397684683769</v>
       </c>
       <c r="N20">
-        <v>12.85137407829096</v>
+        <v>11.93445853097686</v>
       </c>
       <c r="O20">
-        <v>28.88067685493085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.15755102585859</v>
+        <v>27.71340195295166</v>
       </c>
       <c r="C21">
-        <v>17.89106538975322</v>
+        <v>15.50371507804186</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.425438779657384</v>
+        <v>8.172776621589763</v>
       </c>
       <c r="F21">
-        <v>39.34138189772902</v>
+        <v>34.51244319635592</v>
       </c>
       <c r="G21">
-        <v>2.057591843312609</v>
+        <v>45.2573347305613</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.78750825914888</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.353301682141468</v>
+        <v>5.097024053695866</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.032060152404912</v>
+        <v>7.70587332807869</v>
       </c>
       <c r="M21">
-        <v>16.57945886474575</v>
+        <v>15.90682262262124</v>
       </c>
       <c r="N21">
-        <v>12.49753854211971</v>
+        <v>11.5896357765535</v>
       </c>
       <c r="O21">
-        <v>29.97988296057525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.33922879097848</v>
+        <v>28.77413602115958</v>
       </c>
       <c r="C22">
-        <v>18.57885061488026</v>
+        <v>16.00042355557684</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.48849665624538</v>
+        <v>8.17146300521358</v>
       </c>
       <c r="F22">
-        <v>40.30015789225212</v>
+        <v>35.30675214785914</v>
       </c>
       <c r="G22">
-        <v>2.049104891503548</v>
+        <v>46.62288403202957</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.97538524831824</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.27369588057047</v>
+        <v>5.049744709904649</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.1195542350367</v>
+        <v>7.815117474135083</v>
       </c>
       <c r="M22">
-        <v>17.05302342956623</v>
+        <v>16.36395871541896</v>
       </c>
       <c r="N22">
-        <v>12.26748611144284</v>
+        <v>11.36471538782221</v>
       </c>
       <c r="O22">
-        <v>30.71700975515014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.71183415232405</v>
+        <v>28.21156973726357</v>
       </c>
       <c r="C23">
-        <v>18.21358472743038</v>
+        <v>15.73669284688733</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.454607474635852</v>
+        <v>8.171997516050959</v>
       </c>
       <c r="F23">
-        <v>39.78698821836996</v>
+        <v>34.8816372332756</v>
       </c>
       <c r="G23">
-        <v>2.053632563833776</v>
+        <v>45.89301847745815</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.87406495876767</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.316251581915068</v>
+        <v>5.07499791673804</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.072732271810171</v>
+        <v>7.756737036431244</v>
       </c>
       <c r="M23">
-        <v>16.80078590884043</v>
+        <v>16.12079417857609</v>
       </c>
       <c r="N23">
-        <v>12.39017589146122</v>
+        <v>11.48474410915878</v>
       </c>
       <c r="O23">
-        <v>30.32183494074033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.26210543273313</v>
+        <v>26.0016992076848</v>
       </c>
       <c r="C24">
-        <v>16.78918671428153</v>
+        <v>14.70742737586026</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.330991075282264</v>
+        <v>8.177559741064321</v>
       </c>
       <c r="F24">
-        <v>37.87501237208308</v>
+        <v>33.29766717660332</v>
       </c>
       <c r="G24">
-        <v>2.070846776234259</v>
+        <v>43.1519507061046</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12.51291195116054</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.476182970876335</v>
+        <v>5.170341728239447</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.898171693380902</v>
+        <v>7.537363521717904</v>
       </c>
       <c r="M24">
-        <v>15.83434691780975</v>
+        <v>15.18218246778552</v>
       </c>
       <c r="N24">
-        <v>12.85718118023542</v>
+        <v>11.94010726533533</v>
       </c>
       <c r="O24">
-        <v>28.86301898794947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.58867618969726</v>
+        <v>23.44362043384552</v>
       </c>
       <c r="C25">
-        <v>15.15893917455996</v>
+        <v>13.53081558682901</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.205433479120346</v>
+        <v>8.190415797005167</v>
       </c>
       <c r="F25">
-        <v>35.8793171807631</v>
+        <v>31.64701106923362</v>
       </c>
       <c r="G25">
-        <v>2.089690714575444</v>
+        <v>40.24818523367951</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>12.16899701088737</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.647580691849291</v>
+        <v>5.273286450257589</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.716043217211111</v>
+        <v>7.305066047822935</v>
       </c>
       <c r="M25">
-        <v>14.76976931417139</v>
+        <v>14.13452096989092</v>
       </c>
       <c r="N25">
-        <v>13.36767754017544</v>
+        <v>12.4355003536572</v>
       </c>
       <c r="O25">
-        <v>27.3667569425365</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.45024218141855</v>
+        <v>18.92936301834544</v>
       </c>
       <c r="C2">
-        <v>12.60663465316662</v>
+        <v>9.709649466661444</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.205181230796439</v>
+        <v>14.26124745456813</v>
       </c>
       <c r="F2">
-        <v>30.48440012032762</v>
+        <v>41.39444317716538</v>
       </c>
       <c r="G2">
-        <v>38.16193541807427</v>
+        <v>43.91884683643406</v>
       </c>
       <c r="H2">
-        <v>11.95233417323886</v>
+        <v>17.87465813732225</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.349839240046035</v>
+        <v>8.600465382580136</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.138421499011978</v>
+        <v>11.96443484153292</v>
       </c>
       <c r="M2">
-        <v>13.33638792023893</v>
+        <v>17.83574612474532</v>
       </c>
       <c r="N2">
-        <v>12.80624443569808</v>
+        <v>19.76015907096733</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.08536059565084</v>
+        <v>18.56208342824914</v>
       </c>
       <c r="C3">
-        <v>11.94436481212561</v>
+        <v>9.432431618139123</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.218242986227105</v>
+        <v>14.27622673567548</v>
       </c>
       <c r="F3">
-        <v>29.73129327393575</v>
+        <v>41.39324048626407</v>
       </c>
       <c r="G3">
-        <v>36.78520572514606</v>
+        <v>43.79710664978436</v>
       </c>
       <c r="H3">
-        <v>11.82688704751223</v>
+        <v>17.90971066231206</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.402483431171429</v>
+        <v>8.614469591159947</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.028597218625059</v>
+        <v>11.9686521415233</v>
       </c>
       <c r="M3">
-        <v>12.78134756990069</v>
+        <v>17.76990986527475</v>
       </c>
       <c r="N3">
-        <v>13.06228938190536</v>
+        <v>19.83168938530356</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.20912336364207</v>
+        <v>18.33733033833679</v>
       </c>
       <c r="C4">
-        <v>11.52022435215823</v>
+        <v>9.256165393219852</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.227698049592886</v>
+        <v>14.28609451732298</v>
       </c>
       <c r="F4">
-        <v>29.28672594692083</v>
+        <v>41.40246550159398</v>
       </c>
       <c r="G4">
-        <v>35.96019608359643</v>
+        <v>43.73681764149649</v>
       </c>
       <c r="H4">
-        <v>11.75991068443308</v>
+        <v>17.93498256492472</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.435270573561998</v>
+        <v>8.623459458760083</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.962828816620561</v>
+        <v>11.97255280133958</v>
       </c>
       <c r="M4">
-        <v>12.43466866686795</v>
+        <v>17.73243345929271</v>
       </c>
       <c r="N4">
-        <v>13.22217920794619</v>
+        <v>19.87755912301386</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.84260037917492</v>
+        <v>18.24606375424175</v>
       </c>
       <c r="C5">
-        <v>11.34303900114606</v>
+        <v>9.182871451096965</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.231902275334575</v>
+        <v>14.29028468375047</v>
       </c>
       <c r="F5">
-        <v>29.11014949414619</v>
+        <v>41.40872902756708</v>
       </c>
       <c r="G5">
-        <v>35.62943298526515</v>
+        <v>43.71589653487556</v>
       </c>
       <c r="H5">
-        <v>11.73506653921324</v>
+        <v>17.94622161074774</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.448759949696296</v>
+        <v>8.627221664510166</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.93646595655671</v>
+        <v>11.97447297652903</v>
       </c>
       <c r="M5">
-        <v>12.2921071728461</v>
+        <v>17.71791352742526</v>
       </c>
       <c r="N5">
-        <v>13.2880519592359</v>
+        <v>19.89674339327121</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.78117448077797</v>
+        <v>18.23093233994416</v>
       </c>
       <c r="C6">
-        <v>11.31335718826685</v>
+        <v>9.170614422421247</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.232621330176555</v>
+        <v>14.29099067392344</v>
       </c>
       <c r="F6">
-        <v>29.08110902173075</v>
+        <v>41.40992026991112</v>
       </c>
       <c r="G6">
-        <v>35.57484808625902</v>
+        <v>43.71264310828933</v>
       </c>
       <c r="H6">
-        <v>11.73108677228846</v>
+        <v>17.94814458098505</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.451007933148647</v>
+        <v>8.627852352158087</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.932115467088402</v>
+        <v>11.97481181444189</v>
       </c>
       <c r="M6">
-        <v>12.26836330523886</v>
+        <v>17.71554822545153</v>
       </c>
       <c r="N6">
-        <v>13.29903455811205</v>
+        <v>19.89995869037379</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.20421831893957</v>
+        <v>18.33609800598063</v>
       </c>
       <c r="C7">
-        <v>11.51785226906253</v>
+        <v>9.255182772706327</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.227753339334575</v>
+        <v>14.28615034271887</v>
       </c>
       <c r="F7">
-        <v>29.28432586931059</v>
+        <v>41.40253983673696</v>
       </c>
       <c r="G7">
-        <v>35.95571284814221</v>
+        <v>43.73652071405942</v>
       </c>
       <c r="H7">
-        <v>11.75956581598694</v>
+        <v>17.93513033365203</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.435451961258372</v>
+        <v>8.623509796801823</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.962471477304716</v>
+        <v>11.97257735764698</v>
       </c>
       <c r="M7">
-        <v>12.43275097197485</v>
+        <v>17.73223457980454</v>
       </c>
       <c r="N7">
-        <v>13.22306463522801</v>
+        <v>19.87781585458871</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.98763415164623</v>
+        <v>18.8026459466108</v>
       </c>
       <c r="C8">
-        <v>12.38194450325613</v>
+        <v>9.615354440597894</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.209380979206193</v>
+        <v>14.26627338637854</v>
       </c>
       <c r="F8">
-        <v>30.22108838903168</v>
+        <v>41.39196031541735</v>
       </c>
       <c r="G8">
-        <v>37.68321610582236</v>
+        <v>43.87387776853655</v>
       </c>
       <c r="H8">
-        <v>11.90694894196051</v>
+        <v>17.88596470483948</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.367902157062088</v>
+        <v>8.605213066939706</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.100220670180699</v>
+        <v>11.96561738255822</v>
       </c>
       <c r="M8">
-        <v>13.14633829752213</v>
+        <v>17.81244082637528</v>
       </c>
       <c r="N8">
-        <v>12.89399991220461</v>
+        <v>19.78441905024165</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.32905788673514</v>
+        <v>19.71790525000395</v>
       </c>
       <c r="C9">
-        <v>13.93612489496636</v>
+        <v>10.27132211942406</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.185225397671575</v>
+        <v>14.23259769222015</v>
       </c>
       <c r="F9">
-        <v>32.19507287913867</v>
+        <v>41.45026080869763</v>
       </c>
       <c r="G9">
-        <v>41.2188152593942</v>
+        <v>44.25725635461558</v>
       </c>
       <c r="H9">
-        <v>12.27898343803227</v>
+        <v>17.81939814773088</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.238533825128252</v>
+        <v>8.572419712088303</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.382680590800496</v>
+        <v>11.9623317191541</v>
       </c>
       <c r="M9">
-        <v>14.49186419716684</v>
+        <v>17.9925989909261</v>
       </c>
       <c r="N9">
-        <v>12.26784521134599</v>
+        <v>19.61666129531838</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.61498674291298</v>
+        <v>20.38324466217139</v>
       </c>
       <c r="C10">
-        <v>14.99195611770555</v>
+        <v>10.71985069438927</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.175479081475554</v>
+        <v>14.21106632605914</v>
       </c>
       <c r="F10">
-        <v>33.72314263477148</v>
+        <v>41.54118416696635</v>
       </c>
       <c r="G10">
-        <v>43.89196164231076</v>
+        <v>44.60716136394534</v>
       </c>
       <c r="H10">
-        <v>12.60722022859433</v>
+        <v>17.78880910274049</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.144489386713941</v>
+        <v>8.550182939748691</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.596594691822578</v>
+        <v>11.96617810652564</v>
       </c>
       <c r="M10">
-        <v>15.439841366574</v>
+        <v>18.13817349715354</v>
       </c>
       <c r="N10">
-        <v>11.8162994124799</v>
+        <v>19.5026825359442</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.60663330530045</v>
+        <v>20.68292625637407</v>
       </c>
       <c r="C11">
-        <v>15.45385275825666</v>
+        <v>10.91615810759772</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.172980364272856</v>
+        <v>14.20196346891249</v>
       </c>
       <c r="F11">
-        <v>34.43421645380862</v>
+        <v>41.59293621090519</v>
       </c>
       <c r="G11">
-        <v>45.12241167520875</v>
+        <v>44.78078861157718</v>
       </c>
       <c r="H11">
-        <v>12.76934525266801</v>
+        <v>17.77889257459358</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.101703968869028</v>
+        <v>8.540464602114232</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.695076058367883</v>
+        <v>11.96927392255125</v>
       </c>
       <c r="M11">
-        <v>15.86113544948454</v>
+        <v>18.20709768261296</v>
       </c>
       <c r="N11">
-        <v>11.6119461480149</v>
+        <v>19.45282033395308</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.97535246195935</v>
+        <v>20.79586503498576</v>
       </c>
       <c r="C12">
-        <v>15.62615453345307</v>
+        <v>10.98934799631337</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.172331543907694</v>
+        <v>14.19861557846341</v>
       </c>
       <c r="F12">
-        <v>34.70571752080151</v>
+        <v>41.61402015520244</v>
       </c>
       <c r="G12">
-        <v>45.59033772537363</v>
+        <v>44.84857685321476</v>
       </c>
       <c r="H12">
-        <v>12.83265076472449</v>
+        <v>17.77571379926558</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.08548126475844</v>
+        <v>8.536841241970933</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.732519899811898</v>
+        <v>11.97063852283641</v>
       </c>
       <c r="M12">
-        <v>16.01917207373576</v>
+        <v>18.23357057322382</v>
       </c>
       <c r="N12">
-        <v>11.53464409713731</v>
+        <v>19.43422281257234</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.89624205668312</v>
+        <v>20.77156761085074</v>
       </c>
       <c r="C13">
-        <v>15.58916150275633</v>
+        <v>10.97363680694024</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.17245772064943</v>
+        <v>14.19933220137573</v>
       </c>
       <c r="F13">
-        <v>34.64714627887418</v>
+        <v>41.60941337307029</v>
       </c>
       <c r="G13">
-        <v>45.48947405504963</v>
+        <v>44.83388740799795</v>
       </c>
       <c r="H13">
-        <v>12.81893060090206</v>
+        <v>17.77637275014405</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.088976383570041</v>
+        <v>8.537619078635725</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.72444923363575</v>
+        <v>11.97033610110588</v>
       </c>
       <c r="M13">
-        <v>15.98520355313404</v>
+        <v>18.22785283803598</v>
       </c>
       <c r="N13">
-        <v>11.55129000936773</v>
+        <v>19.43821550586642</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.63710339761659</v>
+        <v>20.69222933859153</v>
       </c>
       <c r="C14">
-        <v>15.46808013274164</v>
+        <v>10.92220267199649</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.172920906685507</v>
+        <v>14.20168605040592</v>
       </c>
       <c r="F14">
-        <v>34.45650851208117</v>
+        <v>41.59464105587008</v>
       </c>
       <c r="G14">
-        <v>45.16086879591305</v>
+        <v>44.78632495783927</v>
       </c>
       <c r="H14">
-        <v>12.77451470095903</v>
+        <v>17.77861949576983</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.100369857236046</v>
+        <v>8.540165370558221</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.69815364992857</v>
+        <v>11.96938234300868</v>
       </c>
       <c r="M14">
-        <v>15.87416755981246</v>
+        <v>18.20926824369361</v>
       </c>
       <c r="N14">
-        <v>11.60558524028111</v>
+        <v>19.45128461754132</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.47749286758339</v>
+        <v>20.64355819100192</v>
       </c>
       <c r="C15">
-        <v>15.39357599616997</v>
+        <v>10.89054734897404</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.173243961184372</v>
+        <v>14.20314075538761</v>
       </c>
       <c r="F15">
-        <v>34.34002681406762</v>
+        <v>41.58578592728279</v>
       </c>
       <c r="G15">
-        <v>44.95984510215676</v>
+        <v>44.75745593803585</v>
       </c>
       <c r="H15">
-        <v>12.74755983271803</v>
+        <v>17.78007079399086</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.107345345378439</v>
+        <v>8.541732429340414</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.682066040971011</v>
+        <v>11.96882314019757</v>
       </c>
       <c r="M15">
-        <v>15.80595802946096</v>
+        <v>18.19793271704242</v>
       </c>
       <c r="N15">
-        <v>11.63885114197303</v>
+        <v>19.45932679250086</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.54922136746786</v>
+        <v>20.36358973532671</v>
       </c>
       <c r="C16">
-        <v>14.96140263545213</v>
+        <v>10.70686283192521</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.17568289560109</v>
+        <v>14.21167511339477</v>
       </c>
       <c r="F16">
-        <v>33.67698744727229</v>
+        <v>41.53801052300442</v>
       </c>
       <c r="G16">
-        <v>43.81182950697315</v>
+        <v>44.59610202050762</v>
       </c>
       <c r="H16">
-        <v>12.5968887079761</v>
+        <v>17.78953775881892</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.147283751409664</v>
+        <v>8.55082601903373</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.5901807437101</v>
+        <v>11.96600276612419</v>
       </c>
       <c r="M16">
-        <v>15.412102359188</v>
+        <v>18.13372217452248</v>
       </c>
       <c r="N16">
-        <v>11.82966982027668</v>
+        <v>19.50598100424124</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.96749817738369</v>
+        <v>20.19098992768842</v>
       </c>
       <c r="C17">
-        <v>14.69158644773314</v>
+        <v>10.59217159696042</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.177687552409418</v>
+        <v>14.21708763655029</v>
       </c>
       <c r="F17">
-        <v>33.27426792321928</v>
+        <v>41.51135825588515</v>
       </c>
       <c r="G17">
-        <v>43.11116474126266</v>
+        <v>44.50079215073977</v>
       </c>
       <c r="H17">
-        <v>12.50778718021467</v>
+        <v>17.79637064752682</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.171769879820927</v>
+        <v>8.556506134777194</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.534099097849858</v>
+        <v>11.96461642982867</v>
       </c>
       <c r="M17">
-        <v>15.16788200263852</v>
+        <v>18.09501205241962</v>
       </c>
       <c r="N17">
-        <v>11.9469539053203</v>
+        <v>19.53510973616321</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.62835712496658</v>
+        <v>20.09144063975176</v>
       </c>
       <c r="C18">
-        <v>14.53465956612089</v>
+        <v>10.52547848165801</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.179021419632329</v>
+        <v>14.22026591799054</v>
       </c>
       <c r="F18">
-        <v>33.04413754660757</v>
+        <v>41.49700714230772</v>
       </c>
       <c r="G18">
-        <v>42.70951968842965</v>
+        <v>44.44733550512587</v>
       </c>
       <c r="H18">
-        <v>12.45773970546387</v>
+        <v>17.80067704094933</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.185854590288021</v>
+        <v>8.559810602834961</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.501953548810556</v>
+        <v>11.96394582589005</v>
       </c>
       <c r="M18">
-        <v>15.02647946683129</v>
+        <v>18.07300227942007</v>
       </c>
       <c r="N18">
-        <v>12.01451666535149</v>
+        <v>19.55205095965611</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.51274441643401</v>
+        <v>20.05769143167391</v>
       </c>
       <c r="C19">
-        <v>14.48122778425929</v>
+        <v>10.50277384779031</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.179503559737949</v>
+        <v>14.22135322754189</v>
       </c>
       <c r="F19">
-        <v>32.96647978842549</v>
+        <v>41.49231637566874</v>
       </c>
       <c r="G19">
-        <v>42.57376693174735</v>
+        <v>44.4294712312693</v>
       </c>
       <c r="H19">
-        <v>12.44099869919946</v>
+        <v>17.80219969419821</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.190624174416437</v>
+        <v>8.560935876293868</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.491089260742094</v>
+        <v>11.96374058344192</v>
       </c>
       <c r="M19">
-        <v>14.97844510895095</v>
+        <v>18.06559445930333</v>
       </c>
       <c r="N19">
-        <v>12.03741215416713</v>
+        <v>19.5578191572987</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.02989346563054</v>
+        <v>20.20939272861209</v>
       </c>
       <c r="C20">
-        <v>14.7204882550843</v>
+        <v>10.60445605937312</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.17745530591773</v>
+        <v>14.21650472473435</v>
       </c>
       <c r="F20">
-        <v>33.31698304307945</v>
+        <v>41.51409420701044</v>
       </c>
       <c r="G20">
-        <v>43.18561197108242</v>
+        <v>44.51079724552059</v>
       </c>
       <c r="H20">
-        <v>12.51714734706082</v>
+        <v>17.79560431854848</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.169163332430081</v>
+        <v>8.555897607011918</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.540057714190171</v>
+        <v>11.96475089550878</v>
       </c>
       <c r="M20">
-        <v>15.19397684683769</v>
+        <v>18.09910650384186</v>
       </c>
       <c r="N20">
-        <v>11.93445853097686</v>
+        <v>19.53198957517583</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.71340195295166</v>
+        <v>20.7155485643436</v>
       </c>
       <c r="C21">
-        <v>15.50371507804186</v>
+        <v>10.93734153219668</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.172776621589763</v>
+        <v>14.20099197918204</v>
       </c>
       <c r="F21">
-        <v>34.51244319635592</v>
+        <v>41.59893976697744</v>
       </c>
       <c r="G21">
-        <v>45.2573347305613</v>
+        <v>44.80024018681208</v>
       </c>
       <c r="H21">
-        <v>12.78750825914888</v>
+        <v>17.77794391883516</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.097024053695866</v>
+        <v>8.539415925256987</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.70587332807869</v>
+        <v>11.96965727696343</v>
       </c>
       <c r="M21">
-        <v>15.90682262262124</v>
+        <v>18.21471699973918</v>
       </c>
       <c r="N21">
-        <v>11.5896357765535</v>
+        <v>19.44743820158504</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.77413602115958</v>
+        <v>21.04313028397724</v>
       </c>
       <c r="C22">
-        <v>16.00042355557684</v>
+        <v>11.14819921417279</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.17146300521358</v>
+        <v>14.19143135877901</v>
       </c>
       <c r="F22">
-        <v>35.30675214785914</v>
+        <v>41.66305143851839</v>
       </c>
       <c r="G22">
-        <v>46.62288403202957</v>
+        <v>45.00127382731684</v>
       </c>
       <c r="H22">
-        <v>12.97538524831824</v>
+        <v>17.76976199550228</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.049744709904649</v>
+        <v>8.528974885659437</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.815117474135083</v>
+        <v>11.97398400387989</v>
       </c>
       <c r="M22">
-        <v>16.36395871541896</v>
+        <v>18.29244043258088</v>
       </c>
       <c r="N22">
-        <v>11.36471538782221</v>
+        <v>19.39383488107066</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.21156973726357</v>
+        <v>20.86862472436809</v>
       </c>
       <c r="C23">
-        <v>15.73669284688733</v>
+        <v>11.03628458576925</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.171997516050959</v>
+        <v>14.19648127450228</v>
       </c>
       <c r="F23">
-        <v>34.8816372332756</v>
+        <v>41.62804434990514</v>
       </c>
       <c r="G23">
-        <v>45.89301847745815</v>
+        <v>44.89290664656123</v>
       </c>
       <c r="H23">
-        <v>12.87406495876767</v>
+        <v>17.77382098586414</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.07499791673804</v>
+        <v>8.534517326910075</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.756737036431244</v>
+        <v>11.97157269828211</v>
       </c>
       <c r="M23">
-        <v>16.12079417857609</v>
+        <v>18.25076517408004</v>
       </c>
       <c r="N23">
-        <v>11.48474410915878</v>
+        <v>19.42229298106448</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.0016992076848</v>
+        <v>20.20107380817928</v>
       </c>
       <c r="C24">
-        <v>14.70742737586026</v>
+        <v>10.59890460479802</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.177559741064321</v>
+        <v>14.21676805187549</v>
       </c>
       <c r="F24">
-        <v>33.29766717660332</v>
+        <v>41.51285425629126</v>
       </c>
       <c r="G24">
-        <v>43.1519507061046</v>
+        <v>44.50626977050347</v>
       </c>
       <c r="H24">
-        <v>12.51291195116054</v>
+        <v>17.79594959822932</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.170341728239447</v>
+        <v>8.556172601213339</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.537363521717904</v>
+        <v>11.96468970970342</v>
       </c>
       <c r="M24">
-        <v>15.18218246778552</v>
+        <v>18.09725463738949</v>
       </c>
       <c r="N24">
-        <v>11.94010726533533</v>
+        <v>19.53339959321756</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.44362043384552</v>
+        <v>19.47103788255981</v>
       </c>
       <c r="C25">
-        <v>13.53081558682901</v>
+        <v>10.09955343400446</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.190415797005167</v>
+        <v>14.24114250028961</v>
       </c>
       <c r="F25">
-        <v>31.64701106923362</v>
+        <v>41.42603040052028</v>
       </c>
       <c r="G25">
-        <v>40.24818523367951</v>
+        <v>44.14144797275272</v>
       </c>
       <c r="H25">
-        <v>12.16899701088737</v>
+        <v>17.83419739268023</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.273286450257589</v>
+        <v>8.580963354994177</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.305066047822935</v>
+        <v>11.96211679866416</v>
       </c>
       <c r="M25">
-        <v>14.13452096989092</v>
+        <v>17.94148534876785</v>
       </c>
       <c r="N25">
-        <v>12.4355003536572</v>
+        <v>19.66040780415173</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.92936301834544</v>
+        <v>21.45024218141854</v>
       </c>
       <c r="C2">
-        <v>9.709649466661444</v>
+        <v>12.60663465316662</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.26124745456813</v>
+        <v>8.20518123079631</v>
       </c>
       <c r="F2">
-        <v>41.39444317716538</v>
+        <v>30.48440012032736</v>
       </c>
       <c r="G2">
-        <v>43.91884683643406</v>
+        <v>38.16193541807402</v>
       </c>
       <c r="H2">
-        <v>17.87465813732225</v>
+        <v>11.95233417323875</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.600465382580136</v>
+        <v>5.349839240046003</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.96443484153292</v>
+        <v>7.138421499011987</v>
       </c>
       <c r="M2">
-        <v>17.83574612474532</v>
+        <v>13.33638792023889</v>
       </c>
       <c r="N2">
-        <v>19.76015907096733</v>
+        <v>12.80624443569795</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.56208342824914</v>
+        <v>20.08536059565084</v>
       </c>
       <c r="C3">
-        <v>9.432431618139123</v>
+        <v>11.94436481212572</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.27622673567548</v>
+        <v>8.218242986227306</v>
       </c>
       <c r="F3">
-        <v>41.39324048626407</v>
+        <v>29.73129327393587</v>
       </c>
       <c r="G3">
-        <v>43.79710664978436</v>
+        <v>36.78520572514619</v>
       </c>
       <c r="H3">
-        <v>17.90971066231206</v>
+        <v>11.82688704751215</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.614469591159947</v>
+        <v>5.402483431171462</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.9686521415233</v>
+        <v>7.028597218625142</v>
       </c>
       <c r="M3">
-        <v>17.76990986527475</v>
+        <v>12.78134756990074</v>
       </c>
       <c r="N3">
-        <v>19.83168938530356</v>
+        <v>13.06228938190529</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.33733033833679</v>
+        <v>19.20912336364205</v>
       </c>
       <c r="C4">
-        <v>9.256165393219852</v>
+        <v>11.52022435215806</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.28609451732298</v>
+        <v>8.227698049592888</v>
       </c>
       <c r="F4">
-        <v>41.40246550159398</v>
+        <v>29.28672594692083</v>
       </c>
       <c r="G4">
-        <v>43.73681764149649</v>
+        <v>35.96019608359646</v>
       </c>
       <c r="H4">
-        <v>17.93498256492472</v>
+        <v>11.75991068443308</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.623459458760083</v>
+        <v>5.435270573561998</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.97255280133958</v>
+        <v>6.962828816620589</v>
       </c>
       <c r="M4">
-        <v>17.73243345929271</v>
+        <v>12.43466866686795</v>
       </c>
       <c r="N4">
-        <v>19.87755912301386</v>
+        <v>13.22217920794619</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.24606375424175</v>
+        <v>18.84260037917488</v>
       </c>
       <c r="C5">
-        <v>9.182871451096965</v>
+        <v>11.34303900114617</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.29028468375047</v>
+        <v>8.231902275334505</v>
       </c>
       <c r="F5">
-        <v>41.40872902756708</v>
+        <v>29.11014949414594</v>
       </c>
       <c r="G5">
-        <v>43.71589653487556</v>
+        <v>35.6294329852647</v>
       </c>
       <c r="H5">
-        <v>17.94622161074774</v>
+        <v>11.73506653921315</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.627221664510166</v>
+        <v>5.448759949696195</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.97447297652903</v>
+        <v>6.936465956556656</v>
       </c>
       <c r="M5">
-        <v>17.71791352742526</v>
+        <v>12.29210717284603</v>
       </c>
       <c r="N5">
-        <v>19.89674339327121</v>
+        <v>13.28805195923574</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.23093233994416</v>
+        <v>18.78117448077796</v>
       </c>
       <c r="C6">
-        <v>9.170614422421247</v>
+        <v>11.31335718826667</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.29099067392344</v>
+        <v>8.232621330176753</v>
       </c>
       <c r="F6">
-        <v>41.40992026991112</v>
+        <v>29.08110902173079</v>
       </c>
       <c r="G6">
-        <v>43.71264310828933</v>
+        <v>35.57484808625885</v>
       </c>
       <c r="H6">
-        <v>17.94814458098505</v>
+        <v>11.73108677228836</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.627852352158087</v>
+        <v>5.451007933148613</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.97481181444189</v>
+        <v>6.932115467088569</v>
       </c>
       <c r="M6">
-        <v>17.71554822545153</v>
+        <v>12.26836330523889</v>
       </c>
       <c r="N6">
-        <v>19.89995869037379</v>
+        <v>13.29903455811205</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.33609800598063</v>
+        <v>19.20421831893958</v>
       </c>
       <c r="C7">
-        <v>9.255182772706327</v>
+        <v>11.5178522690625</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.28615034271887</v>
+        <v>8.227753339334509</v>
       </c>
       <c r="F7">
-        <v>41.40253983673696</v>
+        <v>29.28432586931057</v>
       </c>
       <c r="G7">
-        <v>43.73652071405942</v>
+        <v>35.9557128481422</v>
       </c>
       <c r="H7">
-        <v>17.93513033365203</v>
+        <v>11.75956581598698</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.623509796801823</v>
+        <v>5.435451961258372</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.97257735764698</v>
+        <v>6.962471477304684</v>
       </c>
       <c r="M7">
-        <v>17.73223457980454</v>
+        <v>12.43275097197483</v>
       </c>
       <c r="N7">
-        <v>19.87781585458871</v>
+        <v>13.22306463522805</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.8026459466108</v>
+        <v>20.98763415164625</v>
       </c>
       <c r="C8">
-        <v>9.615354440597894</v>
+        <v>12.38194450325612</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.26627338637854</v>
+        <v>8.209380979206189</v>
       </c>
       <c r="F8">
-        <v>41.39196031541735</v>
+        <v>30.22108838903164</v>
       </c>
       <c r="G8">
-        <v>43.87387776853655</v>
+        <v>37.68321610582241</v>
       </c>
       <c r="H8">
-        <v>17.88596470483948</v>
+        <v>11.90694894196047</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.605213066939706</v>
+        <v>5.367902157062019</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.96561738255822</v>
+        <v>7.100220670180719</v>
       </c>
       <c r="M8">
-        <v>17.81244082637528</v>
+        <v>13.14633829752213</v>
       </c>
       <c r="N8">
-        <v>19.78441905024165</v>
+        <v>12.89399991220451</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.71790525000395</v>
+        <v>24.32905788673511</v>
       </c>
       <c r="C9">
-        <v>10.27132211942406</v>
+        <v>13.93612489496671</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.23259769222015</v>
+        <v>8.185225397671703</v>
       </c>
       <c r="F9">
-        <v>41.45026080869763</v>
+        <v>32.19507287913871</v>
       </c>
       <c r="G9">
-        <v>44.25725635461558</v>
+        <v>41.21881525939436</v>
       </c>
       <c r="H9">
-        <v>17.81939814773088</v>
+        <v>12.27898343803229</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.572419712088303</v>
+        <v>5.238533825128353</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.9623317191541</v>
+        <v>7.382680590800455</v>
       </c>
       <c r="M9">
-        <v>17.9925989909261</v>
+        <v>14.49186419716685</v>
       </c>
       <c r="N9">
-        <v>19.61666129531838</v>
+        <v>12.26784521134602</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.38324466217139</v>
+        <v>26.61498674291295</v>
       </c>
       <c r="C10">
-        <v>10.71985069438927</v>
+        <v>14.99195611770563</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.21106632605914</v>
+        <v>8.175479081475617</v>
       </c>
       <c r="F10">
-        <v>41.54118416696635</v>
+        <v>33.72314263477143</v>
       </c>
       <c r="G10">
-        <v>44.60716136394534</v>
+        <v>43.89196164231069</v>
       </c>
       <c r="H10">
-        <v>17.78880910274049</v>
+        <v>12.60722022859435</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.550182939748691</v>
+        <v>5.144489386713976</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.96617810652564</v>
+        <v>7.596594691822542</v>
       </c>
       <c r="M10">
-        <v>18.13817349715354</v>
+        <v>15.43984136657399</v>
       </c>
       <c r="N10">
-        <v>19.5026825359442</v>
+        <v>11.8162994124799</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.68292625637407</v>
+        <v>27.60663330530047</v>
       </c>
       <c r="C11">
-        <v>10.91615810759772</v>
+        <v>15.45385275825666</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.20196346891249</v>
+        <v>8.172980364272725</v>
       </c>
       <c r="F11">
-        <v>41.59293621090519</v>
+        <v>34.43421645380857</v>
       </c>
       <c r="G11">
-        <v>44.78078861157718</v>
+        <v>45.12241167520875</v>
       </c>
       <c r="H11">
-        <v>17.77889257459358</v>
+        <v>12.76934525266795</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.540464602114232</v>
+        <v>5.101703968868962</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.96927392255125</v>
+        <v>7.695076058367826</v>
       </c>
       <c r="M11">
-        <v>18.20709768261296</v>
+        <v>15.86113544948452</v>
       </c>
       <c r="N11">
-        <v>19.45282033395308</v>
+        <v>11.61194614801483</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.79586503498576</v>
+        <v>27.97535246195929</v>
       </c>
       <c r="C12">
-        <v>10.98934799631337</v>
+        <v>15.62615453345314</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.19861557846341</v>
+        <v>8.172331543907633</v>
       </c>
       <c r="F12">
-        <v>41.61402015520244</v>
+        <v>34.70571752080161</v>
       </c>
       <c r="G12">
-        <v>44.84857685321476</v>
+        <v>45.59033772537367</v>
       </c>
       <c r="H12">
-        <v>17.77571379926558</v>
+        <v>12.83265076472455</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.536841241970933</v>
+        <v>5.085481264758337</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.97063852283641</v>
+        <v>7.732519899811872</v>
       </c>
       <c r="M12">
-        <v>18.23357057322382</v>
+        <v>16.01917207373577</v>
       </c>
       <c r="N12">
-        <v>19.43422281257234</v>
+        <v>11.53464409713741</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.77156761085074</v>
+        <v>27.89624205668306</v>
       </c>
       <c r="C13">
-        <v>10.97363680694024</v>
+        <v>15.58916150275639</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.19933220137573</v>
+        <v>8.172457720649495</v>
       </c>
       <c r="F13">
-        <v>41.60941337307029</v>
+        <v>34.64714627887427</v>
       </c>
       <c r="G13">
-        <v>44.83388740799795</v>
+        <v>45.48947405504965</v>
       </c>
       <c r="H13">
-        <v>17.77637275014405</v>
+        <v>12.81893060090215</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.537619078635725</v>
+        <v>5.088976383570142</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.97033610110588</v>
+        <v>7.724449233635846</v>
       </c>
       <c r="M13">
-        <v>18.22785283803598</v>
+        <v>15.98520355313409</v>
       </c>
       <c r="N13">
-        <v>19.43821550586642</v>
+        <v>11.5512900093678</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.69222933859153</v>
+        <v>27.63710339761656</v>
       </c>
       <c r="C14">
-        <v>10.92220267199649</v>
+        <v>15.46808013274172</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.20168605040592</v>
+        <v>8.172920906685505</v>
       </c>
       <c r="F14">
-        <v>41.59464105587008</v>
+        <v>34.4565085120812</v>
       </c>
       <c r="G14">
-        <v>44.78632495783927</v>
+        <v>45.16086879591305</v>
       </c>
       <c r="H14">
-        <v>17.77861949576983</v>
+        <v>12.77451470095903</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.540165370558221</v>
+        <v>5.10036985723608</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.96938234300868</v>
+        <v>7.698153649928555</v>
       </c>
       <c r="M14">
-        <v>18.20926824369361</v>
+        <v>15.87416755981246</v>
       </c>
       <c r="N14">
-        <v>19.45128461754132</v>
+        <v>11.60558524028114</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.64355819100192</v>
+        <v>27.47749286758347</v>
       </c>
       <c r="C15">
-        <v>10.89054734897404</v>
+        <v>15.39357599616981</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.20314075538761</v>
+        <v>8.173243961184049</v>
       </c>
       <c r="F15">
-        <v>41.58578592728279</v>
+        <v>34.34002681406754</v>
       </c>
       <c r="G15">
-        <v>44.75745593803585</v>
+        <v>44.95984510215684</v>
       </c>
       <c r="H15">
-        <v>17.78007079399086</v>
+        <v>12.74755983271803</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.541732429340414</v>
+        <v>5.107345345378372</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.96882314019757</v>
+        <v>7.682066040970936</v>
       </c>
       <c r="M15">
-        <v>18.19793271704242</v>
+        <v>15.80595802946092</v>
       </c>
       <c r="N15">
-        <v>19.45932679250086</v>
+        <v>11.6388511419729</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.36358973532671</v>
+        <v>26.54922136746782</v>
       </c>
       <c r="C16">
-        <v>10.70686283192521</v>
+        <v>14.96140263545216</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.21167511339477</v>
+        <v>8.17568289560109</v>
       </c>
       <c r="F16">
-        <v>41.53801052300442</v>
+        <v>33.6769874472723</v>
       </c>
       <c r="G16">
-        <v>44.59610202050762</v>
+        <v>43.81182950697315</v>
       </c>
       <c r="H16">
-        <v>17.78953775881892</v>
+        <v>12.59688870797608</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.55082601903373</v>
+        <v>5.147283751409629</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.96600276612419</v>
+        <v>7.590180743710087</v>
       </c>
       <c r="M16">
-        <v>18.13372217452248</v>
+        <v>15.41210235918801</v>
       </c>
       <c r="N16">
-        <v>19.50598100424124</v>
+        <v>11.82966982027668</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.19098992768842</v>
+        <v>25.9674981773837</v>
       </c>
       <c r="C17">
-        <v>10.59217159696042</v>
+        <v>14.69158644773308</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.21708763655029</v>
+        <v>8.177687552409415</v>
       </c>
       <c r="F17">
-        <v>41.51135825588515</v>
+        <v>33.27426792321925</v>
       </c>
       <c r="G17">
-        <v>44.50079215073977</v>
+        <v>43.11116474126268</v>
       </c>
       <c r="H17">
-        <v>17.79637064752682</v>
+        <v>12.50778718021463</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.556506134777194</v>
+        <v>5.171769879820927</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.96461642982867</v>
+        <v>7.534099097849949</v>
       </c>
       <c r="M17">
-        <v>18.09501205241962</v>
+        <v>15.16788200263852</v>
       </c>
       <c r="N17">
-        <v>19.53510973616321</v>
+        <v>11.94695390532026</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.09144063975176</v>
+        <v>25.62835712496656</v>
       </c>
       <c r="C18">
-        <v>10.52547848165801</v>
+        <v>14.53465956612109</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.22026591799054</v>
+        <v>8.179021419632393</v>
       </c>
       <c r="F18">
-        <v>41.49700714230772</v>
+        <v>33.04413754660745</v>
       </c>
       <c r="G18">
-        <v>44.44733550512587</v>
+        <v>42.70951968842949</v>
       </c>
       <c r="H18">
-        <v>17.80067704094933</v>
+        <v>12.45773970546379</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.559810602834961</v>
+        <v>5.185854590287987</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.96394582589005</v>
+        <v>7.501953548810563</v>
       </c>
       <c r="M18">
-        <v>18.07300227942007</v>
+        <v>15.02647946683126</v>
       </c>
       <c r="N18">
-        <v>19.55205095965611</v>
+        <v>12.01451666535145</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.05769143167391</v>
+        <v>25.51274441643404</v>
       </c>
       <c r="C19">
-        <v>10.50277384779031</v>
+        <v>14.48122778425913</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.22135322754189</v>
+        <v>8.179503559738011</v>
       </c>
       <c r="F19">
-        <v>41.49231637566874</v>
+        <v>32.96647978842548</v>
       </c>
       <c r="G19">
-        <v>44.4294712312693</v>
+        <v>42.5737669317473</v>
       </c>
       <c r="H19">
-        <v>17.80219969419821</v>
+        <v>12.44099869919942</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.560935876293868</v>
+        <v>5.190624174416303</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.96374058344192</v>
+        <v>7.491089260742112</v>
       </c>
       <c r="M19">
-        <v>18.06559445930333</v>
+        <v>14.97844510895093</v>
       </c>
       <c r="N19">
-        <v>19.5578191572987</v>
+        <v>12.0374121541671</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.20939272861209</v>
+        <v>26.02989346563047</v>
       </c>
       <c r="C20">
-        <v>10.60445605937312</v>
+        <v>14.7204882550844</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.21650472473435</v>
+        <v>8.177455305917727</v>
       </c>
       <c r="F20">
-        <v>41.51409420701044</v>
+        <v>33.31698304307946</v>
       </c>
       <c r="G20">
-        <v>44.51079724552059</v>
+        <v>43.18561197108238</v>
       </c>
       <c r="H20">
-        <v>17.79560431854848</v>
+        <v>12.51714734706088</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.555897607011918</v>
+        <v>5.169163332430183</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.96475089550878</v>
+        <v>7.540057714190132</v>
       </c>
       <c r="M20">
-        <v>18.09910650384186</v>
+        <v>15.19397684683769</v>
       </c>
       <c r="N20">
-        <v>19.53198957517583</v>
+        <v>11.93445853097696</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.7155485643436</v>
+        <v>27.7134019529516</v>
       </c>
       <c r="C21">
-        <v>10.93734153219668</v>
+        <v>15.50371507804194</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.20099197918204</v>
+        <v>8.172776621589763</v>
       </c>
       <c r="F21">
-        <v>41.59893976697744</v>
+        <v>34.51244319635593</v>
       </c>
       <c r="G21">
-        <v>44.80024018681208</v>
+        <v>45.25733473056133</v>
       </c>
       <c r="H21">
-        <v>17.77794391883516</v>
+        <v>12.78750825914894</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.539415925256987</v>
+        <v>5.097024053695998</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.96965727696343</v>
+        <v>7.705873328078663</v>
       </c>
       <c r="M21">
-        <v>18.21471699973918</v>
+        <v>15.90682262262123</v>
       </c>
       <c r="N21">
-        <v>19.44743820158504</v>
+        <v>11.58963577655356</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.04313028397724</v>
+        <v>28.77413602115965</v>
       </c>
       <c r="C22">
-        <v>11.14819921417279</v>
+        <v>16.00042355557684</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.19143135877901</v>
+        <v>8.171463005213514</v>
       </c>
       <c r="F22">
-        <v>41.66305143851839</v>
+        <v>35.30675214785916</v>
       </c>
       <c r="G22">
-        <v>45.00127382731684</v>
+        <v>46.62288403202963</v>
       </c>
       <c r="H22">
-        <v>17.76976199550228</v>
+        <v>12.97538524831824</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.528974885659437</v>
+        <v>5.049744709904615</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.97398400387989</v>
+        <v>7.815117474135025</v>
       </c>
       <c r="M22">
-        <v>18.29244043258088</v>
+        <v>16.36395871541893</v>
       </c>
       <c r="N22">
-        <v>19.39383488107066</v>
+        <v>11.36471538782224</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.86862472436809</v>
+        <v>28.21156973726356</v>
       </c>
       <c r="C23">
-        <v>11.03628458576925</v>
+        <v>15.73669284688722</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.19648127450228</v>
+        <v>8.171997516050899</v>
       </c>
       <c r="F23">
-        <v>41.62804434990514</v>
+        <v>34.88163723327568</v>
       </c>
       <c r="G23">
-        <v>44.89290664656123</v>
+        <v>45.89301847745825</v>
       </c>
       <c r="H23">
-        <v>17.77382098586414</v>
+        <v>12.87406495876778</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.534517326910075</v>
+        <v>5.074997916738103</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.97157269828211</v>
+        <v>7.75673703643123</v>
       </c>
       <c r="M23">
-        <v>18.25076517408004</v>
+        <v>16.1207941785761</v>
       </c>
       <c r="N23">
-        <v>19.42229298106448</v>
+        <v>11.48474410915888</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.20107380817928</v>
+        <v>26.00169920768479</v>
       </c>
       <c r="C24">
-        <v>10.59890460479802</v>
+        <v>14.70742737586018</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.21676805187549</v>
+        <v>8.177559741064321</v>
       </c>
       <c r="F24">
-        <v>41.51285425629126</v>
+        <v>33.29766717660336</v>
       </c>
       <c r="G24">
-        <v>44.50626977050347</v>
+        <v>43.15195070610466</v>
       </c>
       <c r="H24">
-        <v>17.79594959822932</v>
+        <v>12.5129119511606</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.556172601213339</v>
+        <v>5.170341728239446</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.96468970970342</v>
+        <v>7.537363521717899</v>
       </c>
       <c r="M24">
-        <v>18.09725463738949</v>
+        <v>15.18218246778552</v>
       </c>
       <c r="N24">
-        <v>19.53339959321756</v>
+        <v>11.94010726533536</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.47103788255981</v>
+        <v>23.44362043384544</v>
       </c>
       <c r="C25">
-        <v>10.09955343400446</v>
+        <v>13.53081558682902</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.24114250028961</v>
+        <v>8.19041579700504</v>
       </c>
       <c r="F25">
-        <v>41.42603040052028</v>
+        <v>31.64701106923377</v>
       </c>
       <c r="G25">
-        <v>44.14144797275272</v>
+        <v>40.24818523367965</v>
       </c>
       <c r="H25">
-        <v>17.83419739268023</v>
+        <v>12.16899701088747</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.580963354994177</v>
+        <v>5.273286450257523</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.96211679866416</v>
+        <v>7.305066047822908</v>
       </c>
       <c r="M25">
-        <v>17.94148534876785</v>
+        <v>14.13452096989093</v>
       </c>
       <c r="N25">
-        <v>19.66040780415173</v>
+        <v>12.43550035365726</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.45024218141854</v>
+        <v>17.83655428958068</v>
       </c>
       <c r="C2">
-        <v>12.60663465316662</v>
+        <v>12.16756784486355</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.20518123079631</v>
+        <v>10.74928964385762</v>
       </c>
       <c r="F2">
-        <v>30.48440012032736</v>
+        <v>24.81783020405328</v>
       </c>
       <c r="G2">
-        <v>38.16193541807402</v>
+        <v>20.67267724748221</v>
       </c>
       <c r="H2">
-        <v>11.95233417323875</v>
+        <v>2.186276741227187</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.518663295655663</v>
       </c>
       <c r="J2">
-        <v>5.349839240046003</v>
+        <v>8.411860067630217</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.91974279655021</v>
       </c>
       <c r="L2">
-        <v>7.138421499011987</v>
+        <v>5.590690913033526</v>
       </c>
       <c r="M2">
-        <v>13.33638792023889</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.80624443569795</v>
+        <v>8.424874887987773</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.63562693744139</v>
+      </c>
+      <c r="P2">
+        <v>12.7228615651371</v>
+      </c>
+      <c r="Q2">
+        <v>13.56064095173154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.08536059565084</v>
+        <v>16.66365350309959</v>
       </c>
       <c r="C3">
-        <v>11.94436481212572</v>
+        <v>11.84868279400225</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.218242986227306</v>
+        <v>10.66347593905512</v>
       </c>
       <c r="F3">
-        <v>29.73129327393587</v>
+        <v>24.30522988618796</v>
       </c>
       <c r="G3">
-        <v>36.78520572514619</v>
+        <v>20.1606390428223</v>
       </c>
       <c r="H3">
-        <v>11.82688704751215</v>
+        <v>2.372168109637337</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.651632033423406</v>
       </c>
       <c r="J3">
-        <v>5.402483431171462</v>
+        <v>8.41192997002344</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.99571745901385</v>
       </c>
       <c r="L3">
-        <v>7.028597218625142</v>
+        <v>5.481753567925205</v>
       </c>
       <c r="M3">
-        <v>12.78134756990074</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.06228938190529</v>
+        <v>8.208409874063475</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.05861033726975</v>
+      </c>
+      <c r="P3">
+        <v>12.78049057731799</v>
+      </c>
+      <c r="Q3">
+        <v>13.45503308756455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.20912336364205</v>
+        <v>15.89690594802854</v>
       </c>
       <c r="C4">
-        <v>11.52022435215806</v>
+        <v>11.64866533437912</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.227698049592888</v>
+        <v>10.61035809983661</v>
       </c>
       <c r="F4">
-        <v>29.28672594692083</v>
+        <v>23.99319307142081</v>
       </c>
       <c r="G4">
-        <v>35.96019608359646</v>
+        <v>19.84994376700186</v>
       </c>
       <c r="H4">
-        <v>11.75991068443308</v>
+        <v>2.49066356813658</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.737286214599064</v>
       </c>
       <c r="J4">
-        <v>5.435270573561998</v>
+        <v>8.414730251281156</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.04650230499661</v>
       </c>
       <c r="L4">
-        <v>6.962828816620589</v>
+        <v>5.412931694004492</v>
       </c>
       <c r="M4">
-        <v>12.43466866686795</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.22217920794619</v>
+        <v>8.073651719032506</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.69019753661665</v>
+      </c>
+      <c r="P4">
+        <v>12.81841412828232</v>
+      </c>
+      <c r="Q4">
+        <v>13.39532894444465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.84260037917488</v>
+        <v>15.56821424698723</v>
       </c>
       <c r="C5">
-        <v>11.34303900114617</v>
+        <v>11.57029775876697</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.231902275334505</v>
+        <v>10.58793701937961</v>
       </c>
       <c r="F5">
-        <v>29.11014949414594</v>
+        <v>23.86157145001013</v>
       </c>
       <c r="G5">
-        <v>35.6294329852647</v>
+        <v>19.71446425995772</v>
       </c>
       <c r="H5">
-        <v>11.73506653921315</v>
+        <v>2.540305804261101</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.776185619747198</v>
       </c>
       <c r="J5">
-        <v>5.448759949696195</v>
+        <v>8.415032556358955</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.06456954670755</v>
       </c>
       <c r="L5">
-        <v>6.936465956556656</v>
+        <v>5.384916011963734</v>
       </c>
       <c r="M5">
-        <v>12.29210717284603</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.28805195923574</v>
+        <v>8.019725853805289</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.53621226269088</v>
+      </c>
+      <c r="P5">
+        <v>12.83520230306344</v>
+      </c>
+      <c r="Q5">
+        <v>13.36833229438489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.78117448077796</v>
+        <v>15.50744682557103</v>
       </c>
       <c r="C6">
-        <v>11.31335718826667</v>
+        <v>11.56231817087242</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.232621330176753</v>
+        <v>10.58338818389312</v>
       </c>
       <c r="F6">
-        <v>29.08110902173079</v>
+        <v>23.83330218623067</v>
       </c>
       <c r="G6">
-        <v>35.57484808625885</v>
+        <v>19.67986797339793</v>
       </c>
       <c r="H6">
-        <v>11.73108677228836</v>
+        <v>2.548916710005404</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.786554716964764</v>
       </c>
       <c r="J6">
-        <v>5.451007933148613</v>
+        <v>8.413267026023101</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.06318068251716</v>
       </c>
       <c r="L6">
-        <v>6.932115467088569</v>
+        <v>5.380855973626838</v>
       </c>
       <c r="M6">
-        <v>12.26836330523889</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.29903455811205</v>
+        <v>8.012458283192867</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.50987063465431</v>
+      </c>
+      <c r="P6">
+        <v>12.83889780267511</v>
+      </c>
+      <c r="Q6">
+        <v>13.35909889079317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.20421831893958</v>
+        <v>15.87792499326758</v>
       </c>
       <c r="C7">
-        <v>11.5178522690625</v>
+        <v>11.66146030025086</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.227753339334509</v>
+        <v>10.60783889310916</v>
       </c>
       <c r="F7">
-        <v>29.28432586931057</v>
+        <v>23.97388651592185</v>
       </c>
       <c r="G7">
-        <v>35.9557128481422</v>
+        <v>19.8151441537403</v>
       </c>
       <c r="H7">
-        <v>11.75956581598698</v>
+        <v>2.492133818724059</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.747990403650296</v>
       </c>
       <c r="J7">
-        <v>5.435451961258372</v>
+        <v>8.409670133170859</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.03459307994997</v>
       </c>
       <c r="L7">
-        <v>6.962471477304684</v>
+        <v>5.414255170426536</v>
       </c>
       <c r="M7">
-        <v>12.43275097197483</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.22306463522805</v>
+        <v>8.077556331912527</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.68658919259467</v>
+      </c>
+      <c r="P7">
+        <v>12.82107534276499</v>
+      </c>
+      <c r="Q7">
+        <v>13.38181618317942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.98763415164625</v>
+        <v>17.42397373342675</v>
       </c>
       <c r="C8">
-        <v>12.38194450325612</v>
+        <v>12.07655308100911</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.209380979206189</v>
+        <v>10.71694915646347</v>
       </c>
       <c r="F8">
-        <v>30.22108838903164</v>
+        <v>24.61806391813706</v>
       </c>
       <c r="G8">
-        <v>37.68321610582241</v>
+        <v>20.45315228937422</v>
       </c>
       <c r="H8">
-        <v>11.90694894196047</v>
+        <v>2.250473173518913</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.576791919132479</v>
       </c>
       <c r="J8">
-        <v>5.367902157062019</v>
+        <v>8.40464655080188</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.92901376987034</v>
       </c>
       <c r="L8">
-        <v>7.100220670180719</v>
+        <v>5.555800333571808</v>
       </c>
       <c r="M8">
-        <v>13.14633829752213</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.89399991220451</v>
+        <v>8.356605278708045</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.43774253378482</v>
+      </c>
+      <c r="P8">
+        <v>12.74568585156857</v>
+      </c>
+      <c r="Q8">
+        <v>13.50597747672645</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.32905788673511</v>
+        <v>20.11133651930972</v>
       </c>
       <c r="C9">
-        <v>13.93612489496671</v>
+        <v>12.83086699969556</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.185225397671703</v>
+        <v>10.93120551517874</v>
       </c>
       <c r="F9">
-        <v>32.19507287913871</v>
+        <v>25.92674803774286</v>
       </c>
       <c r="G9">
-        <v>41.21881525939436</v>
+        <v>21.78379030400233</v>
       </c>
       <c r="H9">
-        <v>12.27898343803229</v>
+        <v>1.809266557166461</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.693711660209158</v>
       </c>
       <c r="J9">
-        <v>5.238533825128353</v>
+        <v>8.426321479994082</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.77780314106034</v>
       </c>
       <c r="L9">
-        <v>7.382680590800455</v>
+        <v>5.814546766989529</v>
       </c>
       <c r="M9">
-        <v>14.49186419716685</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>12.26784521134602</v>
+        <v>8.878829534931846</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.79523570828773</v>
+      </c>
+      <c r="P9">
+        <v>12.61373404900376</v>
+      </c>
+      <c r="Q9">
+        <v>13.81385061290558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.61498674291295</v>
+        <v>21.82882990266782</v>
       </c>
       <c r="C10">
-        <v>14.99195611770563</v>
+        <v>13.4022684790019</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.175479081475617</v>
+        <v>11.01359031231516</v>
       </c>
       <c r="F10">
-        <v>33.72314263477143</v>
+        <v>26.72584941445136</v>
       </c>
       <c r="G10">
-        <v>43.89196164231069</v>
+        <v>22.62965110529298</v>
       </c>
       <c r="H10">
-        <v>12.60722022859435</v>
+        <v>1.611235478409154</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.90586060651453</v>
       </c>
       <c r="J10">
-        <v>5.144489386713976</v>
+        <v>8.433976405722117</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.63928730431592</v>
       </c>
       <c r="L10">
-        <v>7.596594691822542</v>
+        <v>6.014625100455111</v>
       </c>
       <c r="M10">
-        <v>15.43984136657399</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.8162994124799</v>
+        <v>9.168028625765089</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.64132745180334</v>
+      </c>
+      <c r="P10">
+        <v>12.54619226361985</v>
+      </c>
+      <c r="Q10">
+        <v>14.00733146993409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.60663330530047</v>
+        <v>22.29135057309482</v>
       </c>
       <c r="C11">
-        <v>15.45385275825666</v>
+        <v>13.98654181110085</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.172980364272725</v>
+        <v>10.49061696227108</v>
       </c>
       <c r="F11">
-        <v>34.43421645380857</v>
+        <v>25.71698560600181</v>
       </c>
       <c r="G11">
-        <v>45.12241167520875</v>
+        <v>21.90684529315771</v>
       </c>
       <c r="H11">
-        <v>12.76934525266795</v>
+        <v>2.635032305279418</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.972688676449706</v>
       </c>
       <c r="J11">
-        <v>5.101703968868962</v>
+        <v>8.254093091129839</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.18289180695044</v>
       </c>
       <c r="L11">
-        <v>7.695076058367826</v>
+        <v>6.285717866331993</v>
       </c>
       <c r="M11">
-        <v>15.86113544948452</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.61194614801483</v>
+        <v>8.596581427206118</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.38614353123616</v>
+      </c>
+      <c r="P11">
+        <v>12.66060892683969</v>
+      </c>
+      <c r="Q11">
+        <v>13.62725094384991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.97535246195929</v>
+        <v>22.34903879853013</v>
       </c>
       <c r="C12">
-        <v>15.62615453345314</v>
+        <v>14.35411791151308</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.172331543907633</v>
+        <v>10.12725946122579</v>
       </c>
       <c r="F12">
-        <v>34.70571752080161</v>
+        <v>24.70458249847419</v>
       </c>
       <c r="G12">
-        <v>45.59033772537367</v>
+        <v>21.14488595652146</v>
       </c>
       <c r="H12">
-        <v>12.83265076472455</v>
+        <v>4.062144848984181</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.982324161723664</v>
       </c>
       <c r="J12">
-        <v>5.085481264758337</v>
+        <v>8.10427886184458</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.84709352412745</v>
       </c>
       <c r="L12">
-        <v>7.732519899811872</v>
+        <v>6.487300691244341</v>
       </c>
       <c r="M12">
-        <v>16.01917207373577</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.53464409713741</v>
+        <v>8.060695140584187</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.98934177990089</v>
+      </c>
+      <c r="P12">
+        <v>12.778110155863</v>
+      </c>
+      <c r="Q12">
+        <v>13.2754586383499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.89624205668306</v>
+        <v>22.08451175875287</v>
       </c>
       <c r="C13">
-        <v>15.58916150275639</v>
+        <v>14.60004714581792</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.172457720649495</v>
+        <v>9.869599131902099</v>
       </c>
       <c r="F13">
-        <v>34.64714627887427</v>
+        <v>23.59009692732329</v>
       </c>
       <c r="G13">
-        <v>45.48947405504965</v>
+        <v>20.24349729643742</v>
       </c>
       <c r="H13">
-        <v>12.81893060090215</v>
+        <v>5.510253178874444</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.953199897033111</v>
       </c>
       <c r="J13">
-        <v>5.088976383570142</v>
+        <v>7.96029142153197</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.56681867285075</v>
       </c>
       <c r="L13">
-        <v>7.724449233635846</v>
+        <v>6.649946553502514</v>
       </c>
       <c r="M13">
-        <v>15.98520355313409</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.5512900093678</v>
+        <v>7.524435309898269</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.44753720503356</v>
+      </c>
+      <c r="P13">
+        <v>12.90499036354952</v>
+      </c>
+      <c r="Q13">
+        <v>12.90114023909463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.63710339761656</v>
+        <v>21.74636702361482</v>
       </c>
       <c r="C14">
-        <v>15.46808013274172</v>
+        <v>14.72365571483686</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.172920906685505</v>
+        <v>9.755029229811035</v>
       </c>
       <c r="F14">
-        <v>34.4565085120812</v>
+        <v>22.75652243885735</v>
       </c>
       <c r="G14">
-        <v>45.16086879591305</v>
+        <v>19.53435930359057</v>
       </c>
       <c r="H14">
-        <v>12.77451470095903</v>
+        <v>6.529772952898185</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.916487700744046</v>
       </c>
       <c r="J14">
-        <v>5.10036985723608</v>
+        <v>7.861218817713965</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.39616436331128</v>
       </c>
       <c r="L14">
-        <v>7.698153649928555</v>
+        <v>6.748617280811809</v>
       </c>
       <c r="M14">
-        <v>15.87416755981246</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.60558524028114</v>
+        <v>7.155379422815781</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>12.9957862246554</v>
+      </c>
+      <c r="P14">
+        <v>12.9988792261362</v>
+      </c>
+      <c r="Q14">
+        <v>12.62535582763647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.47749286758347</v>
+        <v>21.5892286057891</v>
       </c>
       <c r="C15">
-        <v>15.39357599616981</v>
+        <v>14.7322247153442</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.173243961184049</v>
+        <v>9.736637365516174</v>
       </c>
       <c r="F15">
-        <v>34.34002681406754</v>
+        <v>22.52812008036521</v>
       </c>
       <c r="G15">
-        <v>44.95984510215684</v>
+        <v>19.32200864812409</v>
       </c>
       <c r="H15">
-        <v>12.74755983271803</v>
+        <v>6.76629967091939</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.900528954583319</v>
       </c>
       <c r="J15">
-        <v>5.107345345378372</v>
+        <v>7.837254672460155</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.3631183554038</v>
       </c>
       <c r="L15">
-        <v>7.682066040970936</v>
+        <v>6.763216609421306</v>
       </c>
       <c r="M15">
-        <v>15.80595802946092</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.6388511419729</v>
+        <v>7.065141553516929</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12.85395099441919</v>
+      </c>
+      <c r="P15">
+        <v>13.02338436806976</v>
+      </c>
+      <c r="Q15">
+        <v>12.55021358301504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.54922136746782</v>
+        <v>20.91544695522285</v>
       </c>
       <c r="C16">
-        <v>14.96140263545216</v>
+        <v>14.45758512008376</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.17568289560109</v>
+        <v>9.749575130375</v>
       </c>
       <c r="F16">
-        <v>33.6769874472723</v>
+        <v>22.37264834847617</v>
       </c>
       <c r="G16">
-        <v>43.81182950697315</v>
+        <v>19.08195758866646</v>
       </c>
       <c r="H16">
-        <v>12.59688870797608</v>
+        <v>6.560366131160528</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.818166143629704</v>
       </c>
       <c r="J16">
-        <v>5.147283751409629</v>
+        <v>7.858903763309007</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.47582918005892</v>
       </c>
       <c r="L16">
-        <v>7.590180743710087</v>
+        <v>6.649196174101259</v>
       </c>
       <c r="M16">
-        <v>15.41210235918801</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.82966982027668</v>
+        <v>7.041012267236822</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.57918500798534</v>
+      </c>
+      <c r="P16">
+        <v>13.01634182158168</v>
+      </c>
+      <c r="Q16">
+        <v>12.52766304356807</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.9674981773837</v>
+        <v>20.57541957791532</v>
       </c>
       <c r="C17">
-        <v>14.69158644773308</v>
+        <v>14.17674769124113</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.177687552409415</v>
+        <v>9.810293740726078</v>
       </c>
       <c r="F17">
-        <v>33.27426792321925</v>
+        <v>22.7040145457328</v>
       </c>
       <c r="G17">
-        <v>43.11116474126268</v>
+        <v>19.2864414428719</v>
       </c>
       <c r="H17">
-        <v>12.50778718021463</v>
+        <v>5.8289014698327</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.774669452683068</v>
       </c>
       <c r="J17">
-        <v>5.171769879820927</v>
+        <v>7.928482480023219</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.65075314919567</v>
       </c>
       <c r="L17">
-        <v>7.534099097849949</v>
+        <v>6.506283841874651</v>
       </c>
       <c r="M17">
-        <v>15.16788200263852</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.94695390532026</v>
+        <v>7.217610477992428</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.6158272164193</v>
+      </c>
+      <c r="P17">
+        <v>12.96270135438596</v>
+      </c>
+      <c r="Q17">
+        <v>12.658989215109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.62835712496656</v>
+        <v>20.50498046328756</v>
       </c>
       <c r="C18">
-        <v>14.53465956612109</v>
+        <v>13.85269212693364</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.179021419632393</v>
+        <v>9.976702268571454</v>
       </c>
       <c r="F18">
-        <v>33.04413754660745</v>
+        <v>23.50217221876429</v>
       </c>
       <c r="G18">
-        <v>42.70951968842949</v>
+        <v>19.91402813022088</v>
       </c>
       <c r="H18">
-        <v>12.45773970546379</v>
+        <v>4.586749949151829</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.756930772598473</v>
       </c>
       <c r="J18">
-        <v>5.185854590287987</v>
+        <v>8.049562866201294</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.9106039046557</v>
       </c>
       <c r="L18">
-        <v>7.501953548810563</v>
+        <v>6.327519191104618</v>
       </c>
       <c r="M18">
-        <v>15.02647946683126</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12.01451666535145</v>
+        <v>7.601212630604332</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.92675120095913</v>
+      </c>
+      <c r="P18">
+        <v>12.86381761163888</v>
+      </c>
+      <c r="Q18">
+        <v>12.94397940336898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.51274441643404</v>
+        <v>20.6362731981474</v>
       </c>
       <c r="C19">
-        <v>14.48122778425913</v>
+        <v>13.55501193731269</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.179503559738011</v>
+        <v>10.29315254048191</v>
       </c>
       <c r="F19">
-        <v>32.96647978842548</v>
+        <v>24.58612477783041</v>
       </c>
       <c r="G19">
-        <v>42.5737669317473</v>
+        <v>20.77023200325337</v>
       </c>
       <c r="H19">
-        <v>12.44099869919942</v>
+        <v>3.121748401688105</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.772253691206259</v>
       </c>
       <c r="J19">
-        <v>5.190624174416303</v>
+        <v>8.193933610730381</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.20793441612878</v>
       </c>
       <c r="L19">
-        <v>7.491089260742112</v>
+        <v>6.148544787842787</v>
       </c>
       <c r="M19">
-        <v>14.97844510895093</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12.0374121541671</v>
+        <v>8.150112877827443</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.42596675270457</v>
+      </c>
+      <c r="P19">
+        <v>12.74906864957427</v>
+      </c>
+      <c r="Q19">
+        <v>13.30692181341868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.02989346563047</v>
+        <v>21.3559776695187</v>
       </c>
       <c r="C20">
-        <v>14.7204882550844</v>
+        <v>13.29614394870136</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.177455305917727</v>
+        <v>10.98267006006111</v>
       </c>
       <c r="F20">
-        <v>33.31698304307946</v>
+        <v>26.45989865284598</v>
       </c>
       <c r="G20">
-        <v>43.18561197108238</v>
+        <v>22.31056173253356</v>
       </c>
       <c r="H20">
-        <v>12.51714734706088</v>
+        <v>1.608568669275995</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.861798272082057</v>
       </c>
       <c r="J20">
-        <v>5.169163332430183</v>
+        <v>8.414680931350386</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.63469964545429</v>
       </c>
       <c r="L20">
-        <v>7.540057714190132</v>
+        <v>5.969004757250432</v>
       </c>
       <c r="M20">
-        <v>15.19397684683769</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.93445853097696</v>
+        <v>9.101968343192967</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.4168522937825</v>
+      </c>
+      <c r="P20">
+        <v>12.57308565204376</v>
+      </c>
+      <c r="Q20">
+        <v>13.91362844163239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.7134019529516</v>
+        <v>22.66077369478712</v>
       </c>
       <c r="C21">
-        <v>15.50371507804194</v>
+        <v>13.66306250048348</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.172776621589763</v>
+        <v>11.15782621458479</v>
       </c>
       <c r="F21">
-        <v>34.51244319635593</v>
+        <v>27.32494843732513</v>
       </c>
       <c r="G21">
-        <v>45.25733473056133</v>
+        <v>23.17251559334105</v>
       </c>
       <c r="H21">
-        <v>12.78750825914894</v>
+        <v>1.758050563916984</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.025150738705624</v>
       </c>
       <c r="J21">
-        <v>5.097024053695998</v>
+        <v>8.460533250342783</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.61251897033725</v>
       </c>
       <c r="L21">
-        <v>7.705873328078663</v>
+        <v>6.088197821549852</v>
       </c>
       <c r="M21">
-        <v>15.90682262262123</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.58963577655356</v>
+        <v>9.445149791146099</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.15286360635074</v>
+      </c>
+      <c r="P21">
+        <v>12.50190426380942</v>
+      </c>
+      <c r="Q21">
+        <v>14.16003104540028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.77413602115965</v>
+        <v>23.47173885355796</v>
       </c>
       <c r="C22">
-        <v>16.00042355557684</v>
+        <v>13.89975908389306</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.171463005213514</v>
+        <v>11.23764541232027</v>
       </c>
       <c r="F22">
-        <v>35.30675214785916</v>
+        <v>27.82780131895455</v>
       </c>
       <c r="G22">
-        <v>46.62288403202963</v>
+        <v>23.70710821734114</v>
       </c>
       <c r="H22">
-        <v>12.97538524831824</v>
+        <v>1.900733591918564</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.123868047883434</v>
       </c>
       <c r="J22">
-        <v>5.049744709904615</v>
+        <v>8.489309264208817</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.59596959936487</v>
       </c>
       <c r="L22">
-        <v>7.815117474135025</v>
+        <v>6.171831904157346</v>
       </c>
       <c r="M22">
-        <v>16.36395871541893</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>11.36471538782224</v>
+        <v>9.618391371406156</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>15.58274639861646</v>
+      </c>
+      <c r="P22">
+        <v>12.46120593061286</v>
+      </c>
+      <c r="Q22">
+        <v>14.31478727743268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.21156973726356</v>
+        <v>23.05493000517228</v>
       </c>
       <c r="C23">
-        <v>15.73669284688722</v>
+        <v>13.75897733522626</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.171997516050899</v>
+        <v>11.19737994502597</v>
       </c>
       <c r="F23">
-        <v>34.88163723327568</v>
+        <v>27.57755292869968</v>
       </c>
       <c r="G23">
-        <v>45.89301847745825</v>
+        <v>23.45497517677808</v>
       </c>
       <c r="H23">
-        <v>12.87406495876778</v>
+        <v>1.825588282108328</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.067151664237594</v>
       </c>
       <c r="J23">
-        <v>5.074997916738103</v>
+        <v>8.479451846832227</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.61856759522505</v>
       </c>
       <c r="L23">
-        <v>7.75673703643123</v>
+        <v>6.12538799353225</v>
       </c>
       <c r="M23">
-        <v>16.1207941785761</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.48474410915888</v>
+        <v>9.52148429803399</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.35623839029429</v>
+      </c>
+      <c r="P23">
+        <v>12.47890042170993</v>
+      </c>
+      <c r="Q23">
+        <v>14.24616376414864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.00169920768479</v>
+        <v>21.37836719694743</v>
       </c>
       <c r="C24">
-        <v>14.70742737586018</v>
+        <v>13.23882720626513</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.177559741064321</v>
+        <v>11.04048238088986</v>
       </c>
       <c r="F24">
-        <v>33.29766717660336</v>
+        <v>26.59851795806282</v>
       </c>
       <c r="G24">
-        <v>43.15195070610466</v>
+        <v>22.44747335132892</v>
       </c>
       <c r="H24">
-        <v>12.5129119511606</v>
+        <v>1.588473990471279</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.855009620491783</v>
       </c>
       <c r="J24">
-        <v>5.170341728239446</v>
+        <v>8.439139926056376</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.69181678733089</v>
       </c>
       <c r="L24">
-        <v>7.537363521717899</v>
+        <v>5.948617380082106</v>
       </c>
       <c r="M24">
-        <v>15.18218246778552</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.94010726533536</v>
+        <v>9.155379767142799</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.46474301489022</v>
+      </c>
+      <c r="P24">
+        <v>12.55736131737974</v>
+      </c>
+      <c r="Q24">
+        <v>13.97369019096041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.44362043384544</v>
+        <v>19.40147596383595</v>
       </c>
       <c r="C25">
-        <v>13.53081558682902</v>
+        <v>12.65486874838678</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.19041579700504</v>
+        <v>10.86990483833291</v>
       </c>
       <c r="F25">
-        <v>31.64701106923377</v>
+        <v>25.54240016534077</v>
       </c>
       <c r="G25">
-        <v>40.24818523367965</v>
+        <v>21.36716573475685</v>
       </c>
       <c r="H25">
-        <v>12.16899701088747</v>
+        <v>1.9263199391368</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.61873654567553</v>
       </c>
       <c r="J25">
-        <v>5.273286450257523</v>
+        <v>8.408941054290379</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.79299788116968</v>
       </c>
       <c r="L25">
-        <v>7.305066047822908</v>
+        <v>5.74938434973649</v>
       </c>
       <c r="M25">
-        <v>14.13452096989093</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>12.43550035365726</v>
+        <v>8.7474878079046</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.43889599876044</v>
+      </c>
+      <c r="P25">
+        <v>12.65233959161518</v>
+      </c>
+      <c r="Q25">
+        <v>13.70310031116121</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.83655428958068</v>
+        <v>17.66250498120549</v>
       </c>
       <c r="C2">
-        <v>12.16756784486355</v>
+        <v>12.0873514900451</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.74928964385762</v>
+        <v>10.66517569237352</v>
       </c>
       <c r="F2">
-        <v>24.81783020405328</v>
+        <v>24.48441803448002</v>
       </c>
       <c r="G2">
-        <v>20.67267724748221</v>
+        <v>19.4243543224569</v>
       </c>
       <c r="H2">
-        <v>2.186276741227187</v>
+        <v>2.149403238301795</v>
       </c>
       <c r="I2">
-        <v>2.518663295655663</v>
+        <v>2.486026442393535</v>
       </c>
       <c r="J2">
-        <v>8.411860067630217</v>
+        <v>8.84312267294262</v>
       </c>
       <c r="K2">
-        <v>13.91974279655021</v>
+        <v>13.57614712051761</v>
       </c>
       <c r="L2">
-        <v>5.590690913033526</v>
+        <v>11.70705170393278</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.375379506613024</v>
       </c>
       <c r="N2">
-        <v>8.424874887987773</v>
+        <v>5.594926992177434</v>
       </c>
       <c r="O2">
-        <v>12.63562693744139</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.7228615651371</v>
+        <v>8.557983730336263</v>
       </c>
       <c r="Q2">
-        <v>13.56064095173154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.60747522633881</v>
+      </c>
+      <c r="R2">
+        <v>12.71333023397596</v>
+      </c>
+      <c r="S2">
+        <v>13.3101794538072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.66365350309959</v>
+        <v>16.53031115881193</v>
       </c>
       <c r="C3">
-        <v>11.84868279400225</v>
+        <v>11.70377824937457</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.66347593905512</v>
+        <v>10.59104624938437</v>
       </c>
       <c r="F3">
-        <v>24.30522988618796</v>
+        <v>24.01034594657888</v>
       </c>
       <c r="G3">
-        <v>20.1606390428223</v>
+        <v>18.97457249480037</v>
       </c>
       <c r="H3">
-        <v>2.372168109637337</v>
+        <v>2.325682178740161</v>
       </c>
       <c r="I3">
-        <v>2.651632033423406</v>
+        <v>2.583125103278073</v>
       </c>
       <c r="J3">
-        <v>8.41192997002344</v>
+        <v>8.82563910681356</v>
       </c>
       <c r="K3">
-        <v>13.99571745901385</v>
+        <v>13.66875344869885</v>
       </c>
       <c r="L3">
-        <v>5.481753567925205</v>
+        <v>11.85620238300117</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.388616133836612</v>
       </c>
       <c r="N3">
-        <v>8.208409874063475</v>
+        <v>5.475835906939209</v>
       </c>
       <c r="O3">
-        <v>12.05861033726975</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.78049057731799</v>
+        <v>8.336796097364967</v>
       </c>
       <c r="Q3">
-        <v>13.45503308756455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.03249317755937</v>
+      </c>
+      <c r="R3">
+        <v>12.75131445200591</v>
+      </c>
+      <c r="S3">
+        <v>13.22847324906095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.89690594802854</v>
+        <v>15.7900901319102</v>
       </c>
       <c r="C4">
-        <v>11.64866533437912</v>
+        <v>11.46320441712457</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.61035809983661</v>
+        <v>10.54528391926701</v>
       </c>
       <c r="F4">
-        <v>23.99319307142081</v>
+        <v>23.72144455693408</v>
       </c>
       <c r="G4">
-        <v>19.84994376700186</v>
+        <v>18.7033642081831</v>
       </c>
       <c r="H4">
-        <v>2.49066356813658</v>
+        <v>2.438087539966431</v>
       </c>
       <c r="I4">
-        <v>2.737286214599064</v>
+        <v>2.660303394710839</v>
       </c>
       <c r="J4">
-        <v>8.414730251281156</v>
+        <v>8.815898815606813</v>
       </c>
       <c r="K4">
-        <v>14.04650230499661</v>
+        <v>13.72864824897268</v>
       </c>
       <c r="L4">
-        <v>5.412931694004492</v>
+        <v>11.95042083846953</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.416008857702085</v>
       </c>
       <c r="N4">
-        <v>8.073651719032506</v>
+        <v>5.400717704053657</v>
       </c>
       <c r="O4">
-        <v>11.69019753661665</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.81841412828232</v>
+        <v>8.199488645224379</v>
       </c>
       <c r="Q4">
-        <v>13.39532894444465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.66513905834364</v>
+      </c>
+      <c r="R4">
+        <v>12.77748916860866</v>
+      </c>
+      <c r="S4">
+        <v>13.18239188683899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.56821424698723</v>
+        <v>15.47257036221197</v>
       </c>
       <c r="C5">
-        <v>11.57029775876697</v>
+        <v>11.36852900339099</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.58793701937961</v>
+        <v>10.52590975339406</v>
       </c>
       <c r="F5">
-        <v>23.86157145001013</v>
+        <v>23.5990461529714</v>
       </c>
       <c r="G5">
-        <v>19.71446425995772</v>
+        <v>18.58392018806671</v>
       </c>
       <c r="H5">
-        <v>2.540305804261101</v>
+        <v>2.485195605068301</v>
       </c>
       <c r="I5">
-        <v>2.776185619747198</v>
+        <v>2.696251640089053</v>
       </c>
       <c r="J5">
-        <v>8.415032556358955</v>
+        <v>8.810655019071085</v>
       </c>
       <c r="K5">
-        <v>14.06456954670755</v>
+        <v>13.75020123719236</v>
       </c>
       <c r="L5">
-        <v>5.384916011963734</v>
+        <v>11.98598833810941</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.430101823062573</v>
       </c>
       <c r="N5">
-        <v>8.019725853805289</v>
+        <v>5.37014942731408</v>
       </c>
       <c r="O5">
-        <v>11.53621226269088</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.83520230306344</v>
+        <v>8.144635810339308</v>
       </c>
       <c r="Q5">
-        <v>13.36833229438489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.51152769109615</v>
+      </c>
+      <c r="R5">
+        <v>12.78962712595608</v>
+      </c>
+      <c r="S5">
+        <v>13.16065702878115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.50744682557103</v>
+        <v>15.41364308902912</v>
       </c>
       <c r="C6">
-        <v>11.56231817087242</v>
+        <v>11.35831338065508</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.58338818389312</v>
+        <v>10.52187571887149</v>
       </c>
       <c r="F6">
-        <v>23.83330218623067</v>
+        <v>23.57223794719823</v>
       </c>
       <c r="G6">
-        <v>19.67986797339793</v>
+        <v>18.55161179378686</v>
       </c>
       <c r="H6">
-        <v>2.548916710005404</v>
+        <v>2.493377818153315</v>
       </c>
       <c r="I6">
-        <v>2.786554716964764</v>
+        <v>2.706815511747397</v>
       </c>
       <c r="J6">
-        <v>8.413267026023101</v>
+        <v>8.807937644523223</v>
       </c>
       <c r="K6">
-        <v>14.06318068251716</v>
+        <v>13.74942882857105</v>
       </c>
       <c r="L6">
-        <v>5.380855973626838</v>
+        <v>11.98767107249921</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.43044213861311</v>
       </c>
       <c r="N6">
-        <v>8.012458283192867</v>
+        <v>5.365695351314706</v>
       </c>
       <c r="O6">
-        <v>11.50987063465431</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.83889780267511</v>
+        <v>8.137241171289919</v>
       </c>
       <c r="Q6">
-        <v>13.35909889079317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.4852367834072</v>
+      </c>
+      <c r="R6">
+        <v>12.7926291466193</v>
+      </c>
+      <c r="S6">
+        <v>13.15225757726045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.87792499326758</v>
+        <v>15.76580863271422</v>
       </c>
       <c r="C7">
-        <v>11.66146030025086</v>
+        <v>11.47060985401964</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.60783889310916</v>
+        <v>10.54474615722897</v>
       </c>
       <c r="F7">
-        <v>23.97388651592185</v>
+        <v>23.6947077223846</v>
       </c>
       <c r="G7">
-        <v>19.8151441537403</v>
+        <v>18.7566397164903</v>
       </c>
       <c r="H7">
-        <v>2.492133818724059</v>
+        <v>2.439916850543645</v>
       </c>
       <c r="I7">
-        <v>2.747990403650296</v>
+        <v>2.673235280860827</v>
       </c>
       <c r="J7">
-        <v>8.409670133170859</v>
+        <v>8.775150719185625</v>
       </c>
       <c r="K7">
-        <v>14.03459307994997</v>
+        <v>13.71267408919378</v>
       </c>
       <c r="L7">
-        <v>5.414255170426536</v>
+        <v>11.93546204553721</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.407220768487992</v>
       </c>
       <c r="N7">
-        <v>8.077556331912527</v>
+        <v>5.402887568931178</v>
       </c>
       <c r="O7">
-        <v>11.68658919259467</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.82107534276499</v>
+        <v>8.204181289340491</v>
       </c>
       <c r="Q7">
-        <v>13.38181618317942</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.66023777538907</v>
+      </c>
+      <c r="R7">
+        <v>12.78134713542474</v>
+      </c>
+      <c r="S7">
+        <v>13.15981855334956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.42397373342675</v>
+        <v>17.24715047655536</v>
       </c>
       <c r="C8">
-        <v>12.07655308100911</v>
+        <v>11.95501896863708</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.71694915646347</v>
+        <v>10.64329270369266</v>
       </c>
       <c r="F8">
-        <v>24.61806391813706</v>
+        <v>24.2739493674732</v>
       </c>
       <c r="G8">
-        <v>20.45315228937422</v>
+        <v>19.51264835708311</v>
       </c>
       <c r="H8">
-        <v>2.250473173518913</v>
+        <v>2.211559450831098</v>
       </c>
       <c r="I8">
-        <v>2.576791919132479</v>
+        <v>2.5210176233326</v>
       </c>
       <c r="J8">
-        <v>8.40464655080188</v>
+        <v>8.714186817323538</v>
       </c>
       <c r="K8">
-        <v>13.92901376987034</v>
+        <v>13.57763428570984</v>
       </c>
       <c r="L8">
-        <v>5.555800333571808</v>
+        <v>11.73202133855741</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.35627674220612</v>
       </c>
       <c r="N8">
-        <v>8.356605278708045</v>
+        <v>5.559334015924401</v>
       </c>
       <c r="O8">
-        <v>12.43774253378482</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.74568585156857</v>
+        <v>8.49052148814204</v>
       </c>
       <c r="Q8">
-        <v>13.50597747672645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.40627371345517</v>
+      </c>
+      <c r="R8">
+        <v>12.73340887384902</v>
+      </c>
+      <c r="S8">
+        <v>13.23412127009446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.11133651930972</v>
+        <v>19.83919936063406</v>
       </c>
       <c r="C9">
-        <v>12.83086699969556</v>
+        <v>12.85875682710366</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.93120551517874</v>
+        <v>10.83120105995622</v>
       </c>
       <c r="F9">
-        <v>25.92674803774286</v>
+        <v>25.47971224921655</v>
       </c>
       <c r="G9">
-        <v>21.78379030400233</v>
+        <v>20.75704447054184</v>
       </c>
       <c r="H9">
-        <v>1.809266557166461</v>
+        <v>1.793557689605653</v>
       </c>
       <c r="I9">
-        <v>2.693711660209158</v>
+        <v>2.724934245747205</v>
       </c>
       <c r="J9">
-        <v>8.426321479994082</v>
+        <v>8.738395623844458</v>
       </c>
       <c r="K9">
-        <v>13.77780314106034</v>
+        <v>13.37451575698313</v>
       </c>
       <c r="L9">
-        <v>5.814546766989529</v>
+        <v>11.38654005716437</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.433421595909959</v>
       </c>
       <c r="N9">
-        <v>8.878829534931846</v>
+        <v>5.843535948738405</v>
       </c>
       <c r="O9">
-        <v>13.79523570828773</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.61373404900376</v>
+        <v>9.026652219775093</v>
       </c>
       <c r="Q9">
-        <v>13.81385061290558</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.75707640795771</v>
+      </c>
+      <c r="R9">
+        <v>12.65358061796544</v>
+      </c>
+      <c r="S9">
+        <v>13.46941493241711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.82882990266782</v>
+        <v>21.47340117982256</v>
       </c>
       <c r="C10">
-        <v>13.4022684790019</v>
+        <v>13.49873658103353</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.01359031231516</v>
+        <v>10.90734983709379</v>
       </c>
       <c r="F10">
-        <v>26.72584941445136</v>
+        <v>26.16994216546241</v>
       </c>
       <c r="G10">
-        <v>22.62965110529298</v>
+        <v>22.01434502051728</v>
       </c>
       <c r="H10">
-        <v>1.611235478409154</v>
+        <v>1.609261898826375</v>
       </c>
       <c r="I10">
-        <v>2.90586060651453</v>
+        <v>2.914895819590579</v>
       </c>
       <c r="J10">
-        <v>8.433976405722117</v>
+        <v>8.548557635807541</v>
       </c>
       <c r="K10">
-        <v>13.63928730431592</v>
+        <v>13.17368171262944</v>
       </c>
       <c r="L10">
-        <v>6.014625100455111</v>
+        <v>11.09834385862288</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.523308499572066</v>
       </c>
       <c r="N10">
-        <v>9.168028625765089</v>
+        <v>6.066831301877462</v>
       </c>
       <c r="O10">
-        <v>14.64132745180334</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.54619226361985</v>
+        <v>9.329370186218664</v>
       </c>
       <c r="Q10">
-        <v>14.00733146993409</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.59178648527003</v>
+      </c>
+      <c r="R10">
+        <v>12.63416994204315</v>
+      </c>
+      <c r="S10">
+        <v>13.55948009532663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.29135057309482</v>
+        <v>21.8898425784489</v>
       </c>
       <c r="C11">
-        <v>13.98654181110085</v>
+        <v>14.03671311097915</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.49061696227108</v>
+        <v>10.40085699211605</v>
       </c>
       <c r="F11">
-        <v>25.71698560600181</v>
+        <v>25.09768760915028</v>
       </c>
       <c r="G11">
-        <v>21.90684529315771</v>
+        <v>22.33147633523541</v>
       </c>
       <c r="H11">
-        <v>2.635032305279418</v>
+        <v>2.636535309138912</v>
       </c>
       <c r="I11">
-        <v>2.972688676449706</v>
+        <v>2.974011694921475</v>
       </c>
       <c r="J11">
-        <v>8.254093091129839</v>
+        <v>8.023598157195377</v>
       </c>
       <c r="K11">
-        <v>13.18289180695044</v>
+        <v>12.704410877496</v>
       </c>
       <c r="L11">
-        <v>6.285717866331993</v>
+        <v>10.72396828820451</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.233945779426053</v>
       </c>
       <c r="N11">
-        <v>8.596581427206118</v>
+        <v>6.360852921541027</v>
       </c>
       <c r="O11">
-        <v>14.38614353123616</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.66060892683969</v>
+        <v>8.754183797081563</v>
       </c>
       <c r="Q11">
-        <v>13.62725094384991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.32473314750832</v>
+      </c>
+      <c r="R11">
+        <v>12.78837931770282</v>
+      </c>
+      <c r="S11">
+        <v>13.08850927457528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.34903879853013</v>
+        <v>21.94021697622743</v>
       </c>
       <c r="C12">
-        <v>14.35411791151308</v>
+        <v>14.36517138687734</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.12725946122579</v>
+        <v>10.03941494777144</v>
       </c>
       <c r="F12">
-        <v>24.70458249847419</v>
+        <v>24.08051533660381</v>
       </c>
       <c r="G12">
-        <v>21.14488595652146</v>
+        <v>22.08213202950882</v>
       </c>
       <c r="H12">
-        <v>4.062144848984181</v>
+        <v>4.066839980216734</v>
       </c>
       <c r="I12">
-        <v>2.982324161723664</v>
+        <v>2.980902333590667</v>
       </c>
       <c r="J12">
-        <v>8.10427886184458</v>
+        <v>7.762917600558358</v>
       </c>
       <c r="K12">
-        <v>12.84709352412745</v>
+        <v>12.38915352282075</v>
       </c>
       <c r="L12">
-        <v>6.487300691244341</v>
+        <v>10.50375473760987</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.990113292703999</v>
       </c>
       <c r="N12">
-        <v>8.060695140584187</v>
+        <v>6.573546051622775</v>
       </c>
       <c r="O12">
-        <v>13.98934177990089</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.778110155863</v>
+        <v>8.208141304972658</v>
       </c>
       <c r="Q12">
-        <v>13.2754586383499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.92426628924164</v>
+      </c>
+      <c r="R12">
+        <v>12.92362372336498</v>
+      </c>
+      <c r="S12">
+        <v>12.7152749070875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.08451175875287</v>
+        <v>21.70776368384565</v>
       </c>
       <c r="C13">
-        <v>14.60004714581792</v>
+        <v>14.59469507226355</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.869599131902099</v>
+        <v>9.776131641565144</v>
       </c>
       <c r="F13">
-        <v>23.59009692732329</v>
+        <v>23.02170492849483</v>
       </c>
       <c r="G13">
-        <v>20.24349729643742</v>
+        <v>21.11292747026253</v>
       </c>
       <c r="H13">
-        <v>5.510253178874444</v>
+        <v>5.513022948417309</v>
       </c>
       <c r="I13">
-        <v>2.953199897033111</v>
+        <v>2.955013099092404</v>
       </c>
       <c r="J13">
-        <v>7.96029142153197</v>
+        <v>7.706982365525701</v>
       </c>
       <c r="K13">
-        <v>12.56681867285075</v>
+        <v>12.16284368090488</v>
       </c>
       <c r="L13">
-        <v>6.649946553502514</v>
+        <v>10.36803235468086</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.764586829513361</v>
       </c>
       <c r="N13">
-        <v>7.524435309898269</v>
+        <v>6.735281538774456</v>
       </c>
       <c r="O13">
-        <v>13.44753720503356</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.90499036354952</v>
+        <v>7.655333434753762</v>
       </c>
       <c r="Q13">
-        <v>12.90114023909463</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.38737532092235</v>
+      </c>
+      <c r="R13">
+        <v>13.04633901000513</v>
+      </c>
+      <c r="S13">
+        <v>12.39262274471546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.74636702361482</v>
+        <v>21.40995464220299</v>
       </c>
       <c r="C14">
-        <v>14.72365571483686</v>
+        <v>14.71762736227069</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.755029229811035</v>
+        <v>9.658773426759785</v>
       </c>
       <c r="F14">
-        <v>22.75652243885735</v>
+        <v>22.25296607110061</v>
       </c>
       <c r="G14">
-        <v>19.53435930359057</v>
+        <v>20.10174326997652</v>
       </c>
       <c r="H14">
-        <v>6.529772952898185</v>
+        <v>6.531127248838269</v>
       </c>
       <c r="I14">
-        <v>2.916487700744046</v>
+        <v>2.923596673833044</v>
       </c>
       <c r="J14">
-        <v>7.861218817713965</v>
+        <v>7.746810970258895</v>
       </c>
       <c r="K14">
-        <v>12.39616436331128</v>
+        <v>12.04176523141573</v>
       </c>
       <c r="L14">
-        <v>6.748617280811809</v>
+        <v>10.30491479422677</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.61670689087622</v>
       </c>
       <c r="N14">
-        <v>7.155379422815781</v>
+        <v>6.827318500481576</v>
       </c>
       <c r="O14">
-        <v>12.9957862246554</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.9988792261362</v>
+        <v>7.272433599248829</v>
       </c>
       <c r="Q14">
-        <v>12.62535582763647</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.9427622499671</v>
+      </c>
+      <c r="R14">
+        <v>13.12678217790401</v>
+      </c>
+      <c r="S14">
+        <v>12.18380525626176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.5892286057891</v>
+        <v>21.27043441358099</v>
       </c>
       <c r="C15">
-        <v>14.7322247153442</v>
+        <v>14.73098832091562</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.736637365516174</v>
+        <v>9.640721296325349</v>
       </c>
       <c r="F15">
-        <v>22.52812008036521</v>
+        <v>22.05123715842567</v>
       </c>
       <c r="G15">
-        <v>19.32200864812409</v>
+        <v>19.70754137246171</v>
       </c>
       <c r="H15">
-        <v>6.76629967091939</v>
+        <v>6.76711301432628</v>
       </c>
       <c r="I15">
-        <v>2.900528954583319</v>
+        <v>2.91072176416527</v>
       </c>
       <c r="J15">
-        <v>7.837254672460155</v>
+        <v>7.790702965278985</v>
       </c>
       <c r="K15">
-        <v>12.3631183554038</v>
+        <v>12.02582738854292</v>
       </c>
       <c r="L15">
-        <v>6.763216609421306</v>
+        <v>10.30126801229306</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.582891162651021</v>
       </c>
       <c r="N15">
-        <v>7.065141553516929</v>
+        <v>6.83785379005728</v>
       </c>
       <c r="O15">
-        <v>12.85395099441919</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>13.02338436806976</v>
+        <v>7.178140173959735</v>
       </c>
       <c r="Q15">
-        <v>12.55021358301504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>12.80423618085627</v>
+      </c>
+      <c r="R15">
+        <v>13.14364581658979</v>
+      </c>
+      <c r="S15">
+        <v>12.13795966086104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.91544695522285</v>
+        <v>20.6633366878001</v>
       </c>
       <c r="C16">
-        <v>14.45758512008376</v>
+        <v>14.49106992510187</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.749575130375</v>
+        <v>9.659541543923474</v>
       </c>
       <c r="F16">
-        <v>22.37264834847617</v>
+        <v>21.98710615150536</v>
       </c>
       <c r="G16">
-        <v>19.08195758866646</v>
+        <v>18.58638573056303</v>
       </c>
       <c r="H16">
-        <v>6.560366131160528</v>
+        <v>6.558624345197471</v>
       </c>
       <c r="I16">
-        <v>2.818166143629704</v>
+        <v>2.840853940850348</v>
       </c>
       <c r="J16">
-        <v>7.858903763309007</v>
+        <v>8.1091993183994</v>
       </c>
       <c r="K16">
-        <v>12.47582918005892</v>
+        <v>12.17973905173659</v>
       </c>
       <c r="L16">
-        <v>6.649196174101259</v>
+        <v>10.43290956003862</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.628187471709645</v>
       </c>
       <c r="N16">
-        <v>7.041012267236822</v>
+        <v>6.703507572876966</v>
       </c>
       <c r="O16">
-        <v>12.57918500798534</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>13.01634182158168</v>
+        <v>7.148408618856937</v>
       </c>
       <c r="Q16">
-        <v>12.52766304356807</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.54257837173756</v>
+      </c>
+      <c r="R16">
+        <v>13.09937345909455</v>
+      </c>
+      <c r="S16">
+        <v>12.22273866106207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.57541957791532</v>
+        <v>20.34635309158764</v>
       </c>
       <c r="C17">
-        <v>14.17674769124113</v>
+        <v>14.22602194678038</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.810293740726078</v>
+        <v>9.721361663645625</v>
       </c>
       <c r="F17">
-        <v>22.7040145457328</v>
+        <v>22.34512797650759</v>
       </c>
       <c r="G17">
-        <v>19.2864414428719</v>
+        <v>18.40250734300123</v>
       </c>
       <c r="H17">
-        <v>5.8289014698327</v>
+        <v>5.825343078227465</v>
       </c>
       <c r="I17">
-        <v>2.774669452683068</v>
+        <v>2.803732493114631</v>
       </c>
       <c r="J17">
-        <v>7.928482480023219</v>
+        <v>8.305666776110399</v>
       </c>
       <c r="K17">
-        <v>12.65075314919567</v>
+        <v>12.35803248690624</v>
       </c>
       <c r="L17">
-        <v>6.506283841874651</v>
+        <v>10.57303853051437</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.733164129558519</v>
       </c>
       <c r="N17">
-        <v>7.217610477992428</v>
+        <v>6.551034848495208</v>
       </c>
       <c r="O17">
-        <v>12.6158272164193</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.96270135438596</v>
+        <v>7.328027386527802</v>
       </c>
       <c r="Q17">
-        <v>12.658989215109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.58392130934607</v>
+      </c>
+      <c r="R17">
+        <v>13.02845542006816</v>
+      </c>
+      <c r="S17">
+        <v>12.38897892461775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.50498046328756</v>
+        <v>20.27215968859583</v>
       </c>
       <c r="C18">
-        <v>13.85269212693364</v>
+        <v>13.91488554566571</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.976702268571454</v>
+        <v>9.883406159242671</v>
       </c>
       <c r="F18">
-        <v>23.50217221876429</v>
+        <v>23.13216787767041</v>
       </c>
       <c r="G18">
-        <v>19.91402813022088</v>
+        <v>18.84110269620601</v>
       </c>
       <c r="H18">
-        <v>4.586749949151829</v>
+        <v>4.581559232162381</v>
       </c>
       <c r="I18">
-        <v>2.756930772598473</v>
+        <v>2.787033497327561</v>
       </c>
       <c r="J18">
-        <v>8.049562866201294</v>
+        <v>8.470336346818456</v>
       </c>
       <c r="K18">
-        <v>12.9106039046557</v>
+        <v>12.5970768926646</v>
       </c>
       <c r="L18">
-        <v>6.327519191104618</v>
+        <v>10.75204221680754</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.910414037570504</v>
       </c>
       <c r="N18">
-        <v>7.601212630604332</v>
+        <v>6.36801984196877</v>
       </c>
       <c r="O18">
-        <v>12.92675120095913</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.86381761163888</v>
+        <v>7.720551550639206</v>
       </c>
       <c r="Q18">
-        <v>12.94397940336898</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.89521175142416</v>
+      </c>
+      <c r="R18">
+        <v>12.92238557362206</v>
+      </c>
+      <c r="S18">
+        <v>12.67032962975455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.6362731981474</v>
+        <v>20.38219899085056</v>
       </c>
       <c r="C19">
-        <v>13.55501193731269</v>
+        <v>13.63289321265924</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.29315254048191</v>
+        <v>10.19203835820951</v>
       </c>
       <c r="F19">
-        <v>24.58612477783041</v>
+        <v>24.18120939379353</v>
       </c>
       <c r="G19">
-        <v>20.77023200325337</v>
+        <v>19.60579211105701</v>
       </c>
       <c r="H19">
-        <v>3.121748401688105</v>
+        <v>3.114904750012175</v>
       </c>
       <c r="I19">
-        <v>2.772253691206259</v>
+        <v>2.801670690041986</v>
       </c>
       <c r="J19">
-        <v>8.193933610730381</v>
+        <v>8.612870238359156</v>
       </c>
       <c r="K19">
-        <v>13.20793441612878</v>
+        <v>12.85855366826375</v>
       </c>
       <c r="L19">
-        <v>6.148544787842787</v>
+        <v>10.94242560454428</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.12322787008924</v>
       </c>
       <c r="N19">
-        <v>8.150112877827443</v>
+        <v>6.187622503959435</v>
       </c>
       <c r="O19">
-        <v>13.42596675270457</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.74906864957427</v>
+        <v>8.282063530679752</v>
       </c>
       <c r="Q19">
-        <v>13.30692181341868</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.39222611459307</v>
+      </c>
+      <c r="R19">
+        <v>12.80674896538845</v>
+      </c>
+      <c r="S19">
+        <v>13.00678475589988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.3559776695187</v>
+        <v>21.03642211662682</v>
       </c>
       <c r="C20">
-        <v>13.29614394870136</v>
+        <v>13.39942670185316</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.98267006006111</v>
+        <v>10.87118436827461</v>
       </c>
       <c r="F20">
-        <v>26.45989865284598</v>
+        <v>25.95635764809627</v>
       </c>
       <c r="G20">
-        <v>22.31056173253356</v>
+        <v>21.30016679685814</v>
       </c>
       <c r="H20">
-        <v>1.608568669275995</v>
+        <v>1.604812610428244</v>
       </c>
       <c r="I20">
-        <v>2.861798272082057</v>
+        <v>2.88137223405039</v>
       </c>
       <c r="J20">
-        <v>8.414680931350386</v>
+        <v>8.7015808827645</v>
       </c>
       <c r="K20">
-        <v>13.63469964545429</v>
+        <v>13.2028412537143</v>
       </c>
       <c r="L20">
-        <v>5.969004757250432</v>
+        <v>11.15686718573399</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.475158298208079</v>
       </c>
       <c r="N20">
-        <v>9.101968343192967</v>
+        <v>6.012604144707308</v>
       </c>
       <c r="O20">
-        <v>14.4168522937825</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.57308565204376</v>
+        <v>9.257455637248825</v>
       </c>
       <c r="Q20">
-        <v>13.91362844163239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.37412000091272</v>
+      </c>
+      <c r="R20">
+        <v>12.64445844370936</v>
+      </c>
+      <c r="S20">
+        <v>13.52488033170999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.66077369478712</v>
+        <v>22.19997610877363</v>
       </c>
       <c r="C21">
-        <v>13.66306250048348</v>
+        <v>13.71162063050545</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.15782621458479</v>
+        <v>11.07943008857546</v>
       </c>
       <c r="F21">
-        <v>27.32494843732513</v>
+        <v>26.60501868726986</v>
       </c>
       <c r="G21">
-        <v>23.17251559334105</v>
+        <v>23.95442052098924</v>
       </c>
       <c r="H21">
-        <v>1.758050563916984</v>
+        <v>1.742741820688049</v>
       </c>
       <c r="I21">
-        <v>3.025150738705624</v>
+        <v>3.020772744169595</v>
       </c>
       <c r="J21">
-        <v>8.460533250342783</v>
+        <v>8.015542668170864</v>
       </c>
       <c r="K21">
-        <v>13.61251897033725</v>
+        <v>13.04127160788881</v>
       </c>
       <c r="L21">
-        <v>6.088197821549852</v>
+        <v>10.93669819379527</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.55562004207453</v>
       </c>
       <c r="N21">
-        <v>9.445149791146099</v>
+        <v>6.163799980290918</v>
       </c>
       <c r="O21">
-        <v>15.15286360635074</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.50190426380942</v>
+        <v>9.626914953042201</v>
       </c>
       <c r="Q21">
-        <v>14.16003104540028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.08086645788399</v>
+      </c>
+      <c r="R21">
+        <v>12.63674092584907</v>
+      </c>
+      <c r="S21">
+        <v>13.51915819486132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.47173885355796</v>
+        <v>22.91938224274228</v>
       </c>
       <c r="C22">
-        <v>13.89975908389306</v>
+        <v>13.9047478686543</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.23764541232027</v>
+        <v>11.18676797078423</v>
       </c>
       <c r="F22">
-        <v>27.82780131895455</v>
+        <v>26.96157523203521</v>
       </c>
       <c r="G22">
-        <v>23.70710821734114</v>
+        <v>25.75791072387317</v>
       </c>
       <c r="H22">
-        <v>1.900733591918564</v>
+        <v>1.873416286136825</v>
       </c>
       <c r="I22">
-        <v>3.123868047883434</v>
+        <v>3.103025236121649</v>
       </c>
       <c r="J22">
-        <v>8.489309264208817</v>
+        <v>7.595698624470009</v>
       </c>
       <c r="K22">
-        <v>13.59596959936487</v>
+        <v>12.92647847748431</v>
       </c>
       <c r="L22">
-        <v>6.171831904157346</v>
+        <v>10.79008138020215</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.610101928249779</v>
       </c>
       <c r="N22">
-        <v>9.618391371406156</v>
+        <v>6.269434518328112</v>
       </c>
       <c r="O22">
-        <v>15.58274639861646</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.46120593061286</v>
+        <v>9.817461528201623</v>
       </c>
       <c r="Q22">
-        <v>14.31478727743268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.49072629794267</v>
+      </c>
+      <c r="R22">
+        <v>12.64100558761692</v>
+      </c>
+      <c r="S22">
+        <v>13.49705533744904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.05493000517228</v>
+        <v>22.56142223932403</v>
       </c>
       <c r="C23">
-        <v>13.75897733522626</v>
+        <v>13.80050412575543</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.19737994502597</v>
+        <v>11.12592748136122</v>
       </c>
       <c r="F23">
-        <v>27.57755292869968</v>
+        <v>26.80670509342513</v>
       </c>
       <c r="G23">
-        <v>23.45497517677808</v>
+        <v>24.62287941280227</v>
       </c>
       <c r="H23">
-        <v>1.825588282108328</v>
+        <v>1.805291955095014</v>
       </c>
       <c r="I23">
-        <v>3.067151664237594</v>
+        <v>3.054403685319159</v>
       </c>
       <c r="J23">
-        <v>8.479451846832227</v>
+        <v>7.883833955761363</v>
       </c>
       <c r="K23">
-        <v>13.61856759522505</v>
+        <v>13.01209574582583</v>
       </c>
       <c r="L23">
-        <v>6.12538799353225</v>
+        <v>10.88336544671792</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.602448909642808</v>
       </c>
       <c r="N23">
-        <v>9.52148429803399</v>
+        <v>6.208986913924465</v>
       </c>
       <c r="O23">
-        <v>15.35623839029429</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.47890042170993</v>
+        <v>9.709371361760001</v>
       </c>
       <c r="Q23">
-        <v>14.24616376414864</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.27764040288072</v>
+      </c>
+      <c r="R23">
+        <v>12.63029649369548</v>
+      </c>
+      <c r="S23">
+        <v>13.54575626575551</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.37836719694743</v>
+        <v>21.05775999171306</v>
       </c>
       <c r="C24">
-        <v>13.23882720626513</v>
+        <v>13.3411853260608</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.04048238088986</v>
+        <v>10.92808359761623</v>
       </c>
       <c r="F24">
-        <v>26.59851795806282</v>
+        <v>26.09285366023393</v>
       </c>
       <c r="G24">
-        <v>22.44747335132892</v>
+        <v>21.41776801785087</v>
       </c>
       <c r="H24">
-        <v>1.588473990471279</v>
+        <v>1.58472861981886</v>
       </c>
       <c r="I24">
-        <v>2.855009620491783</v>
+        <v>2.872346265726704</v>
       </c>
       <c r="J24">
-        <v>8.439139926056376</v>
+        <v>8.729809984819918</v>
       </c>
       <c r="K24">
-        <v>13.69181678733089</v>
+        <v>13.2557050637537</v>
       </c>
       <c r="L24">
-        <v>5.948617380082106</v>
+        <v>11.19570531441315</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.517176346982806</v>
       </c>
       <c r="N24">
-        <v>9.155379767142799</v>
+        <v>5.99134924385233</v>
       </c>
       <c r="O24">
-        <v>14.46474301489022</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.55736131737974</v>
+        <v>9.311840024877288</v>
       </c>
       <c r="Q24">
-        <v>13.97369019096041</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.42198515760959</v>
+      </c>
+      <c r="R24">
+        <v>12.62726556501281</v>
+      </c>
+      <c r="S24">
+        <v>13.58351574892581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.40147596383595</v>
+        <v>19.16010724771529</v>
       </c>
       <c r="C25">
-        <v>12.65486874838678</v>
+        <v>12.65422850311446</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.86990483833291</v>
+        <v>10.77411482878868</v>
       </c>
       <c r="F25">
-        <v>25.54240016534077</v>
+        <v>25.13308217248953</v>
       </c>
       <c r="G25">
-        <v>21.36716573475685</v>
+        <v>20.24257076827439</v>
       </c>
       <c r="H25">
-        <v>1.9263199391368</v>
+        <v>1.90395232429937</v>
       </c>
       <c r="I25">
-        <v>2.61873654567553</v>
+        <v>2.660507764421441</v>
       </c>
       <c r="J25">
-        <v>8.408941054290379</v>
+        <v>8.771337714859884</v>
       </c>
       <c r="K25">
-        <v>13.79299788116968</v>
+        <v>13.41161184980136</v>
       </c>
       <c r="L25">
-        <v>5.74938434973649</v>
+        <v>11.466345113553</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.384209850290135</v>
       </c>
       <c r="N25">
-        <v>8.7474878079046</v>
+        <v>5.770626429570041</v>
       </c>
       <c r="O25">
-        <v>13.43889599876044</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.65233959161518</v>
+        <v>8.890460119116309</v>
       </c>
       <c r="Q25">
-        <v>13.70310031116121</v>
+        <v>13.40427127148665</v>
+      </c>
+      <c r="R25">
+        <v>12.67658028955435</v>
+      </c>
+      <c r="S25">
+        <v>13.39183328584982</v>
       </c>
     </row>
   </sheetData>
